--- a/BackTest/2020-01-20 BackTest FX.xlsx
+++ b/BackTest/2020-01-20 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M301"/>
+  <dimension ref="A1:M302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>66.41</v>
+        <v>66.8</v>
       </c>
       <c r="C2" t="n">
-        <v>66.41</v>
+        <v>66.69</v>
       </c>
       <c r="D2" t="n">
-        <v>66.41</v>
+        <v>66.8</v>
       </c>
       <c r="E2" t="n">
         <v>66.41</v>
       </c>
       <c r="F2" t="n">
-        <v>5845.377</v>
+        <v>9259.977500000001</v>
       </c>
       <c r="G2" t="n">
-        <v>70.26316666666663</v>
+        <v>70.4763333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>66.40000000000001</v>
+        <v>66.41</v>
       </c>
       <c r="C3" t="n">
-        <v>66.79000000000001</v>
+        <v>66.41</v>
       </c>
       <c r="D3" t="n">
-        <v>66.79000000000001</v>
+        <v>66.41</v>
       </c>
       <c r="E3" t="n">
-        <v>66.40000000000001</v>
+        <v>66.41</v>
       </c>
       <c r="F3" t="n">
-        <v>12507.7877</v>
+        <v>5845.377</v>
       </c>
       <c r="G3" t="n">
-        <v>70.13783333333329</v>
+        <v>70.26316666666663</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>66.40000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51000000000001</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="E4" t="n">
         <v>66.40000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>1808.142</v>
+        <v>12507.7877</v>
       </c>
       <c r="G4" t="n">
-        <v>70.0768333333333</v>
+        <v>70.13783333333329</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>66.8</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>66.90000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="D5" t="n">
-        <v>66.90000000000001</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>66.8</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>8354.0484</v>
+        <v>1808.142</v>
       </c>
       <c r="G5" t="n">
-        <v>69.88816666666662</v>
+        <v>70.0768333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>67</v>
+        <v>66.8</v>
       </c>
       <c r="C6" t="n">
-        <v>67.48999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>67.48999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>66.90000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="F6" t="n">
-        <v>15232.9052</v>
+        <v>8354.0484</v>
       </c>
       <c r="G6" t="n">
-        <v>69.74933333333328</v>
+        <v>69.88816666666662</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>66.51000000000001</v>
+        <v>67</v>
       </c>
       <c r="C7" t="n">
-        <v>66.7</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>66.7</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>66.44</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>7571.8259</v>
+        <v>15232.9052</v>
       </c>
       <c r="G7" t="n">
-        <v>69.60449999999994</v>
+        <v>69.74933333333328</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66.7</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="C8" t="n">
         <v>66.7</v>
@@ -652,13 +652,13 @@
         <v>66.7</v>
       </c>
       <c r="E8" t="n">
-        <v>66.7</v>
+        <v>66.44</v>
       </c>
       <c r="F8" t="n">
-        <v>146.657</v>
+        <v>7571.8259</v>
       </c>
       <c r="G8" t="n">
-        <v>69.52616666666661</v>
+        <v>69.60449999999994</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -687,13 +687,13 @@
         <v>66.7</v>
       </c>
       <c r="E9" t="n">
-        <v>66.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="F9" t="n">
-        <v>10022.4143</v>
+        <v>146.657</v>
       </c>
       <c r="G9" t="n">
-        <v>69.46799999999995</v>
+        <v>69.52616666666661</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>66.5</v>
+        <v>66.7</v>
       </c>
       <c r="C10" t="n">
-        <v>66.40000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="D10" t="n">
-        <v>66.5</v>
+        <v>66.7</v>
       </c>
       <c r="E10" t="n">
-        <v>66.40000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>5266.6307</v>
+        <v>10022.4143</v>
       </c>
       <c r="G10" t="n">
-        <v>69.36633333333329</v>
+        <v>69.46799999999995</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>66.5</v>
       </c>
       <c r="C11" t="n">
-        <v>66.5</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D11" t="n">
         <v>66.5</v>
       </c>
       <c r="E11" t="n">
-        <v>66.5</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>5266.6307</v>
       </c>
       <c r="G11" t="n">
-        <v>69.27799999999995</v>
+        <v>69.36633333333329</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,38 +783,32 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>66.41</v>
+        <v>66.5</v>
       </c>
       <c r="C12" t="n">
-        <v>66.41</v>
+        <v>66.5</v>
       </c>
       <c r="D12" t="n">
-        <v>66.41</v>
+        <v>66.5</v>
       </c>
       <c r="E12" t="n">
-        <v>66.40000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="F12" t="n">
-        <v>8848.1291</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>69.21116666666661</v>
+        <v>69.27799999999995</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>66.5</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -824,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>67.59</v>
+        <v>66.41</v>
       </c>
       <c r="C13" t="n">
-        <v>67.59</v>
+        <v>66.41</v>
       </c>
       <c r="D13" t="n">
-        <v>67.59</v>
+        <v>66.41</v>
       </c>
       <c r="E13" t="n">
-        <v>67.59</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>150</v>
+        <v>8848.1291</v>
       </c>
       <c r="G13" t="n">
-        <v>69.16266666666661</v>
+        <v>69.21116666666661</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -849,11 +843,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -863,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>66.39</v>
+        <v>67.59</v>
       </c>
       <c r="C14" t="n">
-        <v>67</v>
+        <v>67.59</v>
       </c>
       <c r="D14" t="n">
-        <v>67</v>
+        <v>67.59</v>
       </c>
       <c r="E14" t="n">
-        <v>66.39</v>
+        <v>67.59</v>
       </c>
       <c r="F14" t="n">
-        <v>17.8755</v>
+        <v>150</v>
       </c>
       <c r="G14" t="n">
-        <v>69.07466666666662</v>
+        <v>69.16266666666661</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -902,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>66.48999999999999</v>
+        <v>66.39</v>
       </c>
       <c r="C15" t="n">
-        <v>66.48999999999999</v>
+        <v>67</v>
       </c>
       <c r="D15" t="n">
-        <v>66.48999999999999</v>
+        <v>67</v>
       </c>
       <c r="E15" t="n">
-        <v>66.48999999999999</v>
+        <v>66.39</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>17.8755</v>
       </c>
       <c r="G15" t="n">
-        <v>68.95966666666661</v>
+        <v>69.07466666666662</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -927,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -941,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>66.89</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>66.90000000000001</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>66.90000000000001</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>66.89</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>8377.412399999999</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>68.84283333333327</v>
+        <v>68.95966666666661</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -966,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -980,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>66.59999999999999</v>
+        <v>66.89</v>
       </c>
       <c r="C17" t="n">
-        <v>66.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>66.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>66.59999999999999</v>
+        <v>66.89</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>8377.412399999999</v>
       </c>
       <c r="G17" t="n">
-        <v>68.74949999999994</v>
+        <v>68.84283333333327</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1019,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>67.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>67.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>67.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>67.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>68.68266666666661</v>
+        <v>68.74949999999994</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1044,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1058,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>66.63</v>
+        <v>67.5</v>
       </c>
       <c r="C19" t="n">
-        <v>66.63</v>
+        <v>67.5</v>
       </c>
       <c r="D19" t="n">
-        <v>66.63</v>
+        <v>67.5</v>
       </c>
       <c r="E19" t="n">
-        <v>66.63</v>
+        <v>67.5</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G19" t="n">
-        <v>68.60566666666661</v>
+        <v>68.68266666666661</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1083,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1097,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>66.8</v>
+        <v>66.63</v>
       </c>
       <c r="C20" t="n">
-        <v>66.8</v>
+        <v>66.63</v>
       </c>
       <c r="D20" t="n">
-        <v>66.8</v>
+        <v>66.63</v>
       </c>
       <c r="E20" t="n">
-        <v>66.7</v>
+        <v>66.63</v>
       </c>
       <c r="F20" t="n">
-        <v>3351.9947</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>68.53149999999995</v>
+        <v>68.60566666666661</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1145,13 +1107,13 @@
         <v>66.8</v>
       </c>
       <c r="E21" t="n">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="F21" t="n">
-        <v>2267.3636</v>
+        <v>3351.9947</v>
       </c>
       <c r="G21" t="n">
-        <v>68.45733333333328</v>
+        <v>68.53149999999995</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1161,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1175,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>66.68000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="C22" t="n">
-        <v>66.62</v>
+        <v>66.8</v>
       </c>
       <c r="D22" t="n">
-        <v>66.68000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="E22" t="n">
-        <v>66.62</v>
+        <v>66.8</v>
       </c>
       <c r="F22" t="n">
-        <v>8673.860699999999</v>
+        <v>2267.3636</v>
       </c>
       <c r="G22" t="n">
-        <v>68.35166666666662</v>
+        <v>68.45733333333328</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1200,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1214,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>66.8</v>
+        <v>66.68000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>66.8</v>
+        <v>66.62</v>
       </c>
       <c r="D23" t="n">
-        <v>66.8</v>
+        <v>66.68000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>66.8</v>
+        <v>66.62</v>
       </c>
       <c r="F23" t="n">
-        <v>1134.147</v>
+        <v>8673.860699999999</v>
       </c>
       <c r="G23" t="n">
-        <v>68.27749999999995</v>
+        <v>68.35166666666662</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1239,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1265,10 +1215,10 @@
         <v>66.8</v>
       </c>
       <c r="F24" t="n">
-        <v>10651.8451</v>
+        <v>1134.147</v>
       </c>
       <c r="G24" t="n">
-        <v>68.22283333333328</v>
+        <v>68.27749999999995</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1278,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1292,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>67.5</v>
+        <v>66.8</v>
       </c>
       <c r="C25" t="n">
-        <v>67.59</v>
+        <v>66.8</v>
       </c>
       <c r="D25" t="n">
-        <v>67.59</v>
+        <v>66.8</v>
       </c>
       <c r="E25" t="n">
-        <v>67.2</v>
+        <v>66.8</v>
       </c>
       <c r="F25" t="n">
-        <v>3497.4494</v>
+        <v>10651.8451</v>
       </c>
       <c r="G25" t="n">
-        <v>68.15366666666662</v>
+        <v>68.22283333333328</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1317,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1340,13 +1282,13 @@
         <v>67.59</v>
       </c>
       <c r="E26" t="n">
-        <v>67.5</v>
+        <v>67.2</v>
       </c>
       <c r="F26" t="n">
-        <v>53.5</v>
+        <v>3497.4494</v>
       </c>
       <c r="G26" t="n">
-        <v>68.08449999999996</v>
+        <v>68.15366666666662</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1356,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1382,10 +1320,10 @@
         <v>67.5</v>
       </c>
       <c r="F27" t="n">
-        <v>19.5</v>
+        <v>53.5</v>
       </c>
       <c r="G27" t="n">
-        <v>68.0178333333333</v>
+        <v>68.08449999999996</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1395,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1409,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>66.8</v>
+        <v>67.5</v>
       </c>
       <c r="C28" t="n">
-        <v>66.8</v>
+        <v>67.59</v>
       </c>
       <c r="D28" t="n">
-        <v>66.8</v>
+        <v>67.59</v>
       </c>
       <c r="E28" t="n">
-        <v>66.8</v>
+        <v>67.5</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>19.5</v>
       </c>
       <c r="G28" t="n">
-        <v>67.93616666666664</v>
+        <v>68.0178333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1434,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1448,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>67.59</v>
+        <v>66.8</v>
       </c>
       <c r="C29" t="n">
-        <v>67.68000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="D29" t="n">
-        <v>67.68000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="E29" t="n">
-        <v>67.59</v>
+        <v>66.8</v>
       </c>
       <c r="F29" t="n">
-        <v>3132.0849</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>67.86849999999998</v>
+        <v>67.93616666666664</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1473,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1487,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>67.68000000000001</v>
+        <v>67.59</v>
       </c>
       <c r="C30" t="n">
         <v>67.68000000000001</v>
@@ -1496,13 +1422,13 @@
         <v>67.68000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>67.68000000000001</v>
+        <v>67.59</v>
       </c>
       <c r="F30" t="n">
-        <v>67.4512</v>
+        <v>3132.0849</v>
       </c>
       <c r="G30" t="n">
-        <v>67.81316666666665</v>
+        <v>67.86849999999998</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1512,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1526,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>67.88</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>68</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>68</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>67.88</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>159.4768</v>
+        <v>67.4512</v>
       </c>
       <c r="G31" t="n">
-        <v>67.75649999999999</v>
+        <v>67.81316666666665</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1551,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1565,7 +1483,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>68</v>
+        <v>67.88</v>
       </c>
       <c r="C32" t="n">
         <v>68</v>
@@ -1574,13 +1492,13 @@
         <v>68</v>
       </c>
       <c r="E32" t="n">
-        <v>68</v>
+        <v>67.88</v>
       </c>
       <c r="F32" t="n">
-        <v>8747.962299999999</v>
+        <v>159.4768</v>
       </c>
       <c r="G32" t="n">
-        <v>67.71166666666666</v>
+        <v>67.75649999999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1590,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1604,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>67.88</v>
+        <v>68</v>
       </c>
       <c r="C33" t="n">
-        <v>69.78</v>
+        <v>68</v>
       </c>
       <c r="D33" t="n">
-        <v>69.78</v>
+        <v>68</v>
       </c>
       <c r="E33" t="n">
-        <v>67.88</v>
+        <v>68</v>
       </c>
       <c r="F33" t="n">
-        <v>66.3646</v>
+        <v>8747.962299999999</v>
       </c>
       <c r="G33" t="n">
-        <v>67.69633333333333</v>
+        <v>67.71166666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1629,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1643,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>67.88</v>
+      </c>
+      <c r="C34" t="n">
         <v>69.78</v>
       </c>
-      <c r="C34" t="n">
-        <v>71.64</v>
-      </c>
       <c r="D34" t="n">
-        <v>71.68000000000001</v>
+        <v>69.78</v>
       </c>
       <c r="E34" t="n">
         <v>67.88</v>
       </c>
       <c r="F34" t="n">
-        <v>69710.62472652104</v>
+        <v>66.3646</v>
       </c>
       <c r="G34" t="n">
-        <v>67.70700000000001</v>
+        <v>67.69633333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1668,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1682,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>68.03</v>
+        <v>69.78</v>
       </c>
       <c r="C35" t="n">
-        <v>68.03</v>
+        <v>71.64</v>
       </c>
       <c r="D35" t="n">
-        <v>68.04000000000001</v>
+        <v>71.68000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>68.03</v>
+        <v>67.88</v>
       </c>
       <c r="F35" t="n">
-        <v>19830.5713</v>
+        <v>69710.62472652104</v>
       </c>
       <c r="G35" t="n">
-        <v>67.66083333333333</v>
+        <v>67.70700000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1707,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1721,59 +1623,57 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>68.03</v>
+      </c>
+      <c r="C36" t="n">
+        <v>68.03</v>
+      </c>
+      <c r="D36" t="n">
         <v>68.04000000000001</v>
       </c>
-      <c r="C36" t="n">
-        <v>71.70999999999999</v>
-      </c>
-      <c r="D36" t="n">
-        <v>71.70999999999999</v>
-      </c>
       <c r="E36" t="n">
-        <v>68.04000000000001</v>
+        <v>68.03</v>
       </c>
       <c r="F36" t="n">
-        <v>100881.9562284619</v>
+        <v>19830.5713</v>
       </c>
       <c r="G36" t="n">
-        <v>67.68266666666666</v>
+        <v>67.66083333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>68.33</v>
+        <v>68.04000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>70.79000000000001</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>70.79000000000001</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>68.33</v>
+        <v>68.04000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>6549.5991</v>
+        <v>100881.9562284619</v>
       </c>
       <c r="G37" t="n">
-        <v>67.68416666666667</v>
+        <v>67.68266666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1793,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>69.98999999999999</v>
+        <v>68.33</v>
       </c>
       <c r="C38" t="n">
-        <v>68</v>
+        <v>70.79000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>70.8</v>
+        <v>70.79000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>68</v>
+        <v>68.33</v>
       </c>
       <c r="F38" t="n">
-        <v>20326.07832485876</v>
+        <v>6549.5991</v>
       </c>
       <c r="G38" t="n">
-        <v>67.64933333333333</v>
+        <v>67.68416666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1828,28 +1728,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>68.52</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>68.59999999999999</v>
+        <v>68</v>
       </c>
       <c r="D39" t="n">
-        <v>68.61</v>
+        <v>70.8</v>
       </c>
       <c r="E39" t="n">
-        <v>68.51000000000001</v>
+        <v>68</v>
       </c>
       <c r="F39" t="n">
-        <v>19011.8322</v>
+        <v>20326.07832485876</v>
       </c>
       <c r="G39" t="n">
-        <v>67.62933333333334</v>
+        <v>67.64933333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1863,28 +1763,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>68.61</v>
+        <v>68.52</v>
       </c>
       <c r="C40" t="n">
-        <v>68.43000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D40" t="n">
         <v>68.61</v>
       </c>
       <c r="E40" t="n">
-        <v>68.43000000000001</v>
+        <v>68.51000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>2000</v>
+        <v>19011.8322</v>
       </c>
       <c r="G40" t="n">
-        <v>67.60666666666667</v>
+        <v>67.62933333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1898,28 +1798,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>68.44</v>
+        <v>68.61</v>
       </c>
       <c r="C41" t="n">
-        <v>68.01000000000001</v>
+        <v>68.43000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>68.44</v>
+        <v>68.61</v>
       </c>
       <c r="E41" t="n">
-        <v>68.01000000000001</v>
+        <v>68.43000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>37979.9076</v>
+        <v>2000</v>
       </c>
       <c r="G41" t="n">
-        <v>67.55200000000001</v>
+        <v>67.60666666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1933,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>68.43000000000001</v>
+        <v>68.44</v>
       </c>
       <c r="C42" t="n">
-        <v>67.88</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>68.43000000000001</v>
+        <v>68.44</v>
       </c>
       <c r="E42" t="n">
-        <v>67.88</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>3260.6893</v>
+        <v>37979.9076</v>
       </c>
       <c r="G42" t="n">
-        <v>67.5665</v>
+        <v>67.55200000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1968,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>68.3</v>
+        <v>68.43000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>68.3</v>
+        <v>67.88</v>
       </c>
       <c r="D43" t="n">
-        <v>68.3</v>
+        <v>68.43000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>68.3</v>
+        <v>67.88</v>
       </c>
       <c r="F43" t="n">
-        <v>7.5</v>
+        <v>3260.6893</v>
       </c>
       <c r="G43" t="n">
-        <v>67.56483333333334</v>
+        <v>67.5665</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2003,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>67.91</v>
+        <v>68.3</v>
       </c>
       <c r="C44" t="n">
-        <v>67.90000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="D44" t="n">
-        <v>67.91</v>
+        <v>68.3</v>
       </c>
       <c r="E44" t="n">
-        <v>67.90000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="F44" t="n">
-        <v>6265.9771</v>
+        <v>7.5</v>
       </c>
       <c r="G44" t="n">
-        <v>67.53500000000001</v>
+        <v>67.56483333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2050,10 +1950,10 @@
         <v>67.90000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>10000</v>
+        <v>6265.9771</v>
       </c>
       <c r="G45" t="n">
-        <v>67.53866666666669</v>
+        <v>67.53500000000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2073,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>67.90000000000001</v>
+        <v>67.91</v>
       </c>
       <c r="C46" t="n">
         <v>67.90000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>67.90000000000001</v>
+        <v>67.91</v>
       </c>
       <c r="E46" t="n">
         <v>67.90000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>1685.2434</v>
+        <v>10000</v>
       </c>
       <c r="G46" t="n">
-        <v>67.54233333333336</v>
+        <v>67.53866666666669</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2120,10 +2020,10 @@
         <v>67.90000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>25.1233</v>
+        <v>1685.2434</v>
       </c>
       <c r="G47" t="n">
-        <v>67.54600000000002</v>
+        <v>67.54233333333336</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2143,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>67.88</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>67.41</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>67.88</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>67.41</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>1526.8422</v>
+        <v>25.1233</v>
       </c>
       <c r="G48" t="n">
-        <v>67.54300000000003</v>
+        <v>67.54600000000002</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2178,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>67.40000000000001</v>
+        <v>67.88</v>
       </c>
       <c r="C49" t="n">
-        <v>67.09</v>
+        <v>67.41</v>
       </c>
       <c r="D49" t="n">
-        <v>67.40000000000001</v>
+        <v>67.88</v>
       </c>
       <c r="E49" t="n">
-        <v>67.09</v>
+        <v>67.41</v>
       </c>
       <c r="F49" t="n">
-        <v>15035.8343</v>
+        <v>1526.8422</v>
       </c>
       <c r="G49" t="n">
-        <v>67.55883333333337</v>
+        <v>67.54300000000003</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2213,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>67.09999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C50" t="n">
         <v>67.09</v>
       </c>
       <c r="D50" t="n">
-        <v>67.09999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E50" t="n">
         <v>67.09</v>
       </c>
       <c r="F50" t="n">
-        <v>13955.1617</v>
+        <v>15035.8343</v>
       </c>
       <c r="G50" t="n">
-        <v>67.5621666666667</v>
+        <v>67.55883333333337</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2248,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="C51" t="n">
         <v>67.09</v>
       </c>
-      <c r="C51" t="n">
-        <v>67</v>
-      </c>
       <c r="D51" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="E51" t="n">
         <v>67.09</v>
       </c>
-      <c r="E51" t="n">
-        <v>67</v>
-      </c>
       <c r="F51" t="n">
-        <v>3861.3681</v>
+        <v>13955.1617</v>
       </c>
       <c r="G51" t="n">
-        <v>67.56216666666668</v>
+        <v>67.5621666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2283,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>68.29000000000001</v>
+        <v>67.09</v>
       </c>
       <c r="C52" t="n">
-        <v>68.29000000000001</v>
+        <v>67</v>
       </c>
       <c r="D52" t="n">
-        <v>68.29000000000001</v>
+        <v>67.09</v>
       </c>
       <c r="E52" t="n">
-        <v>68.29000000000001</v>
+        <v>67</v>
       </c>
       <c r="F52" t="n">
-        <v>870.5841</v>
+        <v>3861.3681</v>
       </c>
       <c r="G52" t="n">
-        <v>67.58200000000002</v>
+        <v>67.56216666666668</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2318,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>66.91</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>66.91</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>66.91</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>66.91</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>17783.8423</v>
+        <v>870.5841</v>
       </c>
       <c r="G53" t="n">
-        <v>67.56833333333336</v>
+        <v>67.58200000000002</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2353,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>66.90000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="C54" t="n">
-        <v>66.90000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="D54" t="n">
-        <v>66.90000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="E54" t="n">
-        <v>66.90000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="F54" t="n">
-        <v>2263.2708</v>
+        <v>17783.8423</v>
       </c>
       <c r="G54" t="n">
-        <v>67.55200000000004</v>
+        <v>67.56833333333336</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2391,19 +2291,19 @@
         <v>66.90000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>66.70999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D55" t="n">
         <v>66.90000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>66.70999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>17484.66171016443</v>
+        <v>2263.2708</v>
       </c>
       <c r="G55" t="n">
-        <v>67.52383333333336</v>
+        <v>67.55200000000004</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2426,19 +2326,19 @@
         <v>66.90000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>66.72</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="D56" t="n">
         <v>66.90000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>66.72</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>4987.116089835576</v>
+        <v>17484.66171016443</v>
       </c>
       <c r="G56" t="n">
-        <v>67.49750000000002</v>
+        <v>67.52383333333336</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2458,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C57" t="n">
         <v>66.72</v>
       </c>
-      <c r="C57" t="n">
-        <v>66.70999999999999</v>
-      </c>
       <c r="D57" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E57" t="n">
         <v>66.72</v>
       </c>
-      <c r="E57" t="n">
-        <v>66.70999999999999</v>
-      </c>
       <c r="F57" t="n">
-        <v>9844.912399999999</v>
+        <v>4987.116089835576</v>
       </c>
       <c r="G57" t="n">
-        <v>67.47600000000003</v>
+        <v>67.49750000000002</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2493,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>66.73999999999999</v>
+        <v>66.72</v>
       </c>
       <c r="C58" t="n">
-        <v>66.62</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>67.68000000000001</v>
+        <v>66.72</v>
       </c>
       <c r="E58" t="n">
-        <v>66.62</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>25485.68921016443</v>
+        <v>9844.912399999999</v>
       </c>
       <c r="G58" t="n">
-        <v>67.46133333333336</v>
+        <v>67.47600000000003</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2528,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>66.59999999999999</v>
+        <v>66.73999999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>66.73</v>
+        <v>66.62</v>
       </c>
       <c r="D59" t="n">
-        <v>66.73</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>66.59999999999999</v>
+        <v>66.62</v>
       </c>
       <c r="F59" t="n">
-        <v>6424.671689835575</v>
+        <v>25485.68921016443</v>
       </c>
       <c r="G59" t="n">
-        <v>67.46666666666668</v>
+        <v>67.46133333333336</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2563,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>67.68000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>67.68000000000001</v>
+        <v>66.73</v>
       </c>
       <c r="D60" t="n">
-        <v>67.68000000000001</v>
+        <v>66.73</v>
       </c>
       <c r="E60" t="n">
-        <v>67.68000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>20.5292</v>
+        <v>6424.671689835575</v>
       </c>
       <c r="G60" t="n">
-        <v>67.47133333333335</v>
+        <v>67.46666666666668</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2610,10 +2510,10 @@
         <v>67.68000000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>46.422</v>
+        <v>20.5292</v>
       </c>
       <c r="G61" t="n">
-        <v>67.48783333333334</v>
+        <v>67.47133333333335</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2636,19 +2536,19 @@
         <v>67.68000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>67</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="D62" t="n">
         <v>67.68000000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>67</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>40</v>
+        <v>46.422</v>
       </c>
       <c r="G62" t="n">
-        <v>67.49766666666667</v>
+        <v>67.48783333333334</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2668,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>67.88</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>67.88</v>
+        <v>67</v>
       </c>
       <c r="D63" t="n">
-        <v>67.88</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>67.88</v>
+        <v>67</v>
       </c>
       <c r="F63" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G63" t="n">
-        <v>67.51583333333335</v>
+        <v>67.49766666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2703,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>67.09999999999999</v>
+        <v>67.88</v>
       </c>
       <c r="C64" t="n">
-        <v>67.09999999999999</v>
+        <v>67.88</v>
       </c>
       <c r="D64" t="n">
-        <v>67.09999999999999</v>
+        <v>67.88</v>
       </c>
       <c r="E64" t="n">
-        <v>67.09999999999999</v>
+        <v>67.88</v>
       </c>
       <c r="F64" t="n">
-        <v>1199.2882</v>
+        <v>8</v>
       </c>
       <c r="G64" t="n">
-        <v>67.52583333333335</v>
+        <v>67.51583333333335</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2750,10 +2650,10 @@
         <v>67.09999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>75.7317</v>
+        <v>1199.2882</v>
       </c>
       <c r="G65" t="n">
-        <v>67.52916666666668</v>
+        <v>67.52583333333335</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2785,10 +2685,10 @@
         <v>67.09999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>1439.7995</v>
+        <v>75.7317</v>
       </c>
       <c r="G66" t="n">
-        <v>67.52266666666669</v>
+        <v>67.52916666666668</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2820,10 +2720,10 @@
         <v>67.09999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>3137.7736</v>
+        <v>1439.7995</v>
       </c>
       <c r="G67" t="n">
-        <v>67.52933333333337</v>
+        <v>67.52266666666669</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2855,10 +2755,10 @@
         <v>67.09999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>117.1</v>
+        <v>3137.7736</v>
       </c>
       <c r="G68" t="n">
-        <v>67.53600000000004</v>
+        <v>67.52933333333337</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2878,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>67.79000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>67.79000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>67.79000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>67.79000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>117.1</v>
       </c>
       <c r="G69" t="n">
-        <v>67.55416666666672</v>
+        <v>67.53600000000004</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2913,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>67.11</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>67.09999999999999</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>67.11</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>67.09999999999999</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>804.5725</v>
+        <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>67.56583333333339</v>
+        <v>67.55416666666672</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2948,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>67.09999999999999</v>
+        <v>67.11</v>
       </c>
       <c r="C71" t="n">
         <v>67.09999999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>67.09999999999999</v>
+        <v>67.11</v>
       </c>
       <c r="E71" t="n">
         <v>67.09999999999999</v>
       </c>
       <c r="F71" t="n">
-        <v>8825.1273</v>
+        <v>804.5725</v>
       </c>
       <c r="G71" t="n">
-        <v>67.57583333333338</v>
+        <v>67.56583333333339</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2995,10 +2895,10 @@
         <v>67.09999999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>1838.7803</v>
+        <v>8825.1273</v>
       </c>
       <c r="G72" t="n">
-        <v>67.58733333333339</v>
+        <v>67.57583333333338</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3018,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>67.79000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>67.79000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>67.79000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>67.79000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>8</v>
+        <v>1838.7803</v>
       </c>
       <c r="G73" t="n">
-        <v>67.59066666666672</v>
+        <v>67.58733333333339</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3053,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>67.14</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>67.14</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>67.14</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>67.14</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>266.5566</v>
+        <v>8</v>
       </c>
       <c r="G74" t="n">
-        <v>67.59300000000006</v>
+        <v>67.59066666666672</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3088,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>68</v>
+        <v>67.14</v>
       </c>
       <c r="C75" t="n">
-        <v>68.19</v>
+        <v>67.14</v>
       </c>
       <c r="D75" t="n">
-        <v>68.19</v>
+        <v>67.14</v>
       </c>
       <c r="E75" t="n">
-        <v>68</v>
+        <v>67.14</v>
       </c>
       <c r="F75" t="n">
-        <v>43.6387</v>
+        <v>266.5566</v>
       </c>
       <c r="G75" t="n">
-        <v>67.6213333333334</v>
+        <v>67.59300000000006</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3123,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>68</v>
+      </c>
+      <c r="C76" t="n">
         <v>68.19</v>
       </c>
-      <c r="C76" t="n">
-        <v>68.33</v>
-      </c>
       <c r="D76" t="n">
-        <v>68.33</v>
+        <v>68.19</v>
       </c>
       <c r="E76" t="n">
-        <v>68.19</v>
+        <v>68</v>
       </c>
       <c r="F76" t="n">
-        <v>8389.818600000001</v>
+        <v>43.6387</v>
       </c>
       <c r="G76" t="n">
-        <v>67.64516666666673</v>
+        <v>67.6213333333334</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3158,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>68.20999999999999</v>
+        <v>68.19</v>
       </c>
       <c r="C77" t="n">
-        <v>68.20999999999999</v>
+        <v>68.33</v>
       </c>
       <c r="D77" t="n">
-        <v>68.20999999999999</v>
+        <v>68.33</v>
       </c>
       <c r="E77" t="n">
-        <v>68.20999999999999</v>
+        <v>68.19</v>
       </c>
       <c r="F77" t="n">
-        <v>23031.9968</v>
+        <v>8389.818600000001</v>
       </c>
       <c r="G77" t="n">
-        <v>67.67200000000005</v>
+        <v>67.64516666666673</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3205,10 +3105,10 @@
         <v>68.20999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>6734.8036</v>
+        <v>23031.9968</v>
       </c>
       <c r="G78" t="n">
-        <v>67.68383333333337</v>
+        <v>67.67200000000005</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3228,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>68.33</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>68.59</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>68.59</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>68.33</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>378.0005</v>
+        <v>6734.8036</v>
       </c>
       <c r="G79" t="n">
-        <v>67.71650000000004</v>
+        <v>67.68383333333337</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3263,7 +3163,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>68.59</v>
+        <v>68.33</v>
       </c>
       <c r="C80" t="n">
         <v>68.59</v>
@@ -3272,13 +3172,13 @@
         <v>68.59</v>
       </c>
       <c r="E80" t="n">
-        <v>68.59</v>
+        <v>68.33</v>
       </c>
       <c r="F80" t="n">
-        <v>3545.549</v>
+        <v>378.0005</v>
       </c>
       <c r="G80" t="n">
-        <v>67.74633333333337</v>
+        <v>67.71650000000004</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3298,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>69</v>
+        <v>68.59</v>
       </c>
       <c r="C81" t="n">
-        <v>69.86</v>
+        <v>68.59</v>
       </c>
       <c r="D81" t="n">
-        <v>69.86</v>
+        <v>68.59</v>
       </c>
       <c r="E81" t="n">
-        <v>69</v>
+        <v>68.59</v>
       </c>
       <c r="F81" t="n">
-        <v>37.99232327512167</v>
+        <v>3545.549</v>
       </c>
       <c r="G81" t="n">
-        <v>67.79733333333337</v>
+        <v>67.74633333333337</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3333,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>69.79000000000001</v>
+        <v>69</v>
       </c>
       <c r="C82" t="n">
-        <v>69.79000000000001</v>
+        <v>69.86</v>
       </c>
       <c r="D82" t="n">
-        <v>69.79000000000001</v>
+        <v>69.86</v>
       </c>
       <c r="E82" t="n">
-        <v>69.79000000000001</v>
+        <v>69</v>
       </c>
       <c r="F82" t="n">
-        <v>1214.4432</v>
+        <v>37.99232327512167</v>
       </c>
       <c r="G82" t="n">
-        <v>67.85016666666669</v>
+        <v>67.79733333333337</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3368,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>68.77</v>
+        <v>69.79000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>68.77</v>
+        <v>69.79000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>68.77</v>
+        <v>69.79000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>68.77</v>
+        <v>69.79000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>1170.8331</v>
+        <v>1214.4432</v>
       </c>
       <c r="G83" t="n">
-        <v>67.88300000000004</v>
+        <v>67.85016666666669</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3415,16 +3315,16 @@
         <v>68.77</v>
       </c>
       <c r="F84" t="n">
-        <v>1218.4113</v>
+        <v>1170.8331</v>
       </c>
       <c r="G84" t="n">
-        <v>67.91583333333338</v>
+        <v>67.88300000000004</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3438,28 +3338,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>69.58</v>
+        <v>68.77</v>
       </c>
       <c r="C85" t="n">
-        <v>69.58</v>
+        <v>68.77</v>
       </c>
       <c r="D85" t="n">
-        <v>69.58</v>
+        <v>68.77</v>
       </c>
       <c r="E85" t="n">
-        <v>69.58</v>
+        <v>68.77</v>
       </c>
       <c r="F85" t="n">
-        <v>48.6177</v>
+        <v>1218.4113</v>
       </c>
       <c r="G85" t="n">
-        <v>67.94900000000004</v>
+        <v>67.91583333333338</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3476,25 +3376,25 @@
         <v>69.58</v>
       </c>
       <c r="C86" t="n">
-        <v>68.20999999999999</v>
+        <v>69.58</v>
       </c>
       <c r="D86" t="n">
         <v>69.58</v>
       </c>
       <c r="E86" t="n">
-        <v>68.20999999999999</v>
+        <v>69.58</v>
       </c>
       <c r="F86" t="n">
-        <v>5156.3275</v>
+        <v>48.6177</v>
       </c>
       <c r="G86" t="n">
-        <v>67.95933333333338</v>
+        <v>67.94900000000004</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3508,28 +3408,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>68.22</v>
+        <v>69.58</v>
       </c>
       <c r="C87" t="n">
-        <v>68.22</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>68.22</v>
+        <v>69.58</v>
       </c>
       <c r="E87" t="n">
-        <v>68.22</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>6765.1187</v>
+        <v>5156.3275</v>
       </c>
       <c r="G87" t="n">
-        <v>67.96983333333337</v>
+        <v>67.95933333333338</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3546,25 +3446,25 @@
         <v>68.22</v>
       </c>
       <c r="C88" t="n">
-        <v>68.8</v>
+        <v>68.22</v>
       </c>
       <c r="D88" t="n">
-        <v>68.8</v>
+        <v>68.22</v>
       </c>
       <c r="E88" t="n">
-        <v>67.88</v>
+        <v>68.22</v>
       </c>
       <c r="F88" t="n">
-        <v>8224.1466</v>
+        <v>6765.1187</v>
       </c>
       <c r="G88" t="n">
-        <v>68.0031666666667</v>
+        <v>67.96983333333337</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3578,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>69.48999999999999</v>
+        <v>68.22</v>
       </c>
       <c r="C89" t="n">
-        <v>69.48999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="D89" t="n">
-        <v>69.48999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="E89" t="n">
-        <v>69.48999999999999</v>
+        <v>67.88</v>
       </c>
       <c r="F89" t="n">
-        <v>8</v>
+        <v>8224.1466</v>
       </c>
       <c r="G89" t="n">
-        <v>68.03333333333337</v>
+        <v>68.0031666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3613,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>69.25</v>
+        <v>69.48999999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>69.25</v>
+        <v>69.48999999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>69.25</v>
+        <v>69.48999999999999</v>
       </c>
       <c r="E90" t="n">
-        <v>69.25</v>
+        <v>69.48999999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>10000</v>
+        <v>8</v>
       </c>
       <c r="G90" t="n">
-        <v>68.05950000000003</v>
+        <v>68.03333333333337</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3648,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>68.75</v>
+        <v>69.25</v>
       </c>
       <c r="C91" t="n">
-        <v>68.75</v>
+        <v>69.25</v>
       </c>
       <c r="D91" t="n">
-        <v>68.75</v>
+        <v>69.25</v>
       </c>
       <c r="E91" t="n">
-        <v>68.75</v>
+        <v>69.25</v>
       </c>
       <c r="F91" t="n">
-        <v>11515.9984</v>
+        <v>10000</v>
       </c>
       <c r="G91" t="n">
-        <v>68.07200000000003</v>
+        <v>68.05950000000003</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3683,28 +3583,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>68.90000000000001</v>
+        <v>68.75</v>
       </c>
       <c r="C92" t="n">
-        <v>68.90000000000001</v>
+        <v>68.75</v>
       </c>
       <c r="D92" t="n">
-        <v>68.90000000000001</v>
+        <v>68.75</v>
       </c>
       <c r="E92" t="n">
-        <v>68.90000000000001</v>
+        <v>68.75</v>
       </c>
       <c r="F92" t="n">
-        <v>2646.5612</v>
+        <v>11515.9984</v>
       </c>
       <c r="G92" t="n">
-        <v>68.08700000000002</v>
+        <v>68.07200000000003</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3721,19 +3621,19 @@
         <v>68.90000000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>68.98999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>68.98999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E93" t="n">
         <v>68.90000000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>5170.3193</v>
+        <v>2646.5612</v>
       </c>
       <c r="G93" t="n">
-        <v>68.07383333333334</v>
+        <v>68.08700000000002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3753,7 +3653,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>68.98999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C94" t="n">
         <v>68.98999999999999</v>
@@ -3762,13 +3662,13 @@
         <v>68.98999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>68.98999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>43.6712</v>
+        <v>5170.3193</v>
       </c>
       <c r="G94" t="n">
-        <v>68.02966666666669</v>
+        <v>68.07383333333334</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3788,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>69.53</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>69.62</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>69.62</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>69.53</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>13586.5594</v>
+        <v>43.6712</v>
       </c>
       <c r="G95" t="n">
-        <v>68.05616666666668</v>
+        <v>68.02966666666669</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3823,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>69.05</v>
+        <v>69.53</v>
       </c>
       <c r="C96" t="n">
-        <v>69.05</v>
+        <v>69.62</v>
       </c>
       <c r="D96" t="n">
-        <v>69.05</v>
+        <v>69.62</v>
       </c>
       <c r="E96" t="n">
-        <v>69.05</v>
+        <v>69.53</v>
       </c>
       <c r="F96" t="n">
-        <v>5898.2118</v>
+        <v>13586.5594</v>
       </c>
       <c r="G96" t="n">
-        <v>68.01183333333334</v>
+        <v>68.05616666666668</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,7 +3758,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>69.04000000000001</v>
+        <v>69.05</v>
       </c>
       <c r="C97" t="n">
         <v>69.05</v>
@@ -3867,13 +3767,13 @@
         <v>69.05</v>
       </c>
       <c r="E97" t="n">
-        <v>69.04000000000001</v>
+        <v>69.05</v>
       </c>
       <c r="F97" t="n">
-        <v>47549.0303</v>
+        <v>5898.2118</v>
       </c>
       <c r="G97" t="n">
-        <v>67.98283333333335</v>
+        <v>68.01183333333334</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3893,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>69</v>
+        <v>69.04000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>68.95</v>
+        <v>69.05</v>
       </c>
       <c r="D98" t="n">
-        <v>69</v>
+        <v>69.05</v>
       </c>
       <c r="E98" t="n">
-        <v>68.95</v>
+        <v>69.04000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>3630.7275</v>
+        <v>47549.0303</v>
       </c>
       <c r="G98" t="n">
-        <v>67.99866666666668</v>
+        <v>67.98283333333335</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3931,19 +3831,19 @@
         <v>69</v>
       </c>
       <c r="C99" t="n">
-        <v>69.5</v>
+        <v>68.95</v>
       </c>
       <c r="D99" t="n">
-        <v>69.5</v>
+        <v>69</v>
       </c>
       <c r="E99" t="n">
-        <v>69</v>
+        <v>68.95</v>
       </c>
       <c r="F99" t="n">
-        <v>197.2444</v>
+        <v>3630.7275</v>
       </c>
       <c r="G99" t="n">
-        <v>68.01366666666668</v>
+        <v>67.99866666666668</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3963,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>69</v>
+      </c>
+      <c r="C100" t="n">
         <v>69.5</v>
       </c>
-      <c r="C100" t="n">
-        <v>69.59999999999999</v>
-      </c>
       <c r="D100" t="n">
-        <v>69.59999999999999</v>
+        <v>69.5</v>
       </c>
       <c r="E100" t="n">
-        <v>69.5</v>
+        <v>69</v>
       </c>
       <c r="F100" t="n">
-        <v>50529.9561</v>
+        <v>197.2444</v>
       </c>
       <c r="G100" t="n">
-        <v>68.03316666666669</v>
+        <v>68.01366666666668</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3998,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>69</v>
+        <v>69.5</v>
       </c>
       <c r="C101" t="n">
-        <v>69</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>69</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>69</v>
+        <v>69.5</v>
       </c>
       <c r="F101" t="n">
-        <v>2237.4564</v>
+        <v>50529.9561</v>
       </c>
       <c r="G101" t="n">
-        <v>68.0496666666667</v>
+        <v>68.03316666666669</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4045,10 +3945,10 @@
         <v>69</v>
       </c>
       <c r="F102" t="n">
-        <v>197.1094</v>
+        <v>2237.4564</v>
       </c>
       <c r="G102" t="n">
-        <v>68.06833333333336</v>
+        <v>68.0496666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4071,19 +3971,19 @@
         <v>69</v>
       </c>
       <c r="C103" t="n">
-        <v>68.95</v>
+        <v>69</v>
       </c>
       <c r="D103" t="n">
         <v>69</v>
       </c>
       <c r="E103" t="n">
-        <v>68.95</v>
+        <v>69</v>
       </c>
       <c r="F103" t="n">
-        <v>7854.019</v>
+        <v>197.1094</v>
       </c>
       <c r="G103" t="n">
-        <v>68.07916666666668</v>
+        <v>68.06833333333336</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4103,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>68.90000000000001</v>
+        <v>69</v>
       </c>
       <c r="C104" t="n">
-        <v>69</v>
+        <v>68.95</v>
       </c>
       <c r="D104" t="n">
         <v>69</v>
       </c>
       <c r="E104" t="n">
-        <v>68.90000000000001</v>
+        <v>68.95</v>
       </c>
       <c r="F104" t="n">
-        <v>6643.2498</v>
+        <v>7854.019</v>
       </c>
       <c r="G104" t="n">
-        <v>68.09750000000001</v>
+        <v>68.07916666666668</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4138,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="C105" t="n">
         <v>69</v>
       </c>
-      <c r="C105" t="n">
-        <v>69.5</v>
-      </c>
       <c r="D105" t="n">
-        <v>69.5</v>
+        <v>69</v>
       </c>
       <c r="E105" t="n">
-        <v>68.95</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>1721</v>
+        <v>6643.2498</v>
       </c>
       <c r="G105" t="n">
-        <v>68.12416666666667</v>
+        <v>68.09750000000001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4173,7 +4073,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>69.5</v>
+        <v>69</v>
       </c>
       <c r="C106" t="n">
         <v>69.5</v>
@@ -4182,13 +4082,13 @@
         <v>69.5</v>
       </c>
       <c r="E106" t="n">
-        <v>69.5</v>
+        <v>68.95</v>
       </c>
       <c r="F106" t="n">
-        <v>3910.5973</v>
+        <v>1721</v>
       </c>
       <c r="G106" t="n">
-        <v>68.15083333333334</v>
+        <v>68.12416666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4220,10 +4120,10 @@
         <v>69.5</v>
       </c>
       <c r="F107" t="n">
-        <v>14577.3844</v>
+        <v>3910.5973</v>
       </c>
       <c r="G107" t="n">
-        <v>68.17750000000002</v>
+        <v>68.15083333333334</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4243,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>69.01000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="C108" t="n">
-        <v>69.01000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="D108" t="n">
-        <v>69.01000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="E108" t="n">
-        <v>69.01000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="F108" t="n">
-        <v>9900</v>
+        <v>14577.3844</v>
       </c>
       <c r="G108" t="n">
-        <v>68.20416666666668</v>
+        <v>68.17750000000002</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4281,19 +4181,19 @@
         <v>69.01000000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>67.52</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="D109" t="n">
         <v>69.01000000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>67.52</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>17246.5594</v>
+        <v>9900</v>
       </c>
       <c r="G109" t="n">
-        <v>68.21133333333336</v>
+        <v>68.20416666666668</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4313,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>68</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>68</v>
+        <v>67.52</v>
       </c>
       <c r="D110" t="n">
-        <v>68</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>68</v>
+        <v>67.52</v>
       </c>
       <c r="F110" t="n">
-        <v>120.4886</v>
+        <v>17246.5594</v>
       </c>
       <c r="G110" t="n">
-        <v>68.22650000000002</v>
+        <v>68.21133333333336</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4348,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>68.5</v>
+        <v>68</v>
       </c>
       <c r="C111" t="n">
-        <v>68.5</v>
+        <v>68</v>
       </c>
       <c r="D111" t="n">
-        <v>68.5</v>
+        <v>68</v>
       </c>
       <c r="E111" t="n">
-        <v>68.5</v>
+        <v>68</v>
       </c>
       <c r="F111" t="n">
-        <v>108.4398</v>
+        <v>120.4886</v>
       </c>
       <c r="G111" t="n">
-        <v>68.25150000000002</v>
+        <v>68.22650000000002</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4383,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>69</v>
+        <v>68.5</v>
       </c>
       <c r="C112" t="n">
-        <v>69</v>
+        <v>68.5</v>
       </c>
       <c r="D112" t="n">
-        <v>69</v>
+        <v>68.5</v>
       </c>
       <c r="E112" t="n">
-        <v>69</v>
+        <v>68.5</v>
       </c>
       <c r="F112" t="n">
-        <v>133.8763</v>
+        <v>108.4398</v>
       </c>
       <c r="G112" t="n">
-        <v>68.26333333333335</v>
+        <v>68.25150000000002</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4418,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>69.40000000000001</v>
+        <v>69</v>
       </c>
       <c r="C113" t="n">
-        <v>69.40000000000001</v>
+        <v>69</v>
       </c>
       <c r="D113" t="n">
-        <v>69.40000000000001</v>
+        <v>69</v>
       </c>
       <c r="E113" t="n">
-        <v>69.40000000000001</v>
+        <v>69</v>
       </c>
       <c r="F113" t="n">
-        <v>8</v>
+        <v>133.8763</v>
       </c>
       <c r="G113" t="n">
-        <v>68.30483333333335</v>
+        <v>68.26333333333335</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4453,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>69</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>68.5</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>69</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>68.5</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>284.0503</v>
+        <v>8</v>
       </c>
       <c r="G114" t="n">
-        <v>68.33150000000002</v>
+        <v>68.30483333333335</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4488,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>68.15000000000001</v>
+        <v>69</v>
       </c>
       <c r="C115" t="n">
-        <v>68.15000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="D115" t="n">
-        <v>68.15000000000001</v>
+        <v>69</v>
       </c>
       <c r="E115" t="n">
-        <v>68.15000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="F115" t="n">
-        <v>5308.7486</v>
+        <v>284.0503</v>
       </c>
       <c r="G115" t="n">
-        <v>68.35550000000002</v>
+        <v>68.33150000000002</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4523,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>68.3</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>68.3</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>68.3</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>68.3</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>1996</v>
+        <v>5308.7486</v>
       </c>
       <c r="G116" t="n">
-        <v>68.38183333333335</v>
+        <v>68.35550000000002</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4558,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>68.89</v>
+        <v>68.3</v>
       </c>
       <c r="C117" t="n">
-        <v>68.15000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="D117" t="n">
-        <v>68.89</v>
+        <v>68.3</v>
       </c>
       <c r="E117" t="n">
-        <v>68.15000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="F117" t="n">
-        <v>8350.4527</v>
+        <v>1996</v>
       </c>
       <c r="G117" t="n">
-        <v>68.40583333333333</v>
+        <v>68.38183333333335</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4593,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>68.15000000000001</v>
+        <v>68.89</v>
       </c>
       <c r="C118" t="n">
         <v>68.15000000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>68.15000000000001</v>
+        <v>68.89</v>
       </c>
       <c r="E118" t="n">
         <v>68.15000000000001</v>
       </c>
       <c r="F118" t="n">
-        <v>508.9998</v>
+        <v>8350.4527</v>
       </c>
       <c r="G118" t="n">
-        <v>68.43133333333334</v>
+        <v>68.40583333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4628,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>68.89</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>68.89</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>68.89</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>68.89</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>8</v>
+        <v>508.9998</v>
       </c>
       <c r="G119" t="n">
-        <v>68.46733333333334</v>
+        <v>68.43133333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4663,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>68.29000000000001</v>
+        <v>68.89</v>
       </c>
       <c r="C120" t="n">
-        <v>68.29000000000001</v>
+        <v>68.89</v>
       </c>
       <c r="D120" t="n">
-        <v>68.29000000000001</v>
+        <v>68.89</v>
       </c>
       <c r="E120" t="n">
-        <v>68.29000000000001</v>
+        <v>68.89</v>
       </c>
       <c r="F120" t="n">
-        <v>1054.8684</v>
+        <v>8</v>
       </c>
       <c r="G120" t="n">
-        <v>68.47750000000001</v>
+        <v>68.46733333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4698,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>68.5</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>68.8</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>68.8</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="E121" t="n">
-        <v>68.5</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="F121" t="n">
-        <v>166.8888</v>
+        <v>1054.8684</v>
       </c>
       <c r="G121" t="n">
-        <v>68.49616666666667</v>
+        <v>68.47750000000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4733,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>69</v>
+        <v>68.5</v>
       </c>
       <c r="C122" t="n">
-        <v>69</v>
+        <v>68.8</v>
       </c>
       <c r="D122" t="n">
-        <v>69</v>
+        <v>68.8</v>
       </c>
       <c r="E122" t="n">
-        <v>69</v>
+        <v>68.5</v>
       </c>
       <c r="F122" t="n">
-        <v>97.5958</v>
+        <v>166.8888</v>
       </c>
       <c r="G122" t="n">
-        <v>68.52950000000001</v>
+        <v>68.49616666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4780,10 +4680,10 @@
         <v>69</v>
       </c>
       <c r="F123" t="n">
-        <v>102.4042</v>
+        <v>97.5958</v>
       </c>
       <c r="G123" t="n">
-        <v>68.54816666666667</v>
+        <v>68.52950000000001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4803,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>69.39</v>
+        <v>69</v>
       </c>
       <c r="C124" t="n">
-        <v>69.39</v>
+        <v>69</v>
       </c>
       <c r="D124" t="n">
-        <v>69.39</v>
+        <v>69</v>
       </c>
       <c r="E124" t="n">
-        <v>69.39</v>
+        <v>69</v>
       </c>
       <c r="F124" t="n">
-        <v>50</v>
+        <v>102.4042</v>
       </c>
       <c r="G124" t="n">
-        <v>68.58633333333334</v>
+        <v>68.54816666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4838,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>68.56</v>
+        <v>69.39</v>
       </c>
       <c r="C125" t="n">
-        <v>68.41</v>
+        <v>69.39</v>
       </c>
       <c r="D125" t="n">
-        <v>68.56</v>
+        <v>69.39</v>
       </c>
       <c r="E125" t="n">
-        <v>68.41</v>
+        <v>69.39</v>
       </c>
       <c r="F125" t="n">
-        <v>1690.8956</v>
+        <v>50</v>
       </c>
       <c r="G125" t="n">
-        <v>68.60816666666666</v>
+        <v>68.58633333333334</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4873,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>69.39</v>
+        <v>68.56</v>
       </c>
       <c r="C126" t="n">
-        <v>69.38</v>
+        <v>68.41</v>
       </c>
       <c r="D126" t="n">
-        <v>69.39</v>
+        <v>68.56</v>
       </c>
       <c r="E126" t="n">
         <v>68.41</v>
       </c>
       <c r="F126" t="n">
-        <v>5935.45</v>
+        <v>1690.8956</v>
       </c>
       <c r="G126" t="n">
-        <v>68.64616666666666</v>
+        <v>68.60816666666666</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4908,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>68.5</v>
+        <v>69.39</v>
       </c>
       <c r="C127" t="n">
-        <v>68.5</v>
+        <v>69.38</v>
       </c>
       <c r="D127" t="n">
-        <v>68.5</v>
+        <v>69.39</v>
       </c>
       <c r="E127" t="n">
-        <v>68.5</v>
+        <v>68.41</v>
       </c>
       <c r="F127" t="n">
-        <v>1047.6999</v>
+        <v>5935.45</v>
       </c>
       <c r="G127" t="n">
-        <v>68.66949999999999</v>
+        <v>68.64616666666666</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4943,7 +4843,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>68.41</v>
+        <v>68.5</v>
       </c>
       <c r="C128" t="n">
         <v>68.5</v>
@@ -4952,13 +4852,13 @@
         <v>68.5</v>
       </c>
       <c r="E128" t="n">
-        <v>68.28</v>
+        <v>68.5</v>
       </c>
       <c r="F128" t="n">
-        <v>10833.3304</v>
+        <v>1047.6999</v>
       </c>
       <c r="G128" t="n">
-        <v>68.69283333333331</v>
+        <v>68.66949999999999</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4978,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>68.59999999999999</v>
+        <v>68.41</v>
       </c>
       <c r="C129" t="n">
         <v>68.5</v>
       </c>
       <c r="D129" t="n">
-        <v>68.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="E129" t="n">
-        <v>68.40000000000001</v>
+        <v>68.28</v>
       </c>
       <c r="F129" t="n">
-        <v>10774.9593</v>
+        <v>10833.3304</v>
       </c>
       <c r="G129" t="n">
-        <v>68.70466666666665</v>
+        <v>68.69283333333331</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5013,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>69.40000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>68.20999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="D130" t="n">
-        <v>69.40000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>68.20999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F130" t="n">
-        <v>16</v>
+        <v>10774.9593</v>
       </c>
       <c r="G130" t="n">
-        <v>68.72316666666664</v>
+        <v>68.70466666666665</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5048,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>68.7</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="C131" t="n">
-        <v>68.7</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>68.7</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E131" t="n">
-        <v>68.7</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>27.0789</v>
+        <v>16</v>
       </c>
       <c r="G131" t="n">
-        <v>68.7498333333333</v>
+        <v>68.72316666666664</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5083,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>69.40000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="C132" t="n">
-        <v>69.40000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="D132" t="n">
-        <v>69.40000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="E132" t="n">
-        <v>69.40000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="F132" t="n">
-        <v>8</v>
+        <v>27.0789</v>
       </c>
       <c r="G132" t="n">
-        <v>68.78816666666663</v>
+        <v>68.7498333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5118,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>68.79000000000001</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>68.79000000000001</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>68.79000000000001</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E133" t="n">
-        <v>68.79000000000001</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="F133" t="n">
-        <v>552</v>
+        <v>8</v>
       </c>
       <c r="G133" t="n">
-        <v>68.80483333333329</v>
+        <v>68.78816666666663</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5156,19 +5056,19 @@
         <v>68.79000000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>69</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>69</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="E134" t="n">
         <v>68.79000000000001</v>
       </c>
       <c r="F134" t="n">
-        <v>533.6053000000001</v>
+        <v>552</v>
       </c>
       <c r="G134" t="n">
-        <v>68.83583333333328</v>
+        <v>68.80483333333329</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5188,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>69.40000000000001</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>69.40000000000001</v>
+        <v>69</v>
       </c>
       <c r="D135" t="n">
-        <v>69.40000000000001</v>
+        <v>69</v>
       </c>
       <c r="E135" t="n">
-        <v>69.40000000000001</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="F135" t="n">
-        <v>22.5035</v>
+        <v>533.6053000000001</v>
       </c>
       <c r="G135" t="n">
-        <v>68.85599999999995</v>
+        <v>68.83583333333328</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5223,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>69.09999999999999</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>69.09999999999999</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>69.09999999999999</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E136" t="n">
-        <v>69.09999999999999</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="F136" t="n">
-        <v>1811</v>
+        <v>22.5035</v>
       </c>
       <c r="G136" t="n">
-        <v>68.86883333333328</v>
+        <v>68.85599999999995</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5261,19 +5161,19 @@
         <v>69.09999999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>69</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D137" t="n">
         <v>69.09999999999999</v>
       </c>
       <c r="E137" t="n">
-        <v>69</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F137" t="n">
-        <v>12774.0142</v>
+        <v>1811</v>
       </c>
       <c r="G137" t="n">
-        <v>68.88199999999996</v>
+        <v>68.86883333333328</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5293,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>68.79000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>68.79000000000001</v>
+        <v>69</v>
       </c>
       <c r="D138" t="n">
-        <v>68.79000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>68.79000000000001</v>
+        <v>69</v>
       </c>
       <c r="F138" t="n">
-        <v>1586.6115</v>
+        <v>12774.0142</v>
       </c>
       <c r="G138" t="n">
-        <v>68.89166666666662</v>
+        <v>68.88199999999996</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5328,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>68.7</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>68.56999999999999</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>68.7</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>68.56999999999999</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="F139" t="n">
-        <v>8444.960499999999</v>
+        <v>1586.6115</v>
       </c>
       <c r="G139" t="n">
-        <v>68.89133333333328</v>
+        <v>68.89166666666662</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5363,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>68.5</v>
+        <v>68.7</v>
       </c>
       <c r="C140" t="n">
-        <v>68.5</v>
+        <v>68.56999999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>68.5</v>
+        <v>68.7</v>
       </c>
       <c r="E140" t="n">
-        <v>68.5</v>
+        <v>68.56999999999999</v>
       </c>
       <c r="F140" t="n">
-        <v>911.2058</v>
+        <v>8444.960499999999</v>
       </c>
       <c r="G140" t="n">
-        <v>68.88983333333327</v>
+        <v>68.89133333333328</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5398,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>68.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="C141" t="n">
-        <v>68.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="D141" t="n">
-        <v>68.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="E141" t="n">
-        <v>68.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="F141" t="n">
-        <v>962.8679</v>
+        <v>911.2058</v>
       </c>
       <c r="G141" t="n">
-        <v>68.86883333333328</v>
+        <v>68.88983333333327</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5433,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>68.42</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C142" t="n">
-        <v>68.40000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>68.42</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E142" t="n">
-        <v>68.40000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F142" t="n">
-        <v>3784</v>
+        <v>962.8679</v>
       </c>
       <c r="G142" t="n">
-        <v>68.84566666666662</v>
+        <v>68.86883333333328</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5468,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>68.90000000000001</v>
+        <v>68.42</v>
       </c>
       <c r="C143" t="n">
-        <v>68.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>68.90000000000001</v>
+        <v>68.42</v>
       </c>
       <c r="E143" t="n">
-        <v>68.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F143" t="n">
-        <v>8</v>
+        <v>3784</v>
       </c>
       <c r="G143" t="n">
-        <v>68.84783333333327</v>
+        <v>68.84566666666662</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5503,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>68.40000000000001</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C144" t="n">
-        <v>68.40000000000001</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D144" t="n">
-        <v>68.40000000000001</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E144" t="n">
-        <v>68.40000000000001</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F144" t="n">
-        <v>6855.3825</v>
+        <v>8</v>
       </c>
       <c r="G144" t="n">
-        <v>68.8416666666666</v>
+        <v>68.84783333333327</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5538,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>68.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C145" t="n">
-        <v>68.89</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D145" t="n">
-        <v>68.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E145" t="n">
-        <v>68.22</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F145" t="n">
-        <v>25991.8011</v>
+        <v>6855.3825</v>
       </c>
       <c r="G145" t="n">
-        <v>68.8301666666666</v>
+        <v>68.8416666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5573,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="C146" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="D146" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="E146" t="n">
         <v>68.22</v>
       </c>
-      <c r="C146" t="n">
-        <v>68</v>
-      </c>
-      <c r="D146" t="n">
-        <v>68.22</v>
-      </c>
-      <c r="E146" t="n">
-        <v>68</v>
-      </c>
       <c r="F146" t="n">
-        <v>10157.944</v>
+        <v>25991.8011</v>
       </c>
       <c r="G146" t="n">
-        <v>68.8266666666666</v>
+        <v>68.8301666666666</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5608,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>67.5</v>
+        <v>68.22</v>
       </c>
       <c r="C147" t="n">
-        <v>67.17</v>
+        <v>68</v>
       </c>
       <c r="D147" t="n">
-        <v>67.5</v>
+        <v>68.22</v>
       </c>
       <c r="E147" t="n">
-        <v>67.17</v>
+        <v>68</v>
       </c>
       <c r="F147" t="n">
-        <v>21292.8823</v>
+        <v>10157.944</v>
       </c>
       <c r="G147" t="n">
-        <v>68.8091666666666</v>
+        <v>68.8266666666666</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5643,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>68.20999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="C148" t="n">
-        <v>68.20999999999999</v>
+        <v>67.17</v>
       </c>
       <c r="D148" t="n">
-        <v>68.20999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E148" t="n">
-        <v>68.20999999999999</v>
+        <v>67.17</v>
       </c>
       <c r="F148" t="n">
-        <v>8</v>
+        <v>21292.8823</v>
       </c>
       <c r="G148" t="n">
-        <v>68.79933333333325</v>
+        <v>68.8091666666666</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5678,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>67.18000000000001</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>67.18000000000001</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="D149" t="n">
-        <v>67.18000000000001</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="E149" t="n">
-        <v>67.18000000000001</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="F149" t="n">
-        <v>889</v>
+        <v>8</v>
       </c>
       <c r="G149" t="n">
-        <v>68.76083333333327</v>
+        <v>68.79933333333325</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5713,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>68.18000000000001</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="C150" t="n">
-        <v>68.18000000000001</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="D150" t="n">
-        <v>68.18000000000001</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="E150" t="n">
-        <v>68.18000000000001</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="F150" t="n">
-        <v>2050.748</v>
+        <v>889</v>
       </c>
       <c r="G150" t="n">
-        <v>68.74299999999994</v>
+        <v>68.76083333333327</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5748,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>67.44</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="C151" t="n">
-        <v>67.44</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="D151" t="n">
-        <v>67.44</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="E151" t="n">
-        <v>67.44</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="F151" t="n">
-        <v>3741</v>
+        <v>2050.748</v>
       </c>
       <c r="G151" t="n">
-        <v>68.7211666666666</v>
+        <v>68.74299999999994</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5783,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>68.17</v>
+        <v>67.44</v>
       </c>
       <c r="C152" t="n">
-        <v>68.17</v>
+        <v>67.44</v>
       </c>
       <c r="D152" t="n">
-        <v>68.17</v>
+        <v>67.44</v>
       </c>
       <c r="E152" t="n">
-        <v>68.17</v>
+        <v>67.44</v>
       </c>
       <c r="F152" t="n">
-        <v>222.7595</v>
+        <v>3741</v>
       </c>
       <c r="G152" t="n">
-        <v>68.70899999999993</v>
+        <v>68.7211666666666</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5818,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>67.44</v>
+        <v>68.17</v>
       </c>
       <c r="C153" t="n">
-        <v>67.44</v>
+        <v>68.17</v>
       </c>
       <c r="D153" t="n">
-        <v>67.44</v>
+        <v>68.17</v>
       </c>
       <c r="E153" t="n">
-        <v>67.44</v>
+        <v>68.17</v>
       </c>
       <c r="F153" t="n">
-        <v>2109.0919</v>
+        <v>222.7595</v>
       </c>
       <c r="G153" t="n">
-        <v>68.68316666666661</v>
+        <v>68.70899999999993</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5853,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>68.17</v>
+        <v>67.44</v>
       </c>
       <c r="C154" t="n">
-        <v>68.17</v>
+        <v>67.44</v>
       </c>
       <c r="D154" t="n">
-        <v>68.17</v>
+        <v>67.44</v>
       </c>
       <c r="E154" t="n">
-        <v>68.17</v>
+        <v>67.44</v>
       </c>
       <c r="F154" t="n">
-        <v>7.7</v>
+        <v>2109.0919</v>
       </c>
       <c r="G154" t="n">
-        <v>68.66949999999994</v>
+        <v>68.68316666666661</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5888,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>67.44</v>
+        <v>68.17</v>
       </c>
       <c r="C155" t="n">
-        <v>67.44</v>
+        <v>68.17</v>
       </c>
       <c r="D155" t="n">
-        <v>67.44</v>
+        <v>68.17</v>
       </c>
       <c r="E155" t="n">
-        <v>67.44</v>
+        <v>68.17</v>
       </c>
       <c r="F155" t="n">
-        <v>2134</v>
+        <v>7.7</v>
       </c>
       <c r="G155" t="n">
-        <v>68.6331666666666</v>
+        <v>68.66949999999994</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5923,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>67.47</v>
+        <v>67.44</v>
       </c>
       <c r="C156" t="n">
-        <v>67.47</v>
+        <v>67.44</v>
       </c>
       <c r="D156" t="n">
-        <v>67.47</v>
+        <v>67.44</v>
       </c>
       <c r="E156" t="n">
-        <v>67.47</v>
+        <v>67.44</v>
       </c>
       <c r="F156" t="n">
-        <v>889</v>
+        <v>2134</v>
       </c>
       <c r="G156" t="n">
-        <v>68.60683333333327</v>
+        <v>68.6331666666666</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5970,10 +5870,10 @@
         <v>67.47</v>
       </c>
       <c r="F157" t="n">
-        <v>36.5614</v>
+        <v>889</v>
       </c>
       <c r="G157" t="n">
-        <v>68.58049999999994</v>
+        <v>68.60683333333327</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6005,10 +5905,10 @@
         <v>67.47</v>
       </c>
       <c r="F158" t="n">
-        <v>5559.5963</v>
+        <v>36.5614</v>
       </c>
       <c r="G158" t="n">
-        <v>68.55583333333328</v>
+        <v>68.58049999999994</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6040,10 +5940,10 @@
         <v>67.47</v>
       </c>
       <c r="F159" t="n">
-        <v>1860</v>
+        <v>5559.5963</v>
       </c>
       <c r="G159" t="n">
-        <v>68.52199999999995</v>
+        <v>68.55583333333328</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6075,10 +5975,10 @@
         <v>67.47</v>
       </c>
       <c r="F160" t="n">
-        <v>2189</v>
+        <v>1860</v>
       </c>
       <c r="G160" t="n">
-        <v>68.48649999999995</v>
+        <v>68.52199999999995</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6110,10 +6010,10 @@
         <v>67.47</v>
       </c>
       <c r="F161" t="n">
-        <v>3381</v>
+        <v>2189</v>
       </c>
       <c r="G161" t="n">
-        <v>68.46099999999996</v>
+        <v>68.48649999999995</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6145,10 +6045,10 @@
         <v>67.47</v>
       </c>
       <c r="F162" t="n">
-        <v>172</v>
+        <v>3381</v>
       </c>
       <c r="G162" t="n">
-        <v>68.43549999999996</v>
+        <v>68.46099999999996</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6171,19 +6071,19 @@
         <v>67.47</v>
       </c>
       <c r="C163" t="n">
-        <v>67.44</v>
+        <v>67.47</v>
       </c>
       <c r="D163" t="n">
         <v>67.47</v>
       </c>
       <c r="E163" t="n">
-        <v>67.44</v>
+        <v>67.47</v>
       </c>
       <c r="F163" t="n">
-        <v>5776.4136</v>
+        <v>172</v>
       </c>
       <c r="G163" t="n">
-        <v>68.41033333333328</v>
+        <v>68.43549999999996</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6203,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>67.44</v>
+        <v>67.47</v>
       </c>
       <c r="C164" t="n">
         <v>67.44</v>
       </c>
       <c r="D164" t="n">
-        <v>67.44</v>
+        <v>67.47</v>
       </c>
       <c r="E164" t="n">
         <v>67.44</v>
       </c>
       <c r="F164" t="n">
-        <v>20464.5798</v>
+        <v>5776.4136</v>
       </c>
       <c r="G164" t="n">
-        <v>68.38433333333327</v>
+        <v>68.41033333333328</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6238,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>68.17</v>
+        <v>67.44</v>
       </c>
       <c r="C165" t="n">
-        <v>68.17</v>
+        <v>67.44</v>
       </c>
       <c r="D165" t="n">
-        <v>68.17</v>
+        <v>67.44</v>
       </c>
       <c r="E165" t="n">
-        <v>68.17</v>
+        <v>67.44</v>
       </c>
       <c r="F165" t="n">
-        <v>139.3693</v>
+        <v>20464.5798</v>
       </c>
       <c r="G165" t="n">
-        <v>68.36216666666661</v>
+        <v>68.38433333333327</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6285,10 +6185,10 @@
         <v>68.17</v>
       </c>
       <c r="F166" t="n">
-        <v>220</v>
+        <v>139.3693</v>
       </c>
       <c r="G166" t="n">
-        <v>68.33999999999995</v>
+        <v>68.36216666666661</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6320,10 +6220,10 @@
         <v>68.17</v>
       </c>
       <c r="F167" t="n">
-        <v>146.3153</v>
+        <v>220</v>
       </c>
       <c r="G167" t="n">
-        <v>68.31783333333328</v>
+        <v>68.33999999999995</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6343,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>67.44</v>
+        <v>68.17</v>
       </c>
       <c r="C168" t="n">
-        <v>67.44</v>
+        <v>68.17</v>
       </c>
       <c r="D168" t="n">
-        <v>67.44</v>
+        <v>68.17</v>
       </c>
       <c r="E168" t="n">
-        <v>67.44</v>
+        <v>68.17</v>
       </c>
       <c r="F168" t="n">
-        <v>2223</v>
+        <v>146.3153</v>
       </c>
       <c r="G168" t="n">
-        <v>68.2916666666666</v>
+        <v>68.31783333333328</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6381,19 +6281,19 @@
         <v>67.44</v>
       </c>
       <c r="C169" t="n">
-        <v>67.2</v>
+        <v>67.44</v>
       </c>
       <c r="D169" t="n">
         <v>67.44</v>
       </c>
       <c r="E169" t="n">
-        <v>67.2</v>
+        <v>67.44</v>
       </c>
       <c r="F169" t="n">
-        <v>4845.6199</v>
+        <v>2223</v>
       </c>
       <c r="G169" t="n">
-        <v>68.28633333333326</v>
+        <v>68.2916666666666</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6413,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>67.3</v>
+        <v>67.44</v>
       </c>
       <c r="C170" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="D170" t="n">
-        <v>67.3</v>
+        <v>67.44</v>
       </c>
       <c r="E170" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="F170" t="n">
-        <v>2963.088</v>
+        <v>4845.6199</v>
       </c>
       <c r="G170" t="n">
-        <v>68.2746666666666</v>
+        <v>68.28633333333326</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6460,10 +6360,10 @@
         <v>67.3</v>
       </c>
       <c r="F171" t="n">
-        <v>497.9519</v>
+        <v>2963.088</v>
       </c>
       <c r="G171" t="n">
-        <v>68.25466666666661</v>
+        <v>68.2746666666666</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6486,19 +6386,19 @@
         <v>67.3</v>
       </c>
       <c r="C172" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="D172" t="n">
         <v>67.3</v>
       </c>
       <c r="E172" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="F172" t="n">
-        <v>2833</v>
+        <v>497.9519</v>
       </c>
       <c r="G172" t="n">
-        <v>68.22466666666659</v>
+        <v>68.25466666666661</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6518,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>67.48999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="C173" t="n">
-        <v>67.59999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="D173" t="n">
-        <v>67.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="E173" t="n">
-        <v>67.48999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="F173" t="n">
-        <v>1999.084505133136</v>
+        <v>2833</v>
       </c>
       <c r="G173" t="n">
-        <v>68.19466666666661</v>
+        <v>68.22466666666659</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6553,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>67.77</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="C174" t="n">
-        <v>67.77</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D174" t="n">
-        <v>67.77</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E174" t="n">
-        <v>67.77</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="F174" t="n">
-        <v>19195</v>
+        <v>1999.084505133136</v>
       </c>
       <c r="G174" t="n">
-        <v>68.18249999999993</v>
+        <v>68.19466666666661</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6591,19 +6491,19 @@
         <v>67.77</v>
       </c>
       <c r="C175" t="n">
-        <v>68.08</v>
+        <v>67.77</v>
       </c>
       <c r="D175" t="n">
-        <v>68.08</v>
+        <v>67.77</v>
       </c>
       <c r="E175" t="n">
         <v>67.77</v>
       </c>
       <c r="F175" t="n">
-        <v>704</v>
+        <v>19195</v>
       </c>
       <c r="G175" t="n">
-        <v>68.18133333333327</v>
+        <v>68.18249999999993</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6623,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
+        <v>67.77</v>
+      </c>
+      <c r="C176" t="n">
         <v>68.08</v>
       </c>
-      <c r="C176" t="n">
-        <v>68.09999999999999</v>
-      </c>
       <c r="D176" t="n">
-        <v>68.09999999999999</v>
+        <v>68.08</v>
       </c>
       <c r="E176" t="n">
-        <v>68.08</v>
+        <v>67.77</v>
       </c>
       <c r="F176" t="n">
-        <v>3259.5824</v>
+        <v>704</v>
       </c>
       <c r="G176" t="n">
-        <v>68.17799999999993</v>
+        <v>68.18133333333327</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6658,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>67.84999999999999</v>
+        <v>68.08</v>
       </c>
       <c r="C177" t="n">
-        <v>67.84999999999999</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D177" t="n">
-        <v>67.84999999999999</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E177" t="n">
-        <v>67.84999999999999</v>
+        <v>68.08</v>
       </c>
       <c r="F177" t="n">
-        <v>1961.983</v>
+        <v>3259.5824</v>
       </c>
       <c r="G177" t="n">
-        <v>68.17299999999993</v>
+        <v>68.17799999999993</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6705,10 +6605,10 @@
         <v>67.84999999999999</v>
       </c>
       <c r="F178" t="n">
-        <v>870</v>
+        <v>1961.983</v>
       </c>
       <c r="G178" t="n">
-        <v>68.16799999999994</v>
+        <v>68.17299999999993</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6728,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>68.17</v>
+        <v>67.84999999999999</v>
       </c>
       <c r="C179" t="n">
-        <v>67.3</v>
+        <v>67.84999999999999</v>
       </c>
       <c r="D179" t="n">
-        <v>68.17</v>
+        <v>67.84999999999999</v>
       </c>
       <c r="E179" t="n">
-        <v>67.3</v>
+        <v>67.84999999999999</v>
       </c>
       <c r="F179" t="n">
-        <v>18</v>
+        <v>870</v>
       </c>
       <c r="G179" t="n">
-        <v>68.14149999999992</v>
+        <v>68.16799999999994</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6763,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>67.3</v>
+        <v>68.17</v>
       </c>
       <c r="C180" t="n">
         <v>67.3</v>
       </c>
       <c r="D180" t="n">
-        <v>67.3</v>
+        <v>68.17</v>
       </c>
       <c r="E180" t="n">
         <v>67.3</v>
       </c>
       <c r="F180" t="n">
-        <v>7650</v>
+        <v>18</v>
       </c>
       <c r="G180" t="n">
-        <v>68.12499999999993</v>
+        <v>68.14149999999992</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6798,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>68.17</v>
+        <v>67.3</v>
       </c>
       <c r="C181" t="n">
-        <v>68.89</v>
+        <v>67.3</v>
       </c>
       <c r="D181" t="n">
-        <v>68.89</v>
+        <v>67.3</v>
       </c>
       <c r="E181" t="n">
-        <v>68.17</v>
+        <v>67.3</v>
       </c>
       <c r="F181" t="n">
-        <v>814.4989</v>
+        <v>7650</v>
       </c>
       <c r="G181" t="n">
-        <v>68.12649999999992</v>
+        <v>68.12499999999993</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6833,19 +6733,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>69</v>
+        <v>68.17</v>
       </c>
       <c r="C182" t="n">
-        <v>69</v>
+        <v>68.89</v>
       </c>
       <c r="D182" t="n">
-        <v>69</v>
+        <v>68.89</v>
       </c>
       <c r="E182" t="n">
-        <v>69</v>
+        <v>68.17</v>
       </c>
       <c r="F182" t="n">
-        <v>117.9588</v>
+        <v>814.4989</v>
       </c>
       <c r="G182" t="n">
         <v>68.12649999999992</v>
@@ -6868,22 +6768,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>69.29000000000001</v>
+        <v>69</v>
       </c>
       <c r="C183" t="n">
-        <v>69.29000000000001</v>
+        <v>69</v>
       </c>
       <c r="D183" t="n">
-        <v>69.29000000000001</v>
+        <v>69</v>
       </c>
       <c r="E183" t="n">
-        <v>69.29000000000001</v>
+        <v>69</v>
       </c>
       <c r="F183" t="n">
-        <v>100</v>
+        <v>117.9588</v>
       </c>
       <c r="G183" t="n">
-        <v>68.13133333333326</v>
+        <v>68.12649999999992</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6915,10 +6815,10 @@
         <v>69.29000000000001</v>
       </c>
       <c r="F184" t="n">
-        <v>4980.9723</v>
+        <v>100</v>
       </c>
       <c r="G184" t="n">
-        <v>68.12966666666659</v>
+        <v>68.13133333333326</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6938,22 +6838,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>69</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="C185" t="n">
-        <v>69</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="D185" t="n">
-        <v>69</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="E185" t="n">
-        <v>69</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="F185" t="n">
-        <v>382.0412</v>
+        <v>4980.9723</v>
       </c>
       <c r="G185" t="n">
-        <v>68.13949999999993</v>
+        <v>68.12966666666659</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6973,22 +6873,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>68.92</v>
+        <v>69</v>
       </c>
       <c r="C186" t="n">
-        <v>67.63</v>
+        <v>69</v>
       </c>
       <c r="D186" t="n">
-        <v>68.92</v>
+        <v>69</v>
       </c>
       <c r="E186" t="n">
-        <v>67.63</v>
+        <v>69</v>
       </c>
       <c r="F186" t="n">
-        <v>2429.8028</v>
+        <v>382.0412</v>
       </c>
       <c r="G186" t="n">
-        <v>68.11033333333326</v>
+        <v>68.13949999999993</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7008,22 +6908,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>69.29000000000001</v>
+        <v>68.92</v>
       </c>
       <c r="C187" t="n">
-        <v>69.29000000000001</v>
+        <v>67.63</v>
       </c>
       <c r="D187" t="n">
-        <v>69.29000000000001</v>
+        <v>68.92</v>
       </c>
       <c r="E187" t="n">
-        <v>69.29000000000001</v>
+        <v>67.63</v>
       </c>
       <c r="F187" t="n">
-        <v>8</v>
+        <v>2429.8028</v>
       </c>
       <c r="G187" t="n">
-        <v>68.12349999999992</v>
+        <v>68.11033333333326</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7043,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>67.70999999999999</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="C188" t="n">
-        <v>67.70999999999999</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="D188" t="n">
-        <v>67.70999999999999</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="E188" t="n">
-        <v>67.70999999999999</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="F188" t="n">
-        <v>3868</v>
+        <v>8</v>
       </c>
       <c r="G188" t="n">
-        <v>68.11033333333326</v>
+        <v>68.12349999999992</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7078,22 +6978,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>69.26000000000001</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="C189" t="n">
-        <v>69.26000000000001</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="D189" t="n">
-        <v>69.26000000000001</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="E189" t="n">
-        <v>69.26000000000001</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="F189" t="n">
-        <v>24.43834825295986</v>
+        <v>3868</v>
       </c>
       <c r="G189" t="n">
-        <v>68.12299999999992</v>
+        <v>68.11033333333326</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7125,10 +7025,10 @@
         <v>69.26000000000001</v>
       </c>
       <c r="F190" t="n">
-        <v>1052.5846</v>
+        <v>24.43834825295986</v>
       </c>
       <c r="G190" t="n">
-        <v>68.14049999999993</v>
+        <v>68.12299999999992</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7148,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>67.72</v>
+        <v>69.26000000000001</v>
       </c>
       <c r="C191" t="n">
-        <v>67.72</v>
+        <v>69.26000000000001</v>
       </c>
       <c r="D191" t="n">
-        <v>67.72</v>
+        <v>69.26000000000001</v>
       </c>
       <c r="E191" t="n">
-        <v>67.72</v>
+        <v>69.26000000000001</v>
       </c>
       <c r="F191" t="n">
-        <v>6319.3624</v>
+        <v>1052.5846</v>
       </c>
       <c r="G191" t="n">
-        <v>68.1241666666666</v>
+        <v>68.14049999999993</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7183,22 +7083,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>68.5</v>
+        <v>67.72</v>
       </c>
       <c r="C192" t="n">
-        <v>68.5</v>
+        <v>67.72</v>
       </c>
       <c r="D192" t="n">
-        <v>68.5</v>
+        <v>67.72</v>
       </c>
       <c r="E192" t="n">
-        <v>68.5</v>
+        <v>67.72</v>
       </c>
       <c r="F192" t="n">
-        <v>8</v>
+        <v>6319.3624</v>
       </c>
       <c r="G192" t="n">
-        <v>68.1091666666666</v>
+        <v>68.1241666666666</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7218,22 +7118,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>67.73999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="C193" t="n">
-        <v>67.73999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="D193" t="n">
-        <v>67.73999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="E193" t="n">
-        <v>67.73999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="F193" t="n">
-        <v>1808</v>
+        <v>8</v>
       </c>
       <c r="G193" t="n">
-        <v>68.09166666666661</v>
+        <v>68.1091666666666</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7253,22 +7153,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>68.5</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="C194" t="n">
-        <v>69.25</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="D194" t="n">
-        <v>69.25</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="E194" t="n">
-        <v>68.5</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="F194" t="n">
-        <v>497.810238267148</v>
+        <v>1808</v>
       </c>
       <c r="G194" t="n">
-        <v>68.09583333333327</v>
+        <v>68.09166666666661</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7288,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>67.93000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="C195" t="n">
-        <v>67.92</v>
+        <v>69.25</v>
       </c>
       <c r="D195" t="n">
-        <v>67.93000000000001</v>
+        <v>69.25</v>
       </c>
       <c r="E195" t="n">
-        <v>67.92</v>
+        <v>68.5</v>
       </c>
       <c r="F195" t="n">
-        <v>2533</v>
+        <v>497.810238267148</v>
       </c>
       <c r="G195" t="n">
-        <v>68.0711666666666</v>
+        <v>68.09583333333327</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7323,22 +7223,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>67.92</v>
+        <v>67.93000000000001</v>
       </c>
       <c r="C196" t="n">
         <v>67.92</v>
       </c>
       <c r="D196" t="n">
-        <v>67.92</v>
+        <v>67.93000000000001</v>
       </c>
       <c r="E196" t="n">
         <v>67.92</v>
       </c>
       <c r="F196" t="n">
-        <v>3545.549</v>
+        <v>2533</v>
       </c>
       <c r="G196" t="n">
-        <v>68.05149999999993</v>
+        <v>68.0711666666666</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7358,22 +7258,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>68.5</v>
+        <v>67.92</v>
       </c>
       <c r="C197" t="n">
-        <v>68.5</v>
+        <v>67.92</v>
       </c>
       <c r="D197" t="n">
-        <v>68.5</v>
+        <v>67.92</v>
       </c>
       <c r="E197" t="n">
-        <v>68.5</v>
+        <v>67.92</v>
       </c>
       <c r="F197" t="n">
-        <v>135.5698</v>
+        <v>3545.549</v>
       </c>
       <c r="G197" t="n">
-        <v>68.04316666666661</v>
+        <v>68.05149999999993</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7393,22 +7293,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>69</v>
+        <v>68.5</v>
       </c>
       <c r="C198" t="n">
-        <v>69</v>
+        <v>68.5</v>
       </c>
       <c r="D198" t="n">
-        <v>69</v>
+        <v>68.5</v>
       </c>
       <c r="E198" t="n">
-        <v>69</v>
+        <v>68.5</v>
       </c>
       <c r="F198" t="n">
-        <v>150.6331</v>
+        <v>135.5698</v>
       </c>
       <c r="G198" t="n">
-        <v>68.04666666666661</v>
+        <v>68.04316666666661</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7440,10 +7340,10 @@
         <v>69</v>
       </c>
       <c r="F199" t="n">
-        <v>49.3669</v>
+        <v>150.6331</v>
       </c>
       <c r="G199" t="n">
-        <v>68.05383333333327</v>
+        <v>68.04666666666661</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7463,22 +7363,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>68.5</v>
+        <v>69</v>
       </c>
       <c r="C200" t="n">
-        <v>67.93000000000001</v>
+        <v>69</v>
       </c>
       <c r="D200" t="n">
-        <v>68.5</v>
+        <v>69</v>
       </c>
       <c r="E200" t="n">
-        <v>67.93000000000001</v>
+        <v>69</v>
       </c>
       <c r="F200" t="n">
-        <v>2931</v>
+        <v>49.3669</v>
       </c>
       <c r="G200" t="n">
-        <v>68.04433333333327</v>
+        <v>68.05383333333327</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7498,22 +7398,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>68.89</v>
+        <v>68.5</v>
       </c>
       <c r="C201" t="n">
-        <v>68.89</v>
+        <v>67.93000000000001</v>
       </c>
       <c r="D201" t="n">
-        <v>68.89</v>
+        <v>68.5</v>
       </c>
       <c r="E201" t="n">
-        <v>68.89</v>
+        <v>67.93000000000001</v>
       </c>
       <c r="F201" t="n">
-        <v>8</v>
+        <v>2931</v>
       </c>
       <c r="G201" t="n">
-        <v>68.04916666666661</v>
+        <v>68.04433333333327</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7533,22 +7433,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>67.73999999999999</v>
+        <v>68.89</v>
       </c>
       <c r="C202" t="n">
-        <v>67.73999999999999</v>
+        <v>68.89</v>
       </c>
       <c r="D202" t="n">
-        <v>67.73999999999999</v>
+        <v>68.89</v>
       </c>
       <c r="E202" t="n">
-        <v>67.73999999999999</v>
+        <v>68.89</v>
       </c>
       <c r="F202" t="n">
-        <v>11268.3642</v>
+        <v>8</v>
       </c>
       <c r="G202" t="n">
-        <v>68.03816666666661</v>
+        <v>68.04916666666661</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7568,22 +7468,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>68.88</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="C203" t="n">
-        <v>68.88</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="D203" t="n">
-        <v>68.88</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="E203" t="n">
-        <v>68.88</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="F203" t="n">
-        <v>8</v>
+        <v>11268.3642</v>
       </c>
       <c r="G203" t="n">
-        <v>68.03783333333327</v>
+        <v>68.03816666666661</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7603,22 +7503,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>67.90000000000001</v>
+        <v>68.88</v>
       </c>
       <c r="C204" t="n">
-        <v>67.81</v>
+        <v>68.88</v>
       </c>
       <c r="D204" t="n">
-        <v>67.90000000000001</v>
+        <v>68.88</v>
       </c>
       <c r="E204" t="n">
-        <v>67.81</v>
+        <v>68.88</v>
       </c>
       <c r="F204" t="n">
-        <v>2588</v>
+        <v>8</v>
       </c>
       <c r="G204" t="n">
-        <v>68.02799999999993</v>
+        <v>68.03783333333327</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7638,22 +7538,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>67.81</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C205" t="n">
         <v>67.81</v>
       </c>
       <c r="D205" t="n">
-        <v>67.81</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E205" t="n">
         <v>67.81</v>
       </c>
       <c r="F205" t="n">
-        <v>3690</v>
+        <v>2588</v>
       </c>
       <c r="G205" t="n">
-        <v>68.00999999999993</v>
+        <v>68.02799999999993</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7676,19 +7576,19 @@
         <v>67.81</v>
       </c>
       <c r="C206" t="n">
-        <v>67.62</v>
+        <v>67.81</v>
       </c>
       <c r="D206" t="n">
         <v>67.81</v>
       </c>
       <c r="E206" t="n">
-        <v>67.62</v>
+        <v>67.81</v>
       </c>
       <c r="F206" t="n">
-        <v>2719</v>
+        <v>3690</v>
       </c>
       <c r="G206" t="n">
-        <v>68.0036666666666</v>
+        <v>68.00999999999993</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7708,22 +7608,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>68.79000000000001</v>
+        <v>67.81</v>
       </c>
       <c r="C207" t="n">
-        <v>68.79000000000001</v>
+        <v>67.62</v>
       </c>
       <c r="D207" t="n">
-        <v>68.79000000000001</v>
+        <v>67.81</v>
       </c>
       <c r="E207" t="n">
-        <v>68.79000000000001</v>
+        <v>67.62</v>
       </c>
       <c r="F207" t="n">
-        <v>8</v>
+        <v>2719</v>
       </c>
       <c r="G207" t="n">
-        <v>68.0306666666666</v>
+        <v>68.0036666666666</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7743,22 +7643,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>67.62</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="C208" t="n">
-        <v>67.62</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="D208" t="n">
-        <v>67.62</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="E208" t="n">
-        <v>67.62</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="F208" t="n">
-        <v>8497.5121</v>
+        <v>8</v>
       </c>
       <c r="G208" t="n">
-        <v>68.02083333333327</v>
+        <v>68.0306666666666</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7781,19 +7681,19 @@
         <v>67.62</v>
       </c>
       <c r="C209" t="n">
-        <v>67.19</v>
+        <v>67.62</v>
       </c>
       <c r="D209" t="n">
         <v>67.62</v>
       </c>
       <c r="E209" t="n">
-        <v>67.19</v>
+        <v>67.62</v>
       </c>
       <c r="F209" t="n">
-        <v>660</v>
+        <v>8497.5121</v>
       </c>
       <c r="G209" t="n">
-        <v>68.02099999999993</v>
+        <v>68.02083333333327</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7813,22 +7713,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>67.5</v>
+        <v>67.62</v>
       </c>
       <c r="C210" t="n">
-        <v>67.17</v>
+        <v>67.19</v>
       </c>
       <c r="D210" t="n">
-        <v>67.5</v>
+        <v>67.62</v>
       </c>
       <c r="E210" t="n">
-        <v>67.17</v>
+        <v>67.19</v>
       </c>
       <c r="F210" t="n">
-        <v>15785.0584</v>
+        <v>660</v>
       </c>
       <c r="G210" t="n">
-        <v>68.00416666666659</v>
+        <v>68.02099999999993</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7848,22 +7748,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>68</v>
+        <v>67.5</v>
       </c>
       <c r="C211" t="n">
-        <v>68</v>
+        <v>67.17</v>
       </c>
       <c r="D211" t="n">
-        <v>68</v>
+        <v>67.5</v>
       </c>
       <c r="E211" t="n">
-        <v>68</v>
+        <v>67.17</v>
       </c>
       <c r="F211" t="n">
-        <v>18</v>
+        <v>15785.0584</v>
       </c>
       <c r="G211" t="n">
-        <v>68.01349999999994</v>
+        <v>68.00416666666659</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7883,22 +7783,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>67.90000000000001</v>
+        <v>68</v>
       </c>
       <c r="C212" t="n">
-        <v>67.5</v>
+        <v>68</v>
       </c>
       <c r="D212" t="n">
-        <v>67.90000000000001</v>
+        <v>68</v>
       </c>
       <c r="E212" t="n">
-        <v>67.5</v>
+        <v>68</v>
       </c>
       <c r="F212" t="n">
-        <v>36.4735</v>
+        <v>18</v>
       </c>
       <c r="G212" t="n">
-        <v>68.00233333333327</v>
+        <v>68.01349999999994</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7918,22 +7818,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>67.27</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C213" t="n">
-        <v>67.17</v>
+        <v>67.5</v>
       </c>
       <c r="D213" t="n">
-        <v>67.27</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E213" t="n">
-        <v>67.17</v>
+        <v>67.5</v>
       </c>
       <c r="F213" t="n">
-        <v>54.13</v>
+        <v>36.4735</v>
       </c>
       <c r="G213" t="n">
-        <v>67.99783333333326</v>
+        <v>68.00233333333327</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7953,22 +7853,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>67.17</v>
+        <v>67.27</v>
       </c>
       <c r="C214" t="n">
         <v>67.17</v>
       </c>
       <c r="D214" t="n">
-        <v>67.17</v>
+        <v>67.27</v>
       </c>
       <c r="E214" t="n">
         <v>67.17</v>
       </c>
       <c r="F214" t="n">
-        <v>4386.2919</v>
+        <v>54.13</v>
       </c>
       <c r="G214" t="n">
-        <v>67.9811666666666</v>
+        <v>67.99783333333326</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7988,22 +7888,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>67.16</v>
+        <v>67.17</v>
       </c>
       <c r="C215" t="n">
-        <v>67.01000000000001</v>
+        <v>67.17</v>
       </c>
       <c r="D215" t="n">
-        <v>67.16</v>
+        <v>67.17</v>
       </c>
       <c r="E215" t="n">
-        <v>67.01000000000001</v>
+        <v>67.17</v>
       </c>
       <c r="F215" t="n">
-        <v>49788.7915</v>
+        <v>4386.2919</v>
       </c>
       <c r="G215" t="n">
-        <v>67.97399999999992</v>
+        <v>67.9811666666666</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8023,22 +7923,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>67</v>
+        <v>67.16</v>
       </c>
       <c r="C216" t="n">
-        <v>67</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="D216" t="n">
-        <v>67</v>
+        <v>67.16</v>
       </c>
       <c r="E216" t="n">
-        <v>67</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="F216" t="n">
-        <v>1052.5846</v>
+        <v>49788.7915</v>
       </c>
       <c r="G216" t="n">
-        <v>67.96616666666658</v>
+        <v>67.97399999999992</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8061,19 +7961,19 @@
         <v>67</v>
       </c>
       <c r="C217" t="n">
-        <v>66.92</v>
+        <v>67</v>
       </c>
       <c r="D217" t="n">
         <v>67</v>
       </c>
       <c r="E217" t="n">
-        <v>66.92</v>
+        <v>67</v>
       </c>
       <c r="F217" t="n">
-        <v>11731.4417</v>
+        <v>1052.5846</v>
       </c>
       <c r="G217" t="n">
-        <v>67.95699999999992</v>
+        <v>67.96616666666658</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8093,22 +7993,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>66.92</v>
+        <v>67</v>
       </c>
       <c r="C218" t="n">
         <v>66.92</v>
       </c>
       <c r="D218" t="n">
-        <v>66.92</v>
+        <v>67</v>
       </c>
       <c r="E218" t="n">
         <v>66.92</v>
       </c>
       <c r="F218" t="n">
-        <v>1805.501</v>
+        <v>11731.4417</v>
       </c>
       <c r="G218" t="n">
-        <v>67.94783333333325</v>
+        <v>67.95699999999992</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8128,22 +8028,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>66.90000000000001</v>
+        <v>66.92</v>
       </c>
       <c r="C219" t="n">
-        <v>66.8</v>
+        <v>66.92</v>
       </c>
       <c r="D219" t="n">
-        <v>66.90000000000001</v>
+        <v>66.92</v>
       </c>
       <c r="E219" t="n">
-        <v>66.8</v>
+        <v>66.92</v>
       </c>
       <c r="F219" t="n">
-        <v>8625.2592</v>
+        <v>1805.501</v>
       </c>
       <c r="G219" t="n">
-        <v>67.93666666666658</v>
+        <v>67.94783333333325</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8163,22 +8063,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>66.83</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C220" t="n">
-        <v>66.84</v>
+        <v>66.8</v>
       </c>
       <c r="D220" t="n">
-        <v>66.84</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E220" t="n">
-        <v>66.83</v>
+        <v>66.8</v>
       </c>
       <c r="F220" t="n">
-        <v>3964.1796</v>
+        <v>8625.2592</v>
       </c>
       <c r="G220" t="n">
-        <v>67.92616666666657</v>
+        <v>67.93666666666658</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8198,10 +8098,10 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
+        <v>66.83</v>
+      </c>
+      <c r="C221" t="n">
         <v>66.84</v>
-      </c>
-      <c r="C221" t="n">
-        <v>66.83</v>
       </c>
       <c r="D221" t="n">
         <v>66.84</v>
@@ -8210,10 +8110,10 @@
         <v>66.83</v>
       </c>
       <c r="F221" t="n">
-        <v>5141.136</v>
+        <v>3964.1796</v>
       </c>
       <c r="G221" t="n">
-        <v>67.91549999999992</v>
+        <v>67.92616666666657</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8245,10 +8145,10 @@
         <v>66.83</v>
       </c>
       <c r="F222" t="n">
-        <v>5297.0028</v>
+        <v>5141.136</v>
       </c>
       <c r="G222" t="n">
-        <v>67.90483333333326</v>
+        <v>67.91549999999992</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8271,19 +8171,19 @@
         <v>66.84</v>
       </c>
       <c r="C223" t="n">
-        <v>66.84</v>
+        <v>66.83</v>
       </c>
       <c r="D223" t="n">
         <v>66.84</v>
       </c>
       <c r="E223" t="n">
-        <v>66.84</v>
+        <v>66.83</v>
       </c>
       <c r="F223" t="n">
-        <v>0.28</v>
+        <v>5297.0028</v>
       </c>
       <c r="G223" t="n">
-        <v>67.89483333333325</v>
+        <v>67.90483333333326</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8303,22 +8203,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>67.88</v>
+        <v>66.84</v>
       </c>
       <c r="C224" t="n">
-        <v>67.88</v>
+        <v>66.84</v>
       </c>
       <c r="D224" t="n">
-        <v>67.88</v>
+        <v>66.84</v>
       </c>
       <c r="E224" t="n">
-        <v>67.88</v>
+        <v>66.84</v>
       </c>
       <c r="F224" t="n">
-        <v>61.8782</v>
+        <v>0.28</v>
       </c>
       <c r="G224" t="n">
-        <v>67.90216666666659</v>
+        <v>67.89483333333325</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8341,19 +8241,19 @@
         <v>67.88</v>
       </c>
       <c r="C225" t="n">
-        <v>68</v>
+        <v>67.88</v>
       </c>
       <c r="D225" t="n">
-        <v>68</v>
+        <v>67.88</v>
       </c>
       <c r="E225" t="n">
         <v>67.88</v>
       </c>
       <c r="F225" t="n">
-        <v>89.99282105882352</v>
+        <v>61.8782</v>
       </c>
       <c r="G225" t="n">
-        <v>67.89933333333326</v>
+        <v>67.90216666666659</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8373,22 +8273,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>66.90000000000001</v>
+        <v>67.88</v>
       </c>
       <c r="C226" t="n">
-        <v>66.81</v>
+        <v>68</v>
       </c>
       <c r="D226" t="n">
-        <v>66.90000000000001</v>
+        <v>68</v>
       </c>
       <c r="E226" t="n">
-        <v>66.81</v>
+        <v>67.88</v>
       </c>
       <c r="F226" t="n">
-        <v>3051</v>
+        <v>89.99282105882352</v>
       </c>
       <c r="G226" t="n">
-        <v>67.87666666666659</v>
+        <v>67.89933333333326</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8408,22 +8308,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>66.81</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C227" t="n">
         <v>66.81</v>
       </c>
       <c r="D227" t="n">
-        <v>66.81</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E227" t="n">
         <v>66.81</v>
       </c>
       <c r="F227" t="n">
-        <v>14006.6489</v>
+        <v>3051</v>
       </c>
       <c r="G227" t="n">
-        <v>67.85399999999994</v>
+        <v>67.87666666666659</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8443,22 +8343,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>66.8</v>
+        <v>66.81</v>
       </c>
       <c r="C228" t="n">
-        <v>66.8</v>
+        <v>66.81</v>
       </c>
       <c r="D228" t="n">
-        <v>66.8</v>
+        <v>66.81</v>
       </c>
       <c r="E228" t="n">
-        <v>66.8</v>
+        <v>66.81</v>
       </c>
       <c r="F228" t="n">
-        <v>64355.8926</v>
+        <v>14006.6489</v>
       </c>
       <c r="G228" t="n">
-        <v>67.84333333333328</v>
+        <v>67.85399999999994</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8481,19 +8381,19 @@
         <v>66.8</v>
       </c>
       <c r="C229" t="n">
-        <v>66.73</v>
+        <v>66.8</v>
       </c>
       <c r="D229" t="n">
         <v>66.8</v>
       </c>
       <c r="E229" t="n">
-        <v>66.73</v>
+        <v>66.8</v>
       </c>
       <c r="F229" t="n">
-        <v>11620.4884</v>
+        <v>64355.8926</v>
       </c>
       <c r="G229" t="n">
-        <v>67.83549999999994</v>
+        <v>67.84333333333328</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8513,22 +8413,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C230" t="n">
         <v>66.73</v>
       </c>
-      <c r="C230" t="n">
-        <v>66.81</v>
-      </c>
       <c r="D230" t="n">
-        <v>66.81</v>
+        <v>66.8</v>
       </c>
       <c r="E230" t="n">
         <v>66.73</v>
       </c>
       <c r="F230" t="n">
-        <v>1494.5213</v>
+        <v>11620.4884</v>
       </c>
       <c r="G230" t="n">
-        <v>67.82733333333327</v>
+        <v>67.83549999999994</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8548,22 +8448,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>67.86</v>
+        <v>66.73</v>
       </c>
       <c r="C231" t="n">
-        <v>67.86</v>
+        <v>66.81</v>
       </c>
       <c r="D231" t="n">
-        <v>67.86</v>
+        <v>66.81</v>
       </c>
       <c r="E231" t="n">
-        <v>67.86</v>
+        <v>66.73</v>
       </c>
       <c r="F231" t="n">
-        <v>8</v>
+        <v>1494.5213</v>
       </c>
       <c r="G231" t="n">
-        <v>67.8366666666666</v>
+        <v>67.82733333333327</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8583,22 +8483,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>66.81</v>
+        <v>67.86</v>
       </c>
       <c r="C232" t="n">
-        <v>66.81</v>
+        <v>67.86</v>
       </c>
       <c r="D232" t="n">
-        <v>66.81</v>
+        <v>67.86</v>
       </c>
       <c r="E232" t="n">
-        <v>66.81</v>
+        <v>67.86</v>
       </c>
       <c r="F232" t="n">
-        <v>0.4787</v>
+        <v>8</v>
       </c>
       <c r="G232" t="n">
-        <v>67.83016666666661</v>
+        <v>67.8366666666666</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8618,22 +8518,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>66.43000000000001</v>
+        <v>66.81</v>
       </c>
       <c r="C233" t="n">
-        <v>66.20999999999999</v>
+        <v>66.81</v>
       </c>
       <c r="D233" t="n">
-        <v>66.43000000000001</v>
+        <v>66.81</v>
       </c>
       <c r="E233" t="n">
-        <v>66.20999999999999</v>
+        <v>66.81</v>
       </c>
       <c r="F233" t="n">
-        <v>44597.9704</v>
+        <v>0.4787</v>
       </c>
       <c r="G233" t="n">
-        <v>67.80699999999995</v>
+        <v>67.83016666666661</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8653,22 +8553,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>67.81999999999999</v>
+        <v>66.43000000000001</v>
       </c>
       <c r="C234" t="n">
-        <v>66.23</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="D234" t="n">
-        <v>67.81999999999999</v>
+        <v>66.43000000000001</v>
       </c>
       <c r="E234" t="n">
-        <v>66.23</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="F234" t="n">
-        <v>108</v>
+        <v>44597.9704</v>
       </c>
       <c r="G234" t="n">
-        <v>67.78133333333328</v>
+        <v>67.80699999999995</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8691,19 +8591,19 @@
         <v>67.81999999999999</v>
       </c>
       <c r="C235" t="n">
-        <v>67.81999999999999</v>
+        <v>66.23</v>
       </c>
       <c r="D235" t="n">
         <v>67.81999999999999</v>
       </c>
       <c r="E235" t="n">
-        <v>67.81999999999999</v>
+        <v>66.23</v>
       </c>
       <c r="F235" t="n">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="G235" t="n">
-        <v>67.77699999999996</v>
+        <v>67.78133333333328</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8723,22 +8623,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>67.3</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="C236" t="n">
-        <v>67.3</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="D236" t="n">
-        <v>67.3</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="E236" t="n">
-        <v>67.3</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="F236" t="n">
-        <v>156.1993</v>
+        <v>8</v>
       </c>
       <c r="G236" t="n">
-        <v>67.76366666666662</v>
+        <v>67.77699999999996</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8761,19 +8661,19 @@
         <v>67.3</v>
       </c>
       <c r="C237" t="n">
-        <v>67.8</v>
+        <v>67.3</v>
       </c>
       <c r="D237" t="n">
-        <v>67.8</v>
+        <v>67.3</v>
       </c>
       <c r="E237" t="n">
         <v>67.3</v>
       </c>
       <c r="F237" t="n">
-        <v>12.5951</v>
+        <v>156.1993</v>
       </c>
       <c r="G237" t="n">
-        <v>67.76283333333329</v>
+        <v>67.76366666666662</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8793,22 +8693,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>67.81</v>
+        <v>67.3</v>
       </c>
       <c r="C238" t="n">
-        <v>67.81</v>
+        <v>67.8</v>
       </c>
       <c r="D238" t="n">
-        <v>67.81</v>
+        <v>67.8</v>
       </c>
       <c r="E238" t="n">
-        <v>67.81</v>
+        <v>67.3</v>
       </c>
       <c r="F238" t="n">
-        <v>8</v>
+        <v>12.5951</v>
       </c>
       <c r="G238" t="n">
-        <v>67.76216666666662</v>
+        <v>67.76283333333329</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8828,22 +8728,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>67.8</v>
+        <v>67.81</v>
       </c>
       <c r="C239" t="n">
-        <v>66.98999999999999</v>
+        <v>67.81</v>
       </c>
       <c r="D239" t="n">
-        <v>67.8</v>
+        <v>67.81</v>
       </c>
       <c r="E239" t="n">
-        <v>66.98999999999999</v>
+        <v>67.81</v>
       </c>
       <c r="F239" t="n">
-        <v>1914.2035</v>
+        <v>8</v>
       </c>
       <c r="G239" t="n">
-        <v>67.75699999999996</v>
+        <v>67.76216666666662</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8863,22 +8763,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="C240" t="n">
         <v>66.98999999999999</v>
       </c>
-      <c r="C240" t="n">
-        <v>67.5</v>
-      </c>
       <c r="D240" t="n">
-        <v>67.5</v>
+        <v>67.8</v>
       </c>
       <c r="E240" t="n">
         <v>66.98999999999999</v>
       </c>
       <c r="F240" t="n">
-        <v>138.9425</v>
+        <v>1914.2035</v>
       </c>
       <c r="G240" t="n">
-        <v>67.76033333333329</v>
+        <v>67.75699999999996</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8898,22 +8798,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
+        <v>66.98999999999999</v>
+      </c>
+      <c r="C241" t="n">
         <v>67.5</v>
       </c>
-      <c r="C241" t="n">
-        <v>69</v>
-      </c>
       <c r="D241" t="n">
-        <v>69</v>
+        <v>67.5</v>
       </c>
       <c r="E241" t="n">
-        <v>67.5</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="F241" t="n">
-        <v>4973.252821825235</v>
+        <v>138.9425</v>
       </c>
       <c r="G241" t="n">
-        <v>67.76216666666662</v>
+        <v>67.76033333333329</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8933,22 +8833,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>68</v>
+        <v>67.5</v>
       </c>
       <c r="C242" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D242" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E242" t="n">
-        <v>68</v>
+        <v>67.5</v>
       </c>
       <c r="F242" t="n">
-        <v>294.4493</v>
+        <v>4973.252821825235</v>
       </c>
       <c r="G242" t="n">
-        <v>67.74549999999996</v>
+        <v>67.76216666666662</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8968,22 +8868,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="C243" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D243" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="E243" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F243" t="n">
-        <v>4950.9529</v>
+        <v>294.4493</v>
       </c>
       <c r="G243" t="n">
-        <v>67.7073333333333</v>
+        <v>67.74549999999996</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9003,22 +8903,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>67.94</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C244" t="n">
-        <v>67.94</v>
+        <v>67</v>
       </c>
       <c r="D244" t="n">
-        <v>67.94</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E244" t="n">
-        <v>67.94</v>
+        <v>67</v>
       </c>
       <c r="F244" t="n">
-        <v>100</v>
+        <v>4950.9529</v>
       </c>
       <c r="G244" t="n">
-        <v>67.68483333333329</v>
+        <v>67.7073333333333</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9038,22 +8938,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>67.89</v>
+        <v>67.94</v>
       </c>
       <c r="C245" t="n">
-        <v>67.89</v>
+        <v>67.94</v>
       </c>
       <c r="D245" t="n">
-        <v>67.89</v>
+        <v>67.94</v>
       </c>
       <c r="E245" t="n">
-        <v>67.89</v>
+        <v>67.94</v>
       </c>
       <c r="F245" t="n">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="G245" t="n">
-        <v>67.6663333333333</v>
+        <v>67.68483333333329</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9076,19 +8976,19 @@
         <v>67.89</v>
       </c>
       <c r="C246" t="n">
-        <v>68.17</v>
+        <v>67.89</v>
       </c>
       <c r="D246" t="n">
-        <v>68.17</v>
+        <v>67.89</v>
       </c>
       <c r="E246" t="n">
         <v>67.89</v>
       </c>
       <c r="F246" t="n">
-        <v>822.3781</v>
+        <v>5000</v>
       </c>
       <c r="G246" t="n">
-        <v>67.6753333333333</v>
+        <v>67.6663333333333</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9108,7 +9008,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>68.17</v>
+        <v>67.89</v>
       </c>
       <c r="C247" t="n">
         <v>68.17</v>
@@ -9117,13 +9017,13 @@
         <v>68.17</v>
       </c>
       <c r="E247" t="n">
-        <v>68.17</v>
+        <v>67.89</v>
       </c>
       <c r="F247" t="n">
-        <v>170.0067</v>
+        <v>822.3781</v>
       </c>
       <c r="G247" t="n">
-        <v>67.65666666666662</v>
+        <v>67.6753333333333</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9143,22 +9043,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>68.37</v>
+        <v>68.17</v>
       </c>
       <c r="C248" t="n">
-        <v>68.48999999999999</v>
+        <v>68.17</v>
       </c>
       <c r="D248" t="n">
-        <v>68.48999999999999</v>
+        <v>68.17</v>
       </c>
       <c r="E248" t="n">
-        <v>68.37</v>
+        <v>68.17</v>
       </c>
       <c r="F248" t="n">
-        <v>369</v>
+        <v>170.0067</v>
       </c>
       <c r="G248" t="n">
-        <v>67.66966666666663</v>
+        <v>67.65666666666662</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9178,22 +9078,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>68.17</v>
+        <v>68.37</v>
       </c>
       <c r="C249" t="n">
-        <v>67.55</v>
+        <v>68.48999999999999</v>
       </c>
       <c r="D249" t="n">
-        <v>68.17</v>
+        <v>68.48999999999999</v>
       </c>
       <c r="E249" t="n">
-        <v>67.55</v>
+        <v>68.37</v>
       </c>
       <c r="F249" t="n">
-        <v>1009.9933</v>
+        <v>369</v>
       </c>
       <c r="G249" t="n">
-        <v>67.64116666666662</v>
+        <v>67.66966666666663</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9213,22 +9113,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>68.48</v>
+        <v>68.17</v>
       </c>
       <c r="C250" t="n">
-        <v>68.48</v>
+        <v>67.55</v>
       </c>
       <c r="D250" t="n">
-        <v>68.48</v>
+        <v>68.17</v>
       </c>
       <c r="E250" t="n">
-        <v>68.48</v>
+        <v>67.55</v>
       </c>
       <c r="F250" t="n">
-        <v>100</v>
+        <v>1009.9933</v>
       </c>
       <c r="G250" t="n">
-        <v>67.62816666666662</v>
+        <v>67.64116666666662</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9248,22 +9148,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>68</v>
+        <v>68.48</v>
       </c>
       <c r="C251" t="n">
-        <v>68.48999999999999</v>
+        <v>68.48</v>
       </c>
       <c r="D251" t="n">
-        <v>68.48999999999999</v>
+        <v>68.48</v>
       </c>
       <c r="E251" t="n">
-        <v>67</v>
+        <v>68.48</v>
       </c>
       <c r="F251" t="n">
-        <v>1975.278</v>
+        <v>100</v>
       </c>
       <c r="G251" t="n">
-        <v>67.64099999999995</v>
+        <v>67.62816666666662</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9283,22 +9183,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
+        <v>68</v>
+      </c>
+      <c r="C252" t="n">
+        <v>68.48999999999999</v>
+      </c>
+      <c r="D252" t="n">
+        <v>68.48999999999999</v>
+      </c>
+      <c r="E252" t="n">
         <v>67</v>
       </c>
-      <c r="C252" t="n">
-        <v>66.23</v>
-      </c>
-      <c r="D252" t="n">
-        <v>67</v>
-      </c>
-      <c r="E252" t="n">
-        <v>66.23</v>
-      </c>
       <c r="F252" t="n">
-        <v>46259.1976</v>
+        <v>1975.278</v>
       </c>
       <c r="G252" t="n">
-        <v>67.60316666666661</v>
+        <v>67.64099999999995</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9318,22 +9218,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
+        <v>67</v>
+      </c>
+      <c r="C253" t="n">
         <v>66.23</v>
       </c>
-      <c r="C253" t="n">
-        <v>66.22</v>
-      </c>
       <c r="D253" t="n">
+        <v>67</v>
+      </c>
+      <c r="E253" t="n">
         <v>66.23</v>
       </c>
-      <c r="E253" t="n">
-        <v>66.22</v>
-      </c>
       <c r="F253" t="n">
-        <v>3486.9142</v>
+        <v>46259.1976</v>
       </c>
       <c r="G253" t="n">
-        <v>67.57783333333329</v>
+        <v>67.60316666666661</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9356,19 +9256,19 @@
         <v>66.23</v>
       </c>
       <c r="C254" t="n">
-        <v>66.20999999999999</v>
+        <v>66.22</v>
       </c>
       <c r="D254" t="n">
         <v>66.23</v>
       </c>
       <c r="E254" t="n">
-        <v>66.20999999999999</v>
+        <v>66.22</v>
       </c>
       <c r="F254" t="n">
-        <v>49397.4682</v>
+        <v>3486.9142</v>
       </c>
       <c r="G254" t="n">
-        <v>67.52716666666662</v>
+        <v>67.57783333333329</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9388,22 +9288,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>66.20999999999999</v>
+        <v>66.23</v>
       </c>
       <c r="C255" t="n">
         <v>66.20999999999999</v>
       </c>
       <c r="D255" t="n">
-        <v>66.20999999999999</v>
+        <v>66.23</v>
       </c>
       <c r="E255" t="n">
         <v>66.20999999999999</v>
       </c>
       <c r="F255" t="n">
-        <v>4737.6729</v>
+        <v>49397.4682</v>
       </c>
       <c r="G255" t="n">
-        <v>67.49866666666662</v>
+        <v>67.52716666666662</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9426,19 +9326,19 @@
         <v>66.20999999999999</v>
       </c>
       <c r="C256" t="n">
-        <v>66</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="D256" t="n">
         <v>66.20999999999999</v>
       </c>
       <c r="E256" t="n">
-        <v>66</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="F256" t="n">
-        <v>95932.3327</v>
+        <v>4737.6729</v>
       </c>
       <c r="G256" t="n">
-        <v>67.46666666666663</v>
+        <v>67.49866666666662</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9458,22 +9358,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>65.90000000000001</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="C257" t="n">
-        <v>65.28</v>
+        <v>66</v>
       </c>
       <c r="D257" t="n">
-        <v>65.90000000000001</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="E257" t="n">
-        <v>65.28</v>
+        <v>66</v>
       </c>
       <c r="F257" t="n">
-        <v>10579.3229</v>
+        <v>95932.3327</v>
       </c>
       <c r="G257" t="n">
-        <v>67.41299999999995</v>
+        <v>67.46666666666663</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9493,22 +9393,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>65.40000000000001</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C258" t="n">
-        <v>65.29000000000001</v>
+        <v>65.28</v>
       </c>
       <c r="D258" t="n">
-        <v>65.40000000000001</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="E258" t="n">
-        <v>65.29000000000001</v>
+        <v>65.28</v>
       </c>
       <c r="F258" t="n">
-        <v>4169.2011</v>
+        <v>10579.3229</v>
       </c>
       <c r="G258" t="n">
-        <v>67.35116666666661</v>
+        <v>67.41299999999995</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9528,22 +9428,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>65.3</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="C259" t="n">
         <v>65.29000000000001</v>
       </c>
       <c r="D259" t="n">
-        <v>65.3</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E259" t="n">
         <v>65.29000000000001</v>
       </c>
       <c r="F259" t="n">
-        <v>3962.2502</v>
+        <v>4169.2011</v>
       </c>
       <c r="G259" t="n">
-        <v>67.28933333333329</v>
+        <v>67.35116666666661</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9563,22 +9463,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>65.29000000000001</v>
+        <v>65.3</v>
       </c>
       <c r="C260" t="n">
         <v>65.29000000000001</v>
       </c>
       <c r="D260" t="n">
-        <v>65.29000000000001</v>
+        <v>65.3</v>
       </c>
       <c r="E260" t="n">
         <v>65.29000000000001</v>
       </c>
       <c r="F260" t="n">
-        <v>1997.9156</v>
+        <v>3962.2502</v>
       </c>
       <c r="G260" t="n">
-        <v>67.24533333333328</v>
+        <v>67.28933333333329</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9598,22 +9498,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>65.78</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="C261" t="n">
-        <v>65.90000000000001</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="D261" t="n">
-        <v>65.90000000000001</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="E261" t="n">
-        <v>65.78</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="F261" t="n">
-        <v>4722.319923647417</v>
+        <v>1997.9156</v>
       </c>
       <c r="G261" t="n">
-        <v>67.19549999999995</v>
+        <v>67.24533333333328</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9633,22 +9533,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>65.29000000000001</v>
+        <v>65.78</v>
       </c>
       <c r="C262" t="n">
-        <v>65.28</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D262" t="n">
-        <v>65.29000000000001</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="E262" t="n">
-        <v>65.28</v>
+        <v>65.78</v>
       </c>
       <c r="F262" t="n">
-        <v>7257.4751</v>
+        <v>4722.319923647417</v>
       </c>
       <c r="G262" t="n">
-        <v>67.15449999999996</v>
+        <v>67.19549999999995</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9668,22 +9568,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>65.28</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="C263" t="n">
         <v>65.28</v>
       </c>
       <c r="D263" t="n">
-        <v>65.28</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="E263" t="n">
         <v>65.28</v>
       </c>
       <c r="F263" t="n">
-        <v>1085.6321</v>
+        <v>7257.4751</v>
       </c>
       <c r="G263" t="n">
-        <v>67.09449999999997</v>
+        <v>67.15449999999996</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9715,10 +9615,10 @@
         <v>65.28</v>
       </c>
       <c r="F264" t="n">
-        <v>414.3679</v>
+        <v>1085.6321</v>
       </c>
       <c r="G264" t="n">
-        <v>67.05233333333329</v>
+        <v>67.09449999999997</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9741,19 +9641,19 @@
         <v>65.28</v>
       </c>
       <c r="C265" t="n">
-        <v>65.27</v>
+        <v>65.28</v>
       </c>
       <c r="D265" t="n">
         <v>65.28</v>
       </c>
       <c r="E265" t="n">
-        <v>65.27</v>
+        <v>65.28</v>
       </c>
       <c r="F265" t="n">
-        <v>6147.0975</v>
+        <v>414.3679</v>
       </c>
       <c r="G265" t="n">
-        <v>67.00999999999996</v>
+        <v>67.05233333333329</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9773,22 +9673,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>65.04000000000001</v>
+        <v>65.28</v>
       </c>
       <c r="C266" t="n">
-        <v>65.28</v>
+        <v>65.27</v>
       </c>
       <c r="D266" t="n">
         <v>65.28</v>
       </c>
       <c r="E266" t="n">
-        <v>65.02</v>
+        <v>65.27</v>
       </c>
       <c r="F266" t="n">
-        <v>8877.9841</v>
+        <v>6147.0975</v>
       </c>
       <c r="G266" t="n">
-        <v>66.97099999999998</v>
+        <v>67.00999999999996</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9808,22 +9708,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>66.8</v>
+        <v>65.04000000000001</v>
       </c>
       <c r="C267" t="n">
-        <v>68.2</v>
+        <v>65.28</v>
       </c>
       <c r="D267" t="n">
-        <v>68.2</v>
+        <v>65.28</v>
       </c>
       <c r="E267" t="n">
-        <v>66.8</v>
+        <v>65.02</v>
       </c>
       <c r="F267" t="n">
-        <v>1014.4961</v>
+        <v>8877.9841</v>
       </c>
       <c r="G267" t="n">
-        <v>66.96116666666664</v>
+        <v>66.97099999999998</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9843,19 +9743,19 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>68.19</v>
+        <v>66.8</v>
       </c>
       <c r="C268" t="n">
-        <v>67.62</v>
+        <v>68.2</v>
       </c>
       <c r="D268" t="n">
-        <v>68.19</v>
+        <v>68.2</v>
       </c>
       <c r="E268" t="n">
-        <v>67.62</v>
+        <v>66.8</v>
       </c>
       <c r="F268" t="n">
-        <v>3761.0313</v>
+        <v>1014.4961</v>
       </c>
       <c r="G268" t="n">
         <v>66.96116666666664</v>
@@ -9878,22 +9778,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>67.48999999999999</v>
+        <v>68.19</v>
       </c>
       <c r="C269" t="n">
-        <v>66.90000000000001</v>
+        <v>67.62</v>
       </c>
       <c r="D269" t="n">
-        <v>67.48999999999999</v>
+        <v>68.19</v>
       </c>
       <c r="E269" t="n">
-        <v>66.90000000000001</v>
+        <v>67.62</v>
       </c>
       <c r="F269" t="n">
-        <v>9635.9666</v>
+        <v>3761.0313</v>
       </c>
       <c r="G269" t="n">
-        <v>66.9563333333333</v>
+        <v>66.96116666666664</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9913,22 +9813,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="C270" t="n">
         <v>66.90000000000001</v>
       </c>
-      <c r="C270" t="n">
-        <v>67.62</v>
-      </c>
       <c r="D270" t="n">
-        <v>67.62</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="E270" t="n">
         <v>66.90000000000001</v>
       </c>
       <c r="F270" t="n">
-        <v>19.23065223306714</v>
+        <v>9635.9666</v>
       </c>
       <c r="G270" t="n">
-        <v>66.9638333333333</v>
+        <v>66.9563333333333</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9948,22 +9848,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>67.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C271" t="n">
-        <v>67.5</v>
+        <v>67.62</v>
       </c>
       <c r="D271" t="n">
-        <v>67.5</v>
+        <v>67.62</v>
       </c>
       <c r="E271" t="n">
-        <v>67.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F271" t="n">
-        <v>1208.1236</v>
+        <v>19.23065223306714</v>
       </c>
       <c r="G271" t="n">
-        <v>66.95549999999997</v>
+        <v>66.9638333333333</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9995,7 +9895,7 @@
         <v>67.5</v>
       </c>
       <c r="F272" t="n">
-        <v>1146.4858</v>
+        <v>1208.1236</v>
       </c>
       <c r="G272" t="n">
         <v>66.95549999999997</v>
@@ -10018,22 +9918,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>67.05</v>
+        <v>67.5</v>
       </c>
       <c r="C273" t="n">
-        <v>67.05</v>
+        <v>67.5</v>
       </c>
       <c r="D273" t="n">
-        <v>67.05</v>
+        <v>67.5</v>
       </c>
       <c r="E273" t="n">
-        <v>67.05</v>
+        <v>67.5</v>
       </c>
       <c r="F273" t="n">
-        <v>2300</v>
+        <v>1146.4858</v>
       </c>
       <c r="G273" t="n">
-        <v>66.95349999999998</v>
+        <v>66.95549999999997</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10053,22 +9953,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>67.61</v>
+        <v>67.05</v>
       </c>
       <c r="C274" t="n">
-        <v>67.62</v>
+        <v>67.05</v>
       </c>
       <c r="D274" t="n">
-        <v>67.62</v>
+        <v>67.05</v>
       </c>
       <c r="E274" t="n">
-        <v>67.61</v>
+        <v>67.05</v>
       </c>
       <c r="F274" t="n">
-        <v>21903.8368</v>
+        <v>2300</v>
       </c>
       <c r="G274" t="n">
-        <v>66.96099999999997</v>
+        <v>66.95349999999998</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10091,19 +9991,19 @@
         <v>67.61</v>
       </c>
       <c r="C275" t="n">
-        <v>67.59</v>
+        <v>67.62</v>
       </c>
       <c r="D275" t="n">
+        <v>67.62</v>
+      </c>
+      <c r="E275" t="n">
         <v>67.61</v>
       </c>
-      <c r="E275" t="n">
-        <v>66.2</v>
-      </c>
       <c r="F275" t="n">
-        <v>18273.7154</v>
+        <v>21903.8368</v>
       </c>
       <c r="G275" t="n">
-        <v>66.97066666666663</v>
+        <v>66.96099999999997</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10123,22 +10023,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>67.40000000000001</v>
+        <v>67.61</v>
       </c>
       <c r="C276" t="n">
-        <v>67.40000000000001</v>
+        <v>67.59</v>
       </c>
       <c r="D276" t="n">
-        <v>67.40000000000001</v>
+        <v>67.61</v>
       </c>
       <c r="E276" t="n">
-        <v>67.40000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="F276" t="n">
-        <v>192.4716</v>
+        <v>18273.7154</v>
       </c>
       <c r="G276" t="n">
-        <v>66.97733333333331</v>
+        <v>66.97066666666663</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10158,22 +10058,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>67.48999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C277" t="n">
-        <v>67.48999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D277" t="n">
-        <v>67.48999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E277" t="n">
-        <v>67.48999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F277" t="n">
-        <v>7390.0297</v>
+        <v>192.4716</v>
       </c>
       <c r="G277" t="n">
-        <v>66.98683333333329</v>
+        <v>66.97733333333331</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10193,22 +10093,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>67.40000000000001</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="C278" t="n">
-        <v>67.40000000000001</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="D278" t="n">
-        <v>67.40000000000001</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="E278" t="n">
-        <v>67.40000000000001</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="F278" t="n">
-        <v>7.5284</v>
+        <v>7390.0297</v>
       </c>
       <c r="G278" t="n">
-        <v>66.99483333333329</v>
+        <v>66.98683333333329</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10228,22 +10128,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>66.09999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C279" t="n">
-        <v>66.09999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D279" t="n">
-        <v>66.09999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E279" t="n">
-        <v>66.09999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F279" t="n">
-        <v>9845.1538</v>
+        <v>7.5284</v>
       </c>
       <c r="G279" t="n">
-        <v>66.98316666666662</v>
+        <v>66.99483333333329</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10263,22 +10163,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>65.97</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C280" t="n">
-        <v>65.97</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D280" t="n">
-        <v>65.97</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E280" t="n">
-        <v>65.97</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F280" t="n">
-        <v>3445.2412</v>
+        <v>9845.1538</v>
       </c>
       <c r="G280" t="n">
-        <v>66.96866666666662</v>
+        <v>66.98316666666662</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10298,22 +10198,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>65.11</v>
+        <v>65.97</v>
       </c>
       <c r="C281" t="n">
-        <v>65.11</v>
+        <v>65.97</v>
       </c>
       <c r="D281" t="n">
-        <v>65.11</v>
+        <v>65.97</v>
       </c>
       <c r="E281" t="n">
-        <v>65.11</v>
+        <v>65.97</v>
       </c>
       <c r="F281" t="n">
-        <v>3613.1461</v>
+        <v>3445.2412</v>
       </c>
       <c r="G281" t="n">
-        <v>66.93999999999996</v>
+        <v>66.96866666666662</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10333,22 +10233,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>65.03</v>
+        <v>65.11</v>
       </c>
       <c r="C282" t="n">
-        <v>65</v>
+        <v>65.11</v>
       </c>
       <c r="D282" t="n">
-        <v>65.03</v>
+        <v>65.11</v>
       </c>
       <c r="E282" t="n">
-        <v>65</v>
+        <v>65.11</v>
       </c>
       <c r="F282" t="n">
-        <v>6000.742</v>
+        <v>3613.1461</v>
       </c>
       <c r="G282" t="n">
-        <v>66.90949999999995</v>
+        <v>66.93999999999996</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10368,22 +10268,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
+        <v>65.03</v>
+      </c>
+      <c r="C283" t="n">
         <v>65</v>
       </c>
-      <c r="C283" t="n">
-        <v>64.01000000000001</v>
-      </c>
       <c r="D283" t="n">
+        <v>65.03</v>
+      </c>
+      <c r="E283" t="n">
         <v>65</v>
       </c>
-      <c r="E283" t="n">
-        <v>64.01000000000001</v>
-      </c>
       <c r="F283" t="n">
-        <v>5227.4106</v>
+        <v>6000.742</v>
       </c>
       <c r="G283" t="n">
-        <v>66.8623333333333</v>
+        <v>66.90949999999995</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10403,22 +10303,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C284" t="n">
-        <v>63.62</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="D284" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E284" t="n">
-        <v>63.62</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="F284" t="n">
-        <v>13616.5646</v>
+        <v>5227.4106</v>
       </c>
       <c r="G284" t="n">
-        <v>66.79133333333328</v>
+        <v>66.8623333333333</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10438,22 +10338,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
+        <v>64</v>
+      </c>
+      <c r="C285" t="n">
         <v>63.62</v>
       </c>
-      <c r="C285" t="n">
-        <v>66.98999999999999</v>
-      </c>
       <c r="D285" t="n">
-        <v>66.98999999999999</v>
+        <v>64</v>
       </c>
       <c r="E285" t="n">
         <v>63.62</v>
       </c>
       <c r="F285" t="n">
-        <v>7793.821</v>
+        <v>13616.5646</v>
       </c>
       <c r="G285" t="n">
-        <v>66.77449999999995</v>
+        <v>66.79133333333328</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10473,22 +10373,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>66</v>
+        <v>63.62</v>
       </c>
       <c r="C286" t="n">
-        <v>66</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="D286" t="n">
-        <v>66</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="E286" t="n">
-        <v>66</v>
+        <v>63.62</v>
       </c>
       <c r="F286" t="n">
-        <v>23.09</v>
+        <v>7793.821</v>
       </c>
       <c r="G286" t="n">
-        <v>66.76099999999995</v>
+        <v>66.77449999999995</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10508,22 +10408,22 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>66.8</v>
+        <v>66</v>
       </c>
       <c r="C287" t="n">
-        <v>66.8</v>
+        <v>66</v>
       </c>
       <c r="D287" t="n">
-        <v>66.8</v>
+        <v>66</v>
       </c>
       <c r="E287" t="n">
-        <v>66.8</v>
+        <v>66</v>
       </c>
       <c r="F287" t="n">
-        <v>8</v>
+        <v>23.09</v>
       </c>
       <c r="G287" t="n">
-        <v>66.7608333333333</v>
+        <v>66.76099999999995</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10543,22 +10443,22 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>66.15000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="C288" t="n">
-        <v>66.15000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="D288" t="n">
-        <v>66.15000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="E288" t="n">
-        <v>66.15000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="F288" t="n">
-        <v>3572.4565</v>
+        <v>8</v>
       </c>
       <c r="G288" t="n">
-        <v>66.74999999999996</v>
+        <v>66.7608333333333</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10578,22 +10478,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>64.70999999999999</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="C289" t="n">
-        <v>64.7</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="D289" t="n">
-        <v>64.70999999999999</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="E289" t="n">
-        <v>64.7</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="F289" t="n">
-        <v>4354.0869</v>
+        <v>3572.4565</v>
       </c>
       <c r="G289" t="n">
-        <v>66.71616666666662</v>
+        <v>66.74999999999996</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10613,22 +10513,22 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>65.89</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="C290" t="n">
-        <v>65.98999999999999</v>
+        <v>64.7</v>
       </c>
       <c r="D290" t="n">
-        <v>65.98999999999999</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="E290" t="n">
-        <v>65.89</v>
+        <v>64.7</v>
       </c>
       <c r="F290" t="n">
-        <v>163.3841</v>
+        <v>4354.0869</v>
       </c>
       <c r="G290" t="n">
-        <v>66.70249999999994</v>
+        <v>66.71616666666662</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10648,22 +10548,22 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>65.7</v>
+        <v>65.89</v>
       </c>
       <c r="C291" t="n">
-        <v>65.79000000000001</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="D291" t="n">
-        <v>65.79000000000001</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="E291" t="n">
-        <v>65.7</v>
+        <v>65.89</v>
       </c>
       <c r="F291" t="n">
-        <v>6887.5836</v>
+        <v>163.3841</v>
       </c>
       <c r="G291" t="n">
-        <v>66.66799999999995</v>
+        <v>66.70249999999994</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10683,22 +10583,22 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>65.95999999999999</v>
+        <v>65.7</v>
       </c>
       <c r="C292" t="n">
-        <v>65.95999999999999</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="D292" t="n">
-        <v>65.95999999999999</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="E292" t="n">
-        <v>65.95999999999999</v>
+        <v>65.7</v>
       </c>
       <c r="F292" t="n">
-        <v>8</v>
+        <v>6887.5836</v>
       </c>
       <c r="G292" t="n">
-        <v>66.65383333333328</v>
+        <v>66.66799999999995</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -10718,7 +10618,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>65.95</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="C293" t="n">
         <v>65.95999999999999</v>
@@ -10727,13 +10627,13 @@
         <v>65.95999999999999</v>
       </c>
       <c r="E293" t="n">
-        <v>65.95</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="F293" t="n">
-        <v>16290.36115905094</v>
+        <v>8</v>
       </c>
       <c r="G293" t="n">
-        <v>66.64966666666662</v>
+        <v>66.65383333333328</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -10753,32 +10653,38 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>64.42</v>
+        <v>65.95</v>
       </c>
       <c r="C294" t="n">
-        <v>64.42</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="D294" t="n">
-        <v>64.42</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="E294" t="n">
-        <v>64.42</v>
+        <v>65.95</v>
       </c>
       <c r="F294" t="n">
-        <v>5982.0603</v>
+        <v>16290.36115905094</v>
       </c>
       <c r="G294" t="n">
-        <v>66.61949999999995</v>
+        <v>66.64966666666662</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>65.95999999999999</v>
+      </c>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10788,22 +10694,22 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>64.39</v>
+        <v>64.42</v>
       </c>
       <c r="C295" t="n">
-        <v>64.39</v>
+        <v>64.42</v>
       </c>
       <c r="D295" t="n">
-        <v>64.39</v>
+        <v>64.42</v>
       </c>
       <c r="E295" t="n">
-        <v>64.39</v>
+        <v>64.42</v>
       </c>
       <c r="F295" t="n">
-        <v>500</v>
+        <v>5982.0603</v>
       </c>
       <c r="G295" t="n">
-        <v>66.56233333333327</v>
+        <v>66.61949999999995</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10813,7 +10719,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -10823,32 +10733,38 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>65.95</v>
+        <v>64.39</v>
       </c>
       <c r="C296" t="n">
-        <v>65.95</v>
+        <v>64.39</v>
       </c>
       <c r="D296" t="n">
-        <v>65.95</v>
+        <v>64.39</v>
       </c>
       <c r="E296" t="n">
-        <v>65.95</v>
+        <v>64.39</v>
       </c>
       <c r="F296" t="n">
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="G296" t="n">
-        <v>66.53983333333328</v>
+        <v>66.56233333333327</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>64.42</v>
+      </c>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -10858,32 +10774,38 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>65.59</v>
+        <v>65.95</v>
       </c>
       <c r="C297" t="n">
-        <v>65.66</v>
+        <v>65.95</v>
       </c>
       <c r="D297" t="n">
-        <v>65.66</v>
+        <v>65.95</v>
       </c>
       <c r="E297" t="n">
-        <v>65.59</v>
+        <v>65.95</v>
       </c>
       <c r="F297" t="n">
-        <v>5343.225</v>
+        <v>8</v>
       </c>
       <c r="G297" t="n">
-        <v>66.50416666666659</v>
+        <v>66.53983333333328</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>64.39</v>
+      </c>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -10893,32 +10815,38 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
+        <v>65.59</v>
+      </c>
+      <c r="C298" t="n">
         <v>65.66</v>
       </c>
-      <c r="C298" t="n">
-        <v>65.75</v>
-      </c>
       <c r="D298" t="n">
-        <v>65.75</v>
+        <v>65.66</v>
       </c>
       <c r="E298" t="n">
-        <v>65.66</v>
+        <v>65.59</v>
       </c>
       <c r="F298" t="n">
-        <v>3630.835</v>
+        <v>5343.225</v>
       </c>
       <c r="G298" t="n">
-        <v>66.46983333333327</v>
+        <v>66.50416666666659</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>65.95</v>
+      </c>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -10928,22 +10856,22 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>65.8</v>
+        <v>65.66</v>
       </c>
       <c r="C299" t="n">
-        <v>65.8</v>
+        <v>65.75</v>
       </c>
       <c r="D299" t="n">
-        <v>65.8</v>
+        <v>65.75</v>
       </c>
       <c r="E299" t="n">
-        <v>65.8</v>
+        <v>65.66</v>
       </c>
       <c r="F299" t="n">
-        <v>3952.6216</v>
+        <v>3630.835</v>
       </c>
       <c r="G299" t="n">
-        <v>66.44999999999995</v>
+        <v>66.46983333333327</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -10953,7 +10881,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -10966,29 +10898,35 @@
         <v>65.8</v>
       </c>
       <c r="C300" t="n">
-        <v>65.95999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="D300" t="n">
-        <v>65.95999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="E300" t="n">
         <v>65.8</v>
       </c>
       <c r="F300" t="n">
-        <v>22706.6923</v>
+        <v>3952.6216</v>
       </c>
       <c r="G300" t="n">
-        <v>66.42433333333328</v>
+        <v>66.44999999999995</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>65.75</v>
+      </c>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -10998,7 +10936,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>65.95999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="C301" t="n">
         <v>65.95999999999999</v>
@@ -11007,13 +10945,13 @@
         <v>65.95999999999999</v>
       </c>
       <c r="E301" t="n">
-        <v>65.95999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="F301" t="n">
-        <v>7086.37224094906</v>
+        <v>22706.6923</v>
       </c>
       <c r="G301" t="n">
-        <v>66.37366666666661</v>
+        <v>66.42433333333328</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -11023,8 +10961,51 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>65.95999999999999</v>
+      </c>
+      <c r="C302" t="n">
+        <v>65.95999999999999</v>
+      </c>
+      <c r="D302" t="n">
+        <v>65.95999999999999</v>
+      </c>
+      <c r="E302" t="n">
+        <v>65.95999999999999</v>
+      </c>
+      <c r="F302" t="n">
+        <v>7086.37224094906</v>
+      </c>
+      <c r="G302" t="n">
+        <v>66.37366666666661</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M302" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-20 BackTest FX.xlsx
+++ b/BackTest/2020-01-20 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M302"/>
+  <dimension ref="A1:N312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>9259.977500000001</v>
       </c>
       <c r="G2" t="n">
+        <v>67.38066666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>70.4763333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>5845.377</v>
       </c>
       <c r="G3" t="n">
+        <v>67.29600000000001</v>
+      </c>
+      <c r="H3" t="n">
         <v>70.26316666666663</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>12507.7877</v>
       </c>
       <c r="G4" t="n">
+        <v>67.24266666666666</v>
+      </c>
+      <c r="H4" t="n">
         <v>70.13783333333329</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1808.142</v>
       </c>
       <c r="G5" t="n">
+        <v>67.26666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>70.0768333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>8354.0484</v>
       </c>
       <c r="G6" t="n">
+        <v>67.26733333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>69.88816666666662</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>15232.9052</v>
       </c>
       <c r="G7" t="n">
+        <v>67.29999999999998</v>
+      </c>
+      <c r="H7" t="n">
         <v>69.74933333333328</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>7571.8259</v>
       </c>
       <c r="G8" t="n">
+        <v>67.27333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>69.60449999999994</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>146.657</v>
       </c>
       <c r="G9" t="n">
+        <v>67.20466666666665</v>
+      </c>
+      <c r="H9" t="n">
         <v>69.52616666666661</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>10022.4143</v>
       </c>
       <c r="G10" t="n">
+        <v>67.12599999999999</v>
+      </c>
+      <c r="H10" t="n">
         <v>69.46799999999995</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>5266.6307</v>
       </c>
       <c r="G11" t="n">
+        <v>66.99266666666665</v>
+      </c>
+      <c r="H11" t="n">
         <v>69.36633333333329</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>100</v>
       </c>
       <c r="G12" t="n">
+        <v>66.87266666666666</v>
+      </c>
+      <c r="H12" t="n">
         <v>69.27799999999995</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>8848.1291</v>
       </c>
       <c r="G13" t="n">
+        <v>66.76666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>69.21116666666661</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>150</v>
       </c>
       <c r="G14" t="n">
+        <v>66.77266666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>69.16266666666661</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>17.8755</v>
       </c>
       <c r="G15" t="n">
+        <v>66.812</v>
+      </c>
+      <c r="H15" t="n">
         <v>69.07466666666662</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>10</v>
       </c>
       <c r="G16" t="n">
+        <v>66.75133333333332</v>
+      </c>
+      <c r="H16" t="n">
         <v>68.95966666666661</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>8377.412399999999</v>
       </c>
       <c r="G17" t="n">
+        <v>66.76533333333332</v>
+      </c>
+      <c r="H17" t="n">
         <v>68.84283333333327</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
+        <v>66.77799999999998</v>
+      </c>
+      <c r="H18" t="n">
         <v>68.74949999999994</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>8</v>
       </c>
       <c r="G19" t="n">
+        <v>66.8253333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>68.68266666666661</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>10</v>
       </c>
       <c r="G20" t="n">
+        <v>66.83399999999999</v>
+      </c>
+      <c r="H20" t="n">
         <v>68.60566666666661</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>3351.9947</v>
       </c>
       <c r="G21" t="n">
+        <v>66.82733333333331</v>
+      </c>
+      <c r="H21" t="n">
         <v>68.53149999999995</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>2267.3636</v>
       </c>
       <c r="G22" t="n">
+        <v>66.78133333333332</v>
+      </c>
+      <c r="H22" t="n">
         <v>68.45733333333328</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>8673.860699999999</v>
       </c>
       <c r="G23" t="n">
+        <v>66.77599999999998</v>
+      </c>
+      <c r="H23" t="n">
         <v>68.35166666666662</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>1134.147</v>
       </c>
       <c r="G24" t="n">
+        <v>66.78266666666664</v>
+      </c>
+      <c r="H24" t="n">
         <v>68.27749999999995</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>10651.8451</v>
       </c>
       <c r="G25" t="n">
+        <v>66.7893333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>68.22283333333328</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>3497.4494</v>
       </c>
       <c r="G26" t="n">
+        <v>66.86866666666663</v>
+      </c>
+      <c r="H26" t="n">
         <v>68.15366666666662</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>53.5</v>
       </c>
       <c r="G27" t="n">
+        <v>66.94133333333329</v>
+      </c>
+      <c r="H27" t="n">
         <v>68.08449999999996</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>19.5</v>
       </c>
       <c r="G28" t="n">
+        <v>67.01999999999995</v>
+      </c>
+      <c r="H28" t="n">
         <v>68.0178333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>10</v>
       </c>
       <c r="G29" t="n">
+        <v>66.9673333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>67.93616666666664</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>3132.0849</v>
       </c>
       <c r="G30" t="n">
+        <v>67.01266666666662</v>
+      </c>
+      <c r="H30" t="n">
         <v>67.86849999999998</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>67.4512</v>
       </c>
       <c r="G31" t="n">
+        <v>67.09199999999996</v>
+      </c>
+      <c r="H31" t="n">
         <v>67.81316666666665</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>159.4768</v>
       </c>
       <c r="G32" t="n">
+        <v>67.16533333333329</v>
+      </c>
+      <c r="H32" t="n">
         <v>67.75649999999999</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>8747.962299999999</v>
       </c>
       <c r="G33" t="n">
+        <v>67.25866666666664</v>
+      </c>
+      <c r="H33" t="n">
         <v>67.71166666666666</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>66.3646</v>
       </c>
       <c r="G34" t="n">
+        <v>67.41066666666664</v>
+      </c>
+      <c r="H34" t="n">
         <v>67.69633333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>69710.62472652104</v>
       </c>
       <c r="G35" t="n">
+        <v>67.74466666666665</v>
+      </c>
+      <c r="H35" t="n">
         <v>67.70700000000001</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>19830.5713</v>
       </c>
       <c r="G36" t="n">
+        <v>67.82666666666665</v>
+      </c>
+      <c r="H36" t="n">
         <v>67.66083333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>100881.9562284619</v>
       </c>
       <c r="G37" t="n">
+        <v>68.154</v>
+      </c>
+      <c r="H37" t="n">
         <v>67.68266666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>6549.5991</v>
       </c>
       <c r="G38" t="n">
+        <v>68.432</v>
+      </c>
+      <c r="H38" t="n">
         <v>67.68416666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>20326.07832485876</v>
       </c>
       <c r="G39" t="n">
+        <v>68.512</v>
+      </c>
+      <c r="H39" t="n">
         <v>67.64933333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>19011.8322</v>
       </c>
       <c r="G40" t="n">
+        <v>68.63200000000001</v>
+      </c>
+      <c r="H40" t="n">
         <v>67.62933333333334</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>2000</v>
       </c>
       <c r="G41" t="n">
+        <v>68.68800000000002</v>
+      </c>
+      <c r="H41" t="n">
         <v>67.60666666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>37979.9076</v>
       </c>
       <c r="G42" t="n">
+        <v>68.71600000000002</v>
+      </c>
+      <c r="H42" t="n">
         <v>67.55200000000001</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>3260.6893</v>
       </c>
       <c r="G43" t="n">
+        <v>68.73533333333336</v>
+      </c>
+      <c r="H43" t="n">
         <v>67.5665</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>7.5</v>
       </c>
       <c r="G44" t="n">
+        <v>68.83533333333337</v>
+      </c>
+      <c r="H44" t="n">
         <v>67.56483333333334</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>6265.9771</v>
       </c>
       <c r="G45" t="n">
+        <v>68.85000000000004</v>
+      </c>
+      <c r="H45" t="n">
         <v>67.53500000000001</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>10000</v>
       </c>
       <c r="G46" t="n">
+        <v>68.86466666666669</v>
+      </c>
+      <c r="H46" t="n">
         <v>67.53866666666669</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>1685.2434</v>
       </c>
       <c r="G47" t="n">
+        <v>68.85800000000003</v>
+      </c>
+      <c r="H47" t="n">
         <v>67.54233333333336</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>25.1233</v>
       </c>
       <c r="G48" t="n">
+        <v>68.85133333333337</v>
+      </c>
+      <c r="H48" t="n">
         <v>67.54600000000002</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>1526.8422</v>
       </c>
       <c r="G49" t="n">
+        <v>68.69333333333338</v>
+      </c>
+      <c r="H49" t="n">
         <v>67.54300000000003</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>15035.8343</v>
       </c>
       <c r="G50" t="n">
+        <v>68.39000000000004</v>
+      </c>
+      <c r="H50" t="n">
         <v>67.55883333333337</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>13955.1617</v>
       </c>
       <c r="G51" t="n">
+        <v>68.32733333333337</v>
+      </c>
+      <c r="H51" t="n">
         <v>67.5621666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>3861.3681</v>
       </c>
       <c r="G52" t="n">
+        <v>68.01333333333336</v>
+      </c>
+      <c r="H52" t="n">
         <v>67.56216666666668</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>870.5841</v>
       </c>
       <c r="G53" t="n">
+        <v>67.84666666666671</v>
+      </c>
+      <c r="H53" t="n">
         <v>67.58200000000002</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>17783.8423</v>
       </c>
       <c r="G54" t="n">
+        <v>67.77400000000004</v>
+      </c>
+      <c r="H54" t="n">
         <v>67.56833333333336</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>2263.2708</v>
       </c>
       <c r="G55" t="n">
+        <v>67.66066666666671</v>
+      </c>
+      <c r="H55" t="n">
         <v>67.55200000000004</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>17484.66171016443</v>
       </c>
       <c r="G56" t="n">
+        <v>67.54600000000003</v>
+      </c>
+      <c r="H56" t="n">
         <v>67.52383333333336</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>4987.116089835576</v>
       </c>
       <c r="G57" t="n">
+        <v>67.46000000000004</v>
+      </c>
+      <c r="H57" t="n">
         <v>67.49750000000002</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>9844.912399999999</v>
       </c>
       <c r="G58" t="n">
+        <v>67.38200000000003</v>
+      </c>
+      <c r="H58" t="n">
         <v>67.47600000000003</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>25485.68921016443</v>
       </c>
       <c r="G59" t="n">
+        <v>67.27000000000004</v>
+      </c>
+      <c r="H59" t="n">
         <v>67.46133333333336</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>6424.671689835575</v>
       </c>
       <c r="G60" t="n">
+        <v>67.19200000000005</v>
+      </c>
+      <c r="H60" t="n">
         <v>67.46666666666668</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>20.5292</v>
       </c>
       <c r="G61" t="n">
+        <v>67.17733333333338</v>
+      </c>
+      <c r="H61" t="n">
         <v>67.47133333333335</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>46.422</v>
       </c>
       <c r="G62" t="n">
+        <v>67.16266666666671</v>
+      </c>
+      <c r="H62" t="n">
         <v>67.48783333333334</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>40</v>
       </c>
       <c r="G63" t="n">
+        <v>67.10266666666671</v>
+      </c>
+      <c r="H63" t="n">
         <v>67.49766666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>8</v>
       </c>
       <c r="G64" t="n">
+        <v>67.13400000000004</v>
+      </c>
+      <c r="H64" t="n">
         <v>67.51583333333335</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>1199.2882</v>
       </c>
       <c r="G65" t="n">
+        <v>67.1346666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>67.52583333333335</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>75.7317</v>
       </c>
       <c r="G66" t="n">
+        <v>67.13533333333336</v>
+      </c>
+      <c r="H66" t="n">
         <v>67.52916666666668</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>1439.7995</v>
       </c>
       <c r="G67" t="n">
+        <v>67.14200000000004</v>
+      </c>
+      <c r="H67" t="n">
         <v>67.52266666666669</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>3137.7736</v>
       </c>
       <c r="G68" t="n">
+        <v>67.0626666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>67.52933333333337</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>117.1</v>
       </c>
       <c r="G69" t="n">
+        <v>67.07533333333336</v>
+      </c>
+      <c r="H69" t="n">
         <v>67.53600000000004</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>10</v>
       </c>
       <c r="G70" t="n">
+        <v>67.1346666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>67.55416666666672</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>804.5725</v>
       </c>
       <c r="G71" t="n">
+        <v>67.1606666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>67.56583333333339</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>8825.1273</v>
       </c>
       <c r="G72" t="n">
+        <v>67.18600000000002</v>
+      </c>
+      <c r="H72" t="n">
         <v>67.57583333333338</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>1838.7803</v>
       </c>
       <c r="G73" t="n">
+        <v>67.21200000000002</v>
+      </c>
+      <c r="H73" t="n">
         <v>67.58733333333339</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>8</v>
       </c>
       <c r="G74" t="n">
+        <v>67.29000000000002</v>
+      </c>
+      <c r="H74" t="n">
         <v>67.59066666666672</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>266.5566</v>
       </c>
       <c r="G75" t="n">
+        <v>67.31733333333335</v>
+      </c>
+      <c r="H75" t="n">
         <v>67.59300000000006</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>43.6387</v>
       </c>
       <c r="G76" t="n">
+        <v>67.35133333333334</v>
+      </c>
+      <c r="H76" t="n">
         <v>67.6213333333334</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>8389.818600000001</v>
       </c>
       <c r="G77" t="n">
+        <v>67.39466666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>67.64516666666673</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>23031.9968</v>
       </c>
       <c r="G78" t="n">
+        <v>67.47533333333334</v>
+      </c>
+      <c r="H78" t="n">
         <v>67.67200000000005</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>6734.8036</v>
       </c>
       <c r="G79" t="n">
+        <v>67.49733333333334</v>
+      </c>
+      <c r="H79" t="n">
         <v>67.68383333333337</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>378.0005</v>
       </c>
       <c r="G80" t="n">
+        <v>67.59666666666668</v>
+      </c>
+      <c r="H80" t="n">
         <v>67.71650000000004</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>3545.549</v>
       </c>
       <c r="G81" t="n">
+        <v>67.69600000000001</v>
+      </c>
+      <c r="H81" t="n">
         <v>67.74633333333337</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>37.99232327512167</v>
       </c>
       <c r="G82" t="n">
+        <v>67.88000000000001</v>
+      </c>
+      <c r="H82" t="n">
         <v>67.79733333333337</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>1214.4432</v>
       </c>
       <c r="G83" t="n">
+        <v>68.05933333333334</v>
+      </c>
+      <c r="H83" t="n">
         <v>67.85016666666669</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>1170.8331</v>
       </c>
       <c r="G84" t="n">
+        <v>68.17066666666669</v>
+      </c>
+      <c r="H84" t="n">
         <v>67.88300000000004</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>1218.4113</v>
       </c>
       <c r="G85" t="n">
+        <v>68.23600000000003</v>
+      </c>
+      <c r="H85" t="n">
         <v>67.91583333333338</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>48.6177</v>
       </c>
       <c r="G86" t="n">
+        <v>68.40133333333337</v>
+      </c>
+      <c r="H86" t="n">
         <v>67.94900000000004</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>5156.3275</v>
       </c>
       <c r="G87" t="n">
+        <v>68.47533333333337</v>
+      </c>
+      <c r="H87" t="n">
         <v>67.95933333333338</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>6765.1187</v>
       </c>
       <c r="G88" t="n">
+        <v>68.55000000000004</v>
+      </c>
+      <c r="H88" t="n">
         <v>67.96983333333337</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>8224.1466</v>
       </c>
       <c r="G89" t="n">
+        <v>68.61733333333338</v>
+      </c>
+      <c r="H89" t="n">
         <v>68.0031666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>8</v>
       </c>
       <c r="G90" t="n">
+        <v>68.77400000000004</v>
+      </c>
+      <c r="H90" t="n">
         <v>68.03333333333337</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>10000</v>
       </c>
       <c r="G91" t="n">
+        <v>68.8446666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>68.05950000000003</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>11515.9984</v>
       </c>
       <c r="G92" t="n">
+        <v>68.8726666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>68.07200000000003</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>2646.5612</v>
       </c>
       <c r="G93" t="n">
+        <v>68.91866666666671</v>
+      </c>
+      <c r="H93" t="n">
         <v>68.08700000000002</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>5170.3193</v>
       </c>
       <c r="G94" t="n">
+        <v>68.9706666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>68.07383333333334</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>43.6712</v>
       </c>
       <c r="G95" t="n">
+        <v>68.99733333333339</v>
+      </c>
+      <c r="H95" t="n">
         <v>68.02966666666669</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>13586.5594</v>
       </c>
       <c r="G96" t="n">
+        <v>69.06600000000006</v>
+      </c>
+      <c r="H96" t="n">
         <v>68.05616666666668</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>5898.2118</v>
       </c>
       <c r="G97" t="n">
+        <v>69.01200000000007</v>
+      </c>
+      <c r="H97" t="n">
         <v>68.01183333333334</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>47549.0303</v>
       </c>
       <c r="G98" t="n">
+        <v>68.96266666666673</v>
+      </c>
+      <c r="H98" t="n">
         <v>67.98283333333335</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>3630.7275</v>
       </c>
       <c r="G99" t="n">
+        <v>68.97466666666674</v>
+      </c>
+      <c r="H99" t="n">
         <v>67.99866666666668</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>197.2444</v>
       </c>
       <c r="G100" t="n">
+        <v>69.0233333333334</v>
+      </c>
+      <c r="H100" t="n">
         <v>68.01366666666668</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>50529.9561</v>
       </c>
       <c r="G101" t="n">
+        <v>69.02466666666673</v>
+      </c>
+      <c r="H101" t="n">
         <v>68.03316666666669</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>2237.4564</v>
       </c>
       <c r="G102" t="n">
+        <v>69.0773333333334</v>
+      </c>
+      <c r="H102" t="n">
         <v>68.0496666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>197.1094</v>
       </c>
       <c r="G103" t="n">
+        <v>69.12933333333339</v>
+      </c>
+      <c r="H103" t="n">
         <v>68.06833333333336</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>7854.019</v>
       </c>
       <c r="G104" t="n">
+        <v>69.1393333333334</v>
+      </c>
+      <c r="H104" t="n">
         <v>68.07916666666668</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>6643.2498</v>
       </c>
       <c r="G105" t="n">
+        <v>69.10666666666674</v>
+      </c>
+      <c r="H105" t="n">
         <v>68.09750000000001</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>1721</v>
       </c>
       <c r="G106" t="n">
+        <v>69.12333333333341</v>
+      </c>
+      <c r="H106" t="n">
         <v>68.12416666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>3910.5973</v>
       </c>
       <c r="G107" t="n">
+        <v>69.1733333333334</v>
+      </c>
+      <c r="H107" t="n">
         <v>68.15083333333334</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>14577.3844</v>
       </c>
       <c r="G108" t="n">
+        <v>69.2133333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>68.17750000000002</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>9900</v>
       </c>
       <c r="G109" t="n">
+        <v>69.21466666666673</v>
+      </c>
+      <c r="H109" t="n">
         <v>68.20416666666668</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>17246.5594</v>
       </c>
       <c r="G110" t="n">
+        <v>69.11666666666673</v>
+      </c>
+      <c r="H110" t="n">
         <v>68.21133333333336</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>120.4886</v>
       </c>
       <c r="G111" t="n">
+        <v>69.00866666666674</v>
+      </c>
+      <c r="H111" t="n">
         <v>68.22650000000002</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>108.4398</v>
       </c>
       <c r="G112" t="n">
+        <v>68.97200000000007</v>
+      </c>
+      <c r="H112" t="n">
         <v>68.25150000000002</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>133.8763</v>
       </c>
       <c r="G113" t="n">
+        <v>68.96866666666673</v>
+      </c>
+      <c r="H113" t="n">
         <v>68.26333333333335</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>8</v>
       </c>
       <c r="G114" t="n">
+        <v>68.99866666666675</v>
+      </c>
+      <c r="H114" t="n">
         <v>68.30483333333335</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>284.0503</v>
       </c>
       <c r="G115" t="n">
+        <v>68.93200000000007</v>
+      </c>
+      <c r="H115" t="n">
         <v>68.33150000000002</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>5308.7486</v>
       </c>
       <c r="G116" t="n">
+        <v>68.83533333333342</v>
+      </c>
+      <c r="H116" t="n">
         <v>68.35550000000002</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>1996</v>
       </c>
       <c r="G117" t="n">
+        <v>68.78866666666676</v>
+      </c>
+      <c r="H117" t="n">
         <v>68.38183333333335</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>8350.4527</v>
       </c>
       <c r="G118" t="n">
+        <v>68.7320000000001</v>
+      </c>
+      <c r="H118" t="n">
         <v>68.40583333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>508.9998</v>
       </c>
       <c r="G119" t="n">
+        <v>68.67866666666676</v>
+      </c>
+      <c r="H119" t="n">
         <v>68.43133333333334</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>8</v>
       </c>
       <c r="G120" t="n">
+        <v>68.67133333333344</v>
+      </c>
+      <c r="H120" t="n">
         <v>68.46733333333334</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>1054.8684</v>
       </c>
       <c r="G121" t="n">
+        <v>68.59066666666676</v>
+      </c>
+      <c r="H121" t="n">
         <v>68.47750000000001</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>166.8888</v>
       </c>
       <c r="G122" t="n">
+        <v>68.5440000000001</v>
+      </c>
+      <c r="H122" t="n">
         <v>68.49616666666667</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>97.5958</v>
       </c>
       <c r="G123" t="n">
+        <v>68.51066666666676</v>
+      </c>
+      <c r="H123" t="n">
         <v>68.52950000000001</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>102.4042</v>
       </c>
       <c r="G124" t="n">
+        <v>68.51000000000009</v>
+      </c>
+      <c r="H124" t="n">
         <v>68.54816666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>50</v>
       </c>
       <c r="G125" t="n">
+        <v>68.63466666666677</v>
+      </c>
+      <c r="H125" t="n">
         <v>68.58633333333334</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>1690.8956</v>
       </c>
       <c r="G126" t="n">
+        <v>68.66200000000011</v>
+      </c>
+      <c r="H126" t="n">
         <v>68.60816666666666</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>5935.45</v>
       </c>
       <c r="G127" t="n">
+        <v>68.72066666666679</v>
+      </c>
+      <c r="H127" t="n">
         <v>68.64616666666666</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>1047.6999</v>
       </c>
       <c r="G128" t="n">
+        <v>68.68733333333346</v>
+      </c>
+      <c r="H128" t="n">
         <v>68.66949999999999</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>10833.3304</v>
       </c>
       <c r="G129" t="n">
+        <v>68.62733333333344</v>
+      </c>
+      <c r="H129" t="n">
         <v>68.69283333333331</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>10774.9593</v>
       </c>
       <c r="G130" t="n">
+        <v>68.62733333333344</v>
+      </c>
+      <c r="H130" t="n">
         <v>68.70466666666665</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,27 @@
         <v>16</v>
       </c>
       <c r="G131" t="n">
+        <v>68.63133333333344</v>
+      </c>
+      <c r="H131" t="n">
         <v>68.72316666666664</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>68.5</v>
+      </c>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5399,27 @@
         <v>27.0789</v>
       </c>
       <c r="G132" t="n">
+        <v>68.65800000000011</v>
+      </c>
+      <c r="H132" t="n">
         <v>68.7498333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>68.20999999999999</v>
+      </c>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5443,25 @@
         <v>8</v>
       </c>
       <c r="G133" t="n">
+        <v>68.74133333333344</v>
+      </c>
+      <c r="H133" t="n">
         <v>68.78816666666663</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5485,25 @@
         <v>552</v>
       </c>
       <c r="G134" t="n">
+        <v>68.78400000000011</v>
+      </c>
+      <c r="H134" t="n">
         <v>68.80483333333329</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5527,25 @@
         <v>533.6053000000001</v>
       </c>
       <c r="G135" t="n">
+        <v>68.79133333333343</v>
+      </c>
+      <c r="H135" t="n">
         <v>68.83583333333328</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5569,25 @@
         <v>22.5035</v>
       </c>
       <c r="G136" t="n">
+        <v>68.86533333333344</v>
+      </c>
+      <c r="H136" t="n">
         <v>68.85599999999995</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5611,25 @@
         <v>1811</v>
       </c>
       <c r="G137" t="n">
+        <v>68.88533333333343</v>
+      </c>
+      <c r="H137" t="n">
         <v>68.86883333333328</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5653,25 @@
         <v>12774.0142</v>
       </c>
       <c r="G138" t="n">
+        <v>68.88533333333343</v>
+      </c>
+      <c r="H138" t="n">
         <v>68.88199999999996</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5695,25 @@
         <v>1586.6115</v>
       </c>
       <c r="G139" t="n">
+        <v>68.87133333333344</v>
+      </c>
+      <c r="H139" t="n">
         <v>68.89166666666662</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5737,25 @@
         <v>8444.960499999999</v>
       </c>
       <c r="G140" t="n">
+        <v>68.81666666666676</v>
+      </c>
+      <c r="H140" t="n">
         <v>68.89133333333328</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5779,27 @@
         <v>911.2058</v>
       </c>
       <c r="G141" t="n">
+        <v>68.82266666666675</v>
+      </c>
+      <c r="H141" t="n">
         <v>68.88983333333327</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>68.56999999999999</v>
+      </c>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5823,27 @@
         <v>962.8679</v>
       </c>
       <c r="G142" t="n">
+        <v>68.77066666666676</v>
+      </c>
+      <c r="H142" t="n">
         <v>68.86883333333328</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>68.5</v>
+      </c>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5867,27 @@
         <v>3784</v>
       </c>
       <c r="G143" t="n">
+        <v>68.7640000000001</v>
+      </c>
+      <c r="H143" t="n">
         <v>68.84566666666662</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>68.59999999999999</v>
+      </c>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5911,27 @@
         <v>8</v>
       </c>
       <c r="G144" t="n">
+        <v>68.79066666666677</v>
+      </c>
+      <c r="H144" t="n">
         <v>68.84783333333327</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>68.40000000000001</v>
+      </c>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5955,27 @@
         <v>6855.3825</v>
       </c>
       <c r="G145" t="n">
+        <v>68.78400000000011</v>
+      </c>
+      <c r="H145" t="n">
         <v>68.8416666666666</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>68.90000000000001</v>
+      </c>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5999,27 @@
         <v>25991.8011</v>
       </c>
       <c r="G146" t="n">
+        <v>68.82933333333344</v>
+      </c>
+      <c r="H146" t="n">
         <v>68.8301666666666</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>68.40000000000001</v>
+      </c>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,20 +6043,27 @@
         <v>10157.944</v>
       </c>
       <c r="G147" t="n">
+        <v>68.78266666666677</v>
+      </c>
+      <c r="H147" t="n">
         <v>68.8266666666666</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="n">
+        <v>68.89</v>
+      </c>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5558,18 +6085,29 @@
         <v>21292.8823</v>
       </c>
       <c r="G148" t="n">
+        <v>68.6340000000001</v>
+      </c>
+      <c r="H148" t="n">
         <v>68.8091666666666</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>68</v>
+      </c>
+      <c r="L148" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6131,29 @@
         <v>8</v>
       </c>
       <c r="G149" t="n">
+        <v>68.59533333333344</v>
+      </c>
+      <c r="H149" t="n">
         <v>68.79933333333325</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="L149" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6177,29 @@
         <v>889</v>
       </c>
       <c r="G150" t="n">
+        <v>68.47400000000012</v>
+      </c>
+      <c r="H150" t="n">
         <v>68.76083333333327</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>68.20999999999999</v>
+      </c>
+      <c r="L150" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6223,29 @@
         <v>2050.748</v>
       </c>
       <c r="G151" t="n">
+        <v>68.39266666666678</v>
+      </c>
+      <c r="H151" t="n">
         <v>68.74299999999994</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>67.18000000000001</v>
+      </c>
+      <c r="L151" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6269,29 @@
         <v>3741</v>
       </c>
       <c r="G152" t="n">
+        <v>68.28200000000012</v>
+      </c>
+      <c r="H152" t="n">
         <v>68.7211666666666</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="L152" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6315,29 @@
         <v>222.7595</v>
       </c>
       <c r="G153" t="n">
+        <v>68.22666666666679</v>
+      </c>
+      <c r="H153" t="n">
         <v>68.70899999999993</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>67.44</v>
+      </c>
+      <c r="L153" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6361,29 @@
         <v>2109.0919</v>
       </c>
       <c r="G154" t="n">
+        <v>68.1366666666668</v>
+      </c>
+      <c r="H154" t="n">
         <v>68.68316666666661</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>68.17</v>
+      </c>
+      <c r="L154" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6407,29 @@
         <v>7.7</v>
       </c>
       <c r="G155" t="n">
+        <v>68.11000000000014</v>
+      </c>
+      <c r="H155" t="n">
         <v>68.66949999999994</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>67.44</v>
+      </c>
+      <c r="L155" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6453,29 @@
         <v>2134</v>
       </c>
       <c r="G156" t="n">
+        <v>68.03933333333347</v>
+      </c>
+      <c r="H156" t="n">
         <v>68.6331666666666</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>68.17</v>
+      </c>
+      <c r="L156" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6499,29 @@
         <v>889</v>
       </c>
       <c r="G157" t="n">
+        <v>67.96400000000014</v>
+      </c>
+      <c r="H157" t="n">
         <v>68.60683333333327</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>67.44</v>
+      </c>
+      <c r="L157" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6545,29 @@
         <v>36.5614</v>
       </c>
       <c r="G158" t="n">
+        <v>67.90200000000014</v>
+      </c>
+      <c r="H158" t="n">
         <v>68.58049999999994</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>67.47</v>
+      </c>
+      <c r="L158" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6591,29 @@
         <v>5559.5963</v>
       </c>
       <c r="G159" t="n">
+        <v>67.8066666666668</v>
+      </c>
+      <c r="H159" t="n">
         <v>68.55583333333328</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>67.47</v>
+      </c>
+      <c r="L159" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6637,29 @@
         <v>1860</v>
       </c>
       <c r="G160" t="n">
+        <v>67.7446666666668</v>
+      </c>
+      <c r="H160" t="n">
         <v>68.52199999999995</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>67.47</v>
+      </c>
+      <c r="L160" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6683,29 @@
         <v>2189</v>
       </c>
       <c r="G161" t="n">
+        <v>67.65000000000013</v>
+      </c>
+      <c r="H161" t="n">
         <v>68.48649999999995</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>67.47</v>
+      </c>
+      <c r="L161" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6729,29 @@
         <v>3381</v>
       </c>
       <c r="G162" t="n">
+        <v>67.61466666666679</v>
+      </c>
+      <c r="H162" t="n">
         <v>68.46099999999996</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>67.47</v>
+      </c>
+      <c r="L162" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6775,29 @@
         <v>172</v>
       </c>
       <c r="G163" t="n">
+        <v>67.63466666666679</v>
+      </c>
+      <c r="H163" t="n">
         <v>68.43549999999996</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>67.47</v>
+      </c>
+      <c r="L163" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6821,29 @@
         <v>5776.4136</v>
       </c>
       <c r="G164" t="n">
+        <v>67.58333333333346</v>
+      </c>
+      <c r="H164" t="n">
         <v>68.41033333333328</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>67.47</v>
+      </c>
+      <c r="L164" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6867,29 @@
         <v>20464.5798</v>
       </c>
       <c r="G165" t="n">
+        <v>67.60066666666678</v>
+      </c>
+      <c r="H165" t="n">
         <v>68.38433333333327</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>67.44</v>
+      </c>
+      <c r="L165" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +6913,29 @@
         <v>139.3693</v>
       </c>
       <c r="G166" t="n">
+        <v>67.60000000000012</v>
+      </c>
+      <c r="H166" t="n">
         <v>68.36216666666661</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>67.44</v>
+      </c>
+      <c r="L166" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +6959,27 @@
         <v>220</v>
       </c>
       <c r="G167" t="n">
+        <v>67.64866666666678</v>
+      </c>
+      <c r="H167" t="n">
         <v>68.33999999999995</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +7003,27 @@
         <v>146.3153</v>
       </c>
       <c r="G168" t="n">
+        <v>67.6486666666668</v>
+      </c>
+      <c r="H168" t="n">
         <v>68.31783333333328</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +7047,27 @@
         <v>2223</v>
       </c>
       <c r="G169" t="n">
+        <v>67.64866666666678</v>
+      </c>
+      <c r="H169" t="n">
         <v>68.2916666666666</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +7091,27 @@
         <v>4845.6199</v>
       </c>
       <c r="G170" t="n">
+        <v>67.58400000000013</v>
+      </c>
+      <c r="H170" t="n">
         <v>68.28633333333326</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +7135,27 @@
         <v>2963.088</v>
       </c>
       <c r="G171" t="n">
+        <v>67.5746666666668</v>
+      </c>
+      <c r="H171" t="n">
         <v>68.2746666666666</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +7179,27 @@
         <v>497.9519</v>
       </c>
       <c r="G172" t="n">
+        <v>67.56333333333346</v>
+      </c>
+      <c r="H172" t="n">
         <v>68.25466666666661</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +7223,27 @@
         <v>2833</v>
       </c>
       <c r="G173" t="n">
+        <v>67.54533333333346</v>
+      </c>
+      <c r="H173" t="n">
         <v>68.22466666666659</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +7267,27 @@
         <v>1999.084505133136</v>
       </c>
       <c r="G174" t="n">
+        <v>67.55400000000012</v>
+      </c>
+      <c r="H174" t="n">
         <v>68.19466666666661</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7311,27 @@
         <v>19195</v>
       </c>
       <c r="G175" t="n">
+        <v>67.57400000000011</v>
+      </c>
+      <c r="H175" t="n">
         <v>68.18249999999993</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7355,27 @@
         <v>704</v>
       </c>
       <c r="G176" t="n">
+        <v>67.61466666666678</v>
+      </c>
+      <c r="H176" t="n">
         <v>68.18133333333327</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7399,27 @@
         <v>3259.5824</v>
       </c>
       <c r="G177" t="n">
+        <v>67.65666666666677</v>
+      </c>
+      <c r="H177" t="n">
         <v>68.17799999999993</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7443,27 @@
         <v>1961.983</v>
       </c>
       <c r="G178" t="n">
+        <v>67.68200000000009</v>
+      </c>
+      <c r="H178" t="n">
         <v>68.17299999999993</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="L178" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7487,27 @@
         <v>870</v>
       </c>
       <c r="G179" t="n">
+        <v>67.70933333333342</v>
+      </c>
+      <c r="H179" t="n">
         <v>68.16799999999994</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="L179" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7531,27 @@
         <v>18</v>
       </c>
       <c r="G180" t="n">
+        <v>67.70000000000007</v>
+      </c>
+      <c r="H180" t="n">
         <v>68.14149999999992</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="L180" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7575,27 @@
         <v>7650</v>
       </c>
       <c r="G181" t="n">
+        <v>67.64200000000008</v>
+      </c>
+      <c r="H181" t="n">
         <v>68.12499999999993</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="L181" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7619,27 @@
         <v>814.4989</v>
       </c>
       <c r="G182" t="n">
+        <v>67.69000000000008</v>
+      </c>
+      <c r="H182" t="n">
         <v>68.12649999999992</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="L182" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7663,27 @@
         <v>117.9588</v>
       </c>
       <c r="G183" t="n">
+        <v>67.74533333333342</v>
+      </c>
+      <c r="H183" t="n">
         <v>68.12649999999992</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="L183" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,19 +7707,28 @@
         <v>100</v>
       </c>
       <c r="G184" t="n">
+        <v>67.86866666666675</v>
+      </c>
+      <c r="H184" t="n">
         <v>68.13133333333326</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
+      <c r="L184" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>1.008011695906433</v>
       </c>
     </row>
     <row r="185">
@@ -6853,18 +7751,21 @@
         <v>4980.9723</v>
       </c>
       <c r="G185" t="n">
+        <v>68.00800000000008</v>
+      </c>
+      <c r="H185" t="n">
         <v>68.12966666666659</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7789,21 @@
         <v>382.0412</v>
       </c>
       <c r="G186" t="n">
+        <v>68.12133333333342</v>
+      </c>
+      <c r="H186" t="n">
         <v>68.13949999999993</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7827,21 @@
         <v>2429.8028</v>
       </c>
       <c r="G187" t="n">
+        <v>68.14333333333342</v>
+      </c>
+      <c r="H187" t="n">
         <v>68.11033333333326</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +7865,21 @@
         <v>8</v>
       </c>
       <c r="G188" t="n">
+        <v>68.28266666666674</v>
+      </c>
+      <c r="H188" t="n">
         <v>68.12349999999992</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +7903,21 @@
         <v>3868</v>
       </c>
       <c r="G189" t="n">
+        <v>68.29000000000009</v>
+      </c>
+      <c r="H189" t="n">
         <v>68.11033333333326</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +7941,21 @@
         <v>24.43834825295986</v>
       </c>
       <c r="G190" t="n">
+        <v>68.38933333333343</v>
+      </c>
+      <c r="H190" t="n">
         <v>68.12299999999992</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +7979,21 @@
         <v>1052.5846</v>
       </c>
       <c r="G191" t="n">
+        <v>68.46800000000009</v>
+      </c>
+      <c r="H191" t="n">
         <v>68.14049999999993</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +8017,21 @@
         <v>6319.3624</v>
       </c>
       <c r="G192" t="n">
+        <v>68.44266666666677</v>
+      </c>
+      <c r="H192" t="n">
         <v>68.1241666666666</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,18 +8055,21 @@
         <v>8</v>
       </c>
       <c r="G193" t="n">
+        <v>68.4860000000001</v>
+      </c>
+      <c r="H193" t="n">
         <v>68.1091666666666</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,18 +8093,21 @@
         <v>1808</v>
       </c>
       <c r="G194" t="n">
+        <v>68.47866666666678</v>
+      </c>
+      <c r="H194" t="n">
         <v>68.09166666666661</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,18 +8131,21 @@
         <v>497.810238267148</v>
       </c>
       <c r="G195" t="n">
+        <v>68.60866666666678</v>
+      </c>
+      <c r="H195" t="n">
         <v>68.09583333333327</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,18 +8169,21 @@
         <v>2533</v>
       </c>
       <c r="G196" t="n">
+        <v>68.65000000000012</v>
+      </c>
+      <c r="H196" t="n">
         <v>68.0711666666666</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,18 +8207,21 @@
         <v>3545.549</v>
       </c>
       <c r="G197" t="n">
+        <v>68.58533333333345</v>
+      </c>
+      <c r="H197" t="n">
         <v>68.05149999999993</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7308,18 +8245,21 @@
         <v>135.5698</v>
       </c>
       <c r="G198" t="n">
+        <v>68.55200000000012</v>
+      </c>
+      <c r="H198" t="n">
         <v>68.04316666666661</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7343,18 +8283,21 @@
         <v>150.6331</v>
       </c>
       <c r="G199" t="n">
+        <v>68.53266666666678</v>
+      </c>
+      <c r="H199" t="n">
         <v>68.04666666666661</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7378,18 +8321,21 @@
         <v>49.3669</v>
       </c>
       <c r="G200" t="n">
+        <v>68.51333333333346</v>
+      </c>
+      <c r="H200" t="n">
         <v>68.05383333333327</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7413,18 +8359,21 @@
         <v>2931</v>
       </c>
       <c r="G201" t="n">
+        <v>68.44200000000014</v>
+      </c>
+      <c r="H201" t="n">
         <v>68.04433333333327</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7448,18 +8397,21 @@
         <v>8</v>
       </c>
       <c r="G202" t="n">
+        <v>68.52600000000014</v>
+      </c>
+      <c r="H202" t="n">
         <v>68.04916666666661</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7483,18 +8435,21 @@
         <v>11268.3642</v>
       </c>
       <c r="G203" t="n">
+        <v>68.42266666666681</v>
+      </c>
+      <c r="H203" t="n">
         <v>68.03816666666661</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7518,18 +8473,21 @@
         <v>8</v>
       </c>
       <c r="G204" t="n">
+        <v>68.5006666666668</v>
+      </c>
+      <c r="H204" t="n">
         <v>68.03783333333327</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,18 +8511,21 @@
         <v>2588</v>
       </c>
       <c r="G205" t="n">
+        <v>68.40400000000014</v>
+      </c>
+      <c r="H205" t="n">
         <v>68.02799999999993</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,18 +8549,21 @@
         <v>3690</v>
       </c>
       <c r="G206" t="n">
+        <v>68.30733333333346</v>
+      </c>
+      <c r="H206" t="n">
         <v>68.00999999999993</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7623,18 +8587,21 @@
         <v>2719</v>
       </c>
       <c r="G207" t="n">
+        <v>68.30066666666679</v>
+      </c>
+      <c r="H207" t="n">
         <v>68.0036666666666</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7658,18 +8625,21 @@
         <v>8</v>
       </c>
       <c r="G208" t="n">
+        <v>68.32000000000012</v>
+      </c>
+      <c r="H208" t="n">
         <v>68.0306666666666</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7693,18 +8663,21 @@
         <v>8497.5121</v>
       </c>
       <c r="G209" t="n">
+        <v>68.31200000000013</v>
+      </c>
+      <c r="H209" t="n">
         <v>68.02083333333327</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7728,18 +8701,21 @@
         <v>660</v>
       </c>
       <c r="G210" t="n">
+        <v>68.17466666666679</v>
+      </c>
+      <c r="H210" t="n">
         <v>68.02099999999993</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7763,18 +8739,21 @@
         <v>15785.0584</v>
       </c>
       <c r="G211" t="n">
+        <v>68.1246666666668</v>
+      </c>
+      <c r="H211" t="n">
         <v>68.00416666666659</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7798,18 +8777,21 @@
         <v>18</v>
       </c>
       <c r="G212" t="n">
+        <v>68.13000000000015</v>
+      </c>
+      <c r="H212" t="n">
         <v>68.01349999999994</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7833,18 +8815,21 @@
         <v>36.4735</v>
       </c>
       <c r="G213" t="n">
+        <v>68.06333333333347</v>
+      </c>
+      <c r="H213" t="n">
         <v>68.00233333333327</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7868,18 +8853,21 @@
         <v>54.13</v>
       </c>
       <c r="G214" t="n">
+        <v>67.94133333333347</v>
+      </c>
+      <c r="H214" t="n">
         <v>67.99783333333326</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7903,18 +8891,25 @@
         <v>4386.2919</v>
       </c>
       <c r="G215" t="n">
+        <v>67.81933333333349</v>
+      </c>
+      <c r="H215" t="n">
         <v>67.9811666666666</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="L215" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7938,18 +8933,27 @@
         <v>49788.7915</v>
       </c>
       <c r="G216" t="n">
+        <v>67.75800000000014</v>
+      </c>
+      <c r="H216" t="n">
         <v>67.97399999999992</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="L216" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7973,18 +8977,27 @@
         <v>1052.5846</v>
       </c>
       <c r="G217" t="n">
+        <v>67.63200000000015</v>
+      </c>
+      <c r="H217" t="n">
         <v>67.96616666666658</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="L217" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8008,18 +9021,29 @@
         <v>11731.4417</v>
       </c>
       <c r="G218" t="n">
+        <v>67.57733333333347</v>
+      </c>
+      <c r="H218" t="n">
         <v>67.95699999999992</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>67</v>
+      </c>
+      <c r="L218" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8043,18 +9067,29 @@
         <v>1805.501</v>
       </c>
       <c r="G219" t="n">
+        <v>67.44666666666681</v>
+      </c>
+      <c r="H219" t="n">
         <v>67.94783333333325</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>66.92</v>
+      </c>
+      <c r="L219" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8078,18 +9113,29 @@
         <v>8625.2592</v>
       </c>
       <c r="G220" t="n">
+        <v>67.37933333333349</v>
+      </c>
+      <c r="H220" t="n">
         <v>67.93666666666658</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>66.92</v>
+      </c>
+      <c r="L220" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8113,18 +9159,27 @@
         <v>3964.1796</v>
       </c>
       <c r="G221" t="n">
+        <v>67.31466666666682</v>
+      </c>
+      <c r="H221" t="n">
         <v>67.92616666666657</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="L221" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8148,18 +9203,27 @@
         <v>5141.136</v>
       </c>
       <c r="G222" t="n">
+        <v>67.26200000000014</v>
+      </c>
+      <c r="H222" t="n">
         <v>67.91549999999992</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="L222" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8183,18 +9247,27 @@
         <v>5297.0028</v>
       </c>
       <c r="G223" t="n">
+        <v>67.13133333333349</v>
+      </c>
+      <c r="H223" t="n">
         <v>67.90483333333326</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="L223" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8218,18 +9291,27 @@
         <v>0.28</v>
       </c>
       <c r="G224" t="n">
+        <v>67.07933333333348</v>
+      </c>
+      <c r="H224" t="n">
         <v>67.89483333333325</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="L224" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8253,18 +9335,27 @@
         <v>61.8782</v>
       </c>
       <c r="G225" t="n">
+        <v>67.12533333333347</v>
+      </c>
+      <c r="H225" t="n">
         <v>67.90216666666659</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="L225" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8288,18 +9379,27 @@
         <v>89.99282105882352</v>
       </c>
       <c r="G226" t="n">
+        <v>67.18066666666681</v>
+      </c>
+      <c r="H226" t="n">
         <v>67.89933333333326</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="L226" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8323,18 +9423,27 @@
         <v>3051</v>
       </c>
       <c r="G227" t="n">
+        <v>67.10133333333349</v>
+      </c>
+      <c r="H227" t="n">
         <v>67.87666666666659</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="L227" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8358,18 +9467,27 @@
         <v>14006.6489</v>
       </c>
       <c r="G228" t="n">
+        <v>67.05533333333348</v>
+      </c>
+      <c r="H228" t="n">
         <v>67.85399999999994</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="L228" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8393,18 +9511,27 @@
         <v>64355.8926</v>
       </c>
       <c r="G229" t="n">
+        <v>67.03066666666682</v>
+      </c>
+      <c r="H229" t="n">
         <v>67.84333333333328</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="L229" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8428,18 +9555,27 @@
         <v>11620.4884</v>
       </c>
       <c r="G230" t="n">
+        <v>67.00133333333348</v>
+      </c>
+      <c r="H230" t="n">
         <v>67.83549999999994</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="L230" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8463,18 +9599,27 @@
         <v>1494.5213</v>
       </c>
       <c r="G231" t="n">
+        <v>66.98800000000014</v>
+      </c>
+      <c r="H231" t="n">
         <v>67.82733333333327</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="L231" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8498,18 +9643,27 @@
         <v>8</v>
       </c>
       <c r="G232" t="n">
+        <v>67.04533333333347</v>
+      </c>
+      <c r="H232" t="n">
         <v>67.8366666666666</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="L232" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8533,18 +9687,27 @@
         <v>0.4787</v>
       </c>
       <c r="G233" t="n">
+        <v>67.03800000000014</v>
+      </c>
+      <c r="H233" t="n">
         <v>67.83016666666661</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="L233" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8568,18 +9731,27 @@
         <v>44597.9704</v>
       </c>
       <c r="G234" t="n">
+        <v>66.9906666666668</v>
+      </c>
+      <c r="H234" t="n">
         <v>67.80699999999995</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="L234" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8603,18 +9775,27 @@
         <v>108</v>
       </c>
       <c r="G235" t="n">
+        <v>66.9526666666668</v>
+      </c>
+      <c r="H235" t="n">
         <v>67.78133333333328</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="L235" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8638,18 +9819,27 @@
         <v>8</v>
       </c>
       <c r="G236" t="n">
+        <v>67.01800000000013</v>
+      </c>
+      <c r="H236" t="n">
         <v>67.77699999999996</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="L236" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8673,18 +9863,27 @@
         <v>156.1993</v>
       </c>
       <c r="G237" t="n">
+        <v>67.04933333333346</v>
+      </c>
+      <c r="H237" t="n">
         <v>67.76366666666662</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="L237" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8708,18 +9907,27 @@
         <v>12.5951</v>
       </c>
       <c r="G238" t="n">
+        <v>67.11400000000013</v>
+      </c>
+      <c r="H238" t="n">
         <v>67.76283333333329</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="L238" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8743,18 +9951,27 @@
         <v>8</v>
       </c>
       <c r="G239" t="n">
+        <v>67.1786666666668</v>
+      </c>
+      <c r="H239" t="n">
         <v>67.76216666666662</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="L239" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8778,18 +9995,27 @@
         <v>1914.2035</v>
       </c>
       <c r="G240" t="n">
+        <v>67.11933333333346</v>
+      </c>
+      <c r="H240" t="n">
         <v>67.75699999999996</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="L240" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8813,18 +10039,27 @@
         <v>138.9425</v>
       </c>
       <c r="G241" t="n">
+        <v>67.08600000000011</v>
+      </c>
+      <c r="H241" t="n">
         <v>67.76033333333329</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="L241" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8848,18 +10083,27 @@
         <v>4973.252821825235</v>
       </c>
       <c r="G242" t="n">
+        <v>67.23200000000013</v>
+      </c>
+      <c r="H242" t="n">
         <v>67.76216666666662</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="L242" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8883,18 +10127,27 @@
         <v>294.4493</v>
       </c>
       <c r="G243" t="n">
+        <v>67.31133333333347</v>
+      </c>
+      <c r="H243" t="n">
         <v>67.74549999999996</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="L243" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8918,18 +10171,27 @@
         <v>4950.9529</v>
       </c>
       <c r="G244" t="n">
+        <v>67.3246666666668</v>
+      </c>
+      <c r="H244" t="n">
         <v>67.7073333333333</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="L244" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8953,18 +10215,27 @@
         <v>100</v>
       </c>
       <c r="G245" t="n">
+        <v>67.40533333333346</v>
+      </c>
+      <c r="H245" t="n">
         <v>67.68483333333329</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="L245" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8988,18 +10259,27 @@
         <v>5000</v>
       </c>
       <c r="G246" t="n">
+        <v>67.47733333333348</v>
+      </c>
+      <c r="H246" t="n">
         <v>67.6663333333333</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="L246" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9023,18 +10303,27 @@
         <v>822.3781</v>
       </c>
       <c r="G247" t="n">
+        <v>67.49800000000015</v>
+      </c>
+      <c r="H247" t="n">
         <v>67.6753333333333</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="L247" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9058,18 +10347,27 @@
         <v>170.0067</v>
       </c>
       <c r="G248" t="n">
+        <v>67.58866666666681</v>
+      </c>
+      <c r="H248" t="n">
         <v>67.65666666666662</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="L248" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9093,18 +10391,27 @@
         <v>369</v>
       </c>
       <c r="G249" t="n">
+        <v>67.74066666666681</v>
+      </c>
+      <c r="H249" t="n">
         <v>67.66966666666663</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="L249" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9128,18 +10435,27 @@
         <v>1009.9933</v>
       </c>
       <c r="G250" t="n">
+        <v>67.82866666666681</v>
+      </c>
+      <c r="H250" t="n">
         <v>67.64116666666662</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="L250" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9163,18 +10479,27 @@
         <v>100</v>
       </c>
       <c r="G251" t="n">
+        <v>67.87266666666682</v>
+      </c>
+      <c r="H251" t="n">
         <v>67.62816666666662</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="L251" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9198,18 +10523,27 @@
         <v>1975.278</v>
       </c>
       <c r="G252" t="n">
+        <v>67.95200000000015</v>
+      </c>
+      <c r="H252" t="n">
         <v>67.64099999999995</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="L252" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9233,18 +10567,27 @@
         <v>46259.1976</v>
       </c>
       <c r="G253" t="n">
+        <v>67.84733333333348</v>
+      </c>
+      <c r="H253" t="n">
         <v>67.60316666666661</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="L253" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9268,18 +10611,27 @@
         <v>3486.9142</v>
       </c>
       <c r="G254" t="n">
+        <v>67.74133333333349</v>
+      </c>
+      <c r="H254" t="n">
         <v>67.57783333333329</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="L254" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9303,18 +10655,27 @@
         <v>49397.4682</v>
       </c>
       <c r="G255" t="n">
+        <v>67.68933333333349</v>
+      </c>
+      <c r="H255" t="n">
         <v>67.52716666666662</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="L255" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9338,18 +10699,27 @@
         <v>4737.6729</v>
       </c>
       <c r="G256" t="n">
+        <v>67.6033333333335</v>
+      </c>
+      <c r="H256" t="n">
         <v>67.49866666666662</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="L256" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9373,18 +10743,27 @@
         <v>95932.3327</v>
       </c>
       <c r="G257" t="n">
+        <v>67.40333333333349</v>
+      </c>
+      <c r="H257" t="n">
         <v>67.46666666666663</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="L257" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9408,18 +10787,27 @@
         <v>10579.3229</v>
       </c>
       <c r="G258" t="n">
+        <v>67.22200000000016</v>
+      </c>
+      <c r="H258" t="n">
         <v>67.41299999999995</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="L258" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9443,18 +10831,27 @@
         <v>4169.2011</v>
       </c>
       <c r="G259" t="n">
+        <v>67.10800000000016</v>
+      </c>
+      <c r="H259" t="n">
         <v>67.35116666666661</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="L259" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9478,18 +10875,27 @@
         <v>3962.2502</v>
       </c>
       <c r="G260" t="n">
+        <v>66.93133333333348</v>
+      </c>
+      <c r="H260" t="n">
         <v>67.28933333333329</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="L260" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9513,18 +10919,27 @@
         <v>1997.9156</v>
       </c>
       <c r="G261" t="n">
+        <v>66.75800000000015</v>
+      </c>
+      <c r="H261" t="n">
         <v>67.24533333333328</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="L261" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9548,18 +10963,27 @@
         <v>4722.319923647417</v>
       </c>
       <c r="G262" t="n">
+        <v>66.60666666666683</v>
+      </c>
+      <c r="H262" t="n">
         <v>67.19549999999995</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="L262" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9583,18 +11007,27 @@
         <v>7257.4751</v>
       </c>
       <c r="G263" t="n">
+        <v>66.41400000000016</v>
+      </c>
+      <c r="H263" t="n">
         <v>67.15449999999996</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="L263" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9618,18 +11051,27 @@
         <v>1085.6321</v>
       </c>
       <c r="G264" t="n">
+        <v>66.20000000000017</v>
+      </c>
+      <c r="H264" t="n">
         <v>67.09449999999997</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="L264" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9653,18 +11095,27 @@
         <v>414.3679</v>
       </c>
       <c r="G265" t="n">
+        <v>66.04866666666683</v>
+      </c>
+      <c r="H265" t="n">
         <v>67.05233333333329</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="L265" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9688,18 +11139,27 @@
         <v>6147.0975</v>
       </c>
       <c r="G266" t="n">
+        <v>65.83466666666683</v>
+      </c>
+      <c r="H266" t="n">
         <v>67.00999999999996</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="L266" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9723,18 +11183,27 @@
         <v>8877.9841</v>
       </c>
       <c r="G267" t="n">
+        <v>65.62066666666684</v>
+      </c>
+      <c r="H267" t="n">
         <v>66.97099999999998</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="L267" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9758,18 +11227,27 @@
         <v>1014.4961</v>
       </c>
       <c r="G268" t="n">
+        <v>65.75200000000017</v>
+      </c>
+      <c r="H268" t="n">
         <v>66.96116666666664</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="L268" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9793,18 +11271,27 @@
         <v>3761.0313</v>
       </c>
       <c r="G269" t="n">
+        <v>65.84533333333349</v>
+      </c>
+      <c r="H269" t="n">
         <v>66.96116666666664</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="L269" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9828,18 +11315,27 @@
         <v>9635.9666</v>
       </c>
       <c r="G270" t="n">
+        <v>65.89133333333349</v>
+      </c>
+      <c r="H270" t="n">
         <v>66.9563333333333</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="L270" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9863,18 +11359,27 @@
         <v>19.23065223306714</v>
       </c>
       <c r="G271" t="n">
+        <v>65.9853333333335</v>
+      </c>
+      <c r="H271" t="n">
         <v>66.9638333333333</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="L271" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9898,18 +11403,27 @@
         <v>1208.1236</v>
       </c>
       <c r="G272" t="n">
+        <v>66.08533333333349</v>
+      </c>
+      <c r="H272" t="n">
         <v>66.95549999999997</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="L272" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9933,18 +11447,27 @@
         <v>1146.4858</v>
       </c>
       <c r="G273" t="n">
+        <v>66.2333333333335</v>
+      </c>
+      <c r="H273" t="n">
         <v>66.95549999999997</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="L273" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9968,18 +11491,27 @@
         <v>2300</v>
       </c>
       <c r="G274" t="n">
+        <v>66.35066666666684</v>
+      </c>
+      <c r="H274" t="n">
         <v>66.95349999999998</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+      <c r="L274" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10003,18 +11535,27 @@
         <v>21903.8368</v>
       </c>
       <c r="G275" t="n">
+        <v>66.50600000000016</v>
+      </c>
+      <c r="H275" t="n">
         <v>66.96099999999997</v>
       </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
+      <c r="L275" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10038,18 +11579,27 @@
         <v>18273.7154</v>
       </c>
       <c r="G276" t="n">
+        <v>66.65933333333349</v>
+      </c>
+      <c r="H276" t="n">
         <v>66.97066666666663</v>
       </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
+      <c r="L276" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10073,18 +11623,27 @@
         <v>192.4716</v>
       </c>
       <c r="G277" t="n">
+        <v>66.7593333333335</v>
+      </c>
+      <c r="H277" t="n">
         <v>66.97733333333331</v>
       </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
+      <c r="L277" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10108,18 +11667,27 @@
         <v>7390.0297</v>
       </c>
       <c r="G278" t="n">
+        <v>66.90666666666682</v>
+      </c>
+      <c r="H278" t="n">
         <v>66.98683333333329</v>
       </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
+      <c r="L278" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10143,18 +11711,27 @@
         <v>7.5284</v>
       </c>
       <c r="G279" t="n">
+        <v>67.04800000000017</v>
+      </c>
+      <c r="H279" t="n">
         <v>66.99483333333329</v>
       </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
+      <c r="L279" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10178,18 +11755,27 @@
         <v>9845.1538</v>
       </c>
       <c r="G280" t="n">
+        <v>67.10266666666683</v>
+      </c>
+      <c r="H280" t="n">
         <v>66.98316666666662</v>
       </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
+      <c r="L280" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10213,18 +11799,27 @@
         <v>3445.2412</v>
       </c>
       <c r="G281" t="n">
+        <v>67.1493333333335</v>
+      </c>
+      <c r="H281" t="n">
         <v>66.96866666666662</v>
       </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
+      <c r="L281" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10248,18 +11843,27 @@
         <v>3613.1461</v>
       </c>
       <c r="G282" t="n">
+        <v>67.13800000000016</v>
+      </c>
+      <c r="H282" t="n">
         <v>66.93999999999996</v>
       </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
+      <c r="L282" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10283,18 +11887,27 @@
         <v>6000.742</v>
       </c>
       <c r="G283" t="n">
+        <v>66.92466666666682</v>
+      </c>
+      <c r="H283" t="n">
         <v>66.90949999999995</v>
       </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
+      <c r="L283" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N283" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10318,18 +11931,27 @@
         <v>5227.4106</v>
       </c>
       <c r="G284" t="n">
+        <v>66.68400000000015</v>
+      </c>
+      <c r="H284" t="n">
         <v>66.8623333333333</v>
       </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
+      <c r="L284" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N284" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10353,18 +11975,29 @@
         <v>13616.5646</v>
       </c>
       <c r="G285" t="n">
+        <v>66.46533333333349</v>
+      </c>
+      <c r="H285" t="n">
         <v>66.79133333333328</v>
       </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
       <c r="I285" t="n">
-        <v>0</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
+        <v>1</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="n">
+        <v>64.01000000000001</v>
+      </c>
+      <c r="L285" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N285" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10388,18 +12021,29 @@
         <v>7793.821</v>
       </c>
       <c r="G286" t="n">
+        <v>66.42333333333349</v>
+      </c>
+      <c r="H286" t="n">
         <v>66.77449999999995</v>
       </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
       <c r="I286" t="n">
-        <v>0</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
+        <v>1</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" t="n">
+        <v>63.62</v>
+      </c>
+      <c r="L286" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10423,18 +12067,29 @@
         <v>23.09</v>
       </c>
       <c r="G287" t="n">
+        <v>66.32333333333348</v>
+      </c>
+      <c r="H287" t="n">
         <v>66.76099999999995</v>
       </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
       <c r="I287" t="n">
-        <v>0</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
+        <v>1</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" t="n">
+        <v>66.98999999999999</v>
+      </c>
+      <c r="L287" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10458,18 +12113,27 @@
         <v>8</v>
       </c>
       <c r="G288" t="n">
+        <v>66.27666666666681</v>
+      </c>
+      <c r="H288" t="n">
         <v>66.7608333333333</v>
       </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
+      <c r="L288" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N288" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10493,18 +12157,27 @@
         <v>3572.4565</v>
       </c>
       <c r="G289" t="n">
+        <v>66.21666666666682</v>
+      </c>
+      <c r="H289" t="n">
         <v>66.74999999999996</v>
       </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
+      <c r="L289" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N289" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10528,18 +12201,27 @@
         <v>4354.0869</v>
       </c>
       <c r="G290" t="n">
+        <v>66.02200000000015</v>
+      </c>
+      <c r="H290" t="n">
         <v>66.71616666666662</v>
       </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
+      <c r="L290" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N290" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10563,18 +12245,27 @@
         <v>163.3841</v>
       </c>
       <c r="G291" t="n">
+        <v>65.91533333333348</v>
+      </c>
+      <c r="H291" t="n">
         <v>66.70249999999994</v>
       </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
+      <c r="L291" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N291" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10598,18 +12289,27 @@
         <v>6887.5836</v>
       </c>
       <c r="G292" t="n">
+        <v>65.80800000000015</v>
+      </c>
+      <c r="H292" t="n">
         <v>66.66799999999995</v>
       </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
+      <c r="L292" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N292" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10633,18 +12333,27 @@
         <v>8</v>
       </c>
       <c r="G293" t="n">
+        <v>65.70600000000015</v>
+      </c>
+      <c r="H293" t="n">
         <v>66.65383333333328</v>
       </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
+      <c r="L293" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N293" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10668,24 +12377,27 @@
         <v>16290.36115905094</v>
       </c>
       <c r="G294" t="n">
+        <v>65.61000000000016</v>
+      </c>
+      <c r="H294" t="n">
         <v>66.64966666666662</v>
       </c>
-      <c r="H294" t="n">
-        <v>1</v>
-      </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
       <c r="J294" t="n">
-        <v>65.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M294" t="n">
+      <c r="L294" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N294" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10709,22 +12421,27 @@
         <v>5982.0603</v>
       </c>
       <c r="G295" t="n">
+        <v>65.49800000000015</v>
+      </c>
+      <c r="H295" t="n">
         <v>66.61949999999995</v>
       </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M295" t="n">
+      <c r="L295" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N295" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10748,24 +12465,27 @@
         <v>500</v>
       </c>
       <c r="G296" t="n">
+        <v>65.39266666666681</v>
+      </c>
+      <c r="H296" t="n">
         <v>66.56233333333327</v>
       </c>
-      <c r="H296" t="n">
-        <v>1</v>
-      </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
       <c r="J296" t="n">
-        <v>64.42</v>
+        <v>0</v>
       </c>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M296" t="n">
+      <c r="L296" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N296" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10789,24 +12509,29 @@
         <v>8</v>
       </c>
       <c r="G297" t="n">
+        <v>65.44866666666681</v>
+      </c>
+      <c r="H297" t="n">
         <v>66.53983333333328</v>
       </c>
-      <c r="H297" t="n">
-        <v>1</v>
-      </c>
       <c r="I297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="n">
         <v>64.39</v>
       </c>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M297" t="n">
+      <c r="L297" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N297" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10830,24 +12555,27 @@
         <v>5343.225</v>
       </c>
       <c r="G298" t="n">
+        <v>65.49266666666681</v>
+      </c>
+      <c r="H298" t="n">
         <v>66.50416666666659</v>
       </c>
-      <c r="H298" t="n">
-        <v>1</v>
-      </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
       <c r="J298" t="n">
-        <v>65.95</v>
+        <v>0</v>
       </c>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M298" t="n">
+      <c r="L298" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N298" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10871,22 +12599,27 @@
         <v>3630.835</v>
       </c>
       <c r="G299" t="n">
+        <v>65.60866666666681</v>
+      </c>
+      <c r="H299" t="n">
         <v>66.46983333333327</v>
       </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M299" t="n">
+      <c r="L299" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N299" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10910,24 +12643,27 @@
         <v>3952.6216</v>
       </c>
       <c r="G300" t="n">
+        <v>65.75400000000015</v>
+      </c>
+      <c r="H300" t="n">
         <v>66.44999999999995</v>
       </c>
-      <c r="H300" t="n">
-        <v>1</v>
-      </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
       <c r="J300" t="n">
-        <v>65.75</v>
+        <v>0</v>
       </c>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M300" t="n">
+      <c r="L300" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N300" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10951,22 +12687,27 @@
         <v>22706.6923</v>
       </c>
       <c r="G301" t="n">
+        <v>65.68533333333347</v>
+      </c>
+      <c r="H301" t="n">
         <v>66.42433333333328</v>
       </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M301" t="n">
+      <c r="L301" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N301" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10990,22 +12731,467 @@
         <v>7086.37224094906</v>
       </c>
       <c r="G302" t="n">
+        <v>65.6826666666668</v>
+      </c>
+      <c r="H302" t="n">
         <v>66.37366666666661</v>
       </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M302" t="n">
+      <c r="L302" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>65.95999999999999</v>
+      </c>
+      <c r="C303" t="n">
+        <v>66</v>
+      </c>
+      <c r="D303" t="n">
+        <v>66</v>
+      </c>
+      <c r="E303" t="n">
+        <v>65.95999999999999</v>
+      </c>
+      <c r="F303" t="n">
+        <v>14903.05295905094</v>
+      </c>
+      <c r="G303" t="n">
+        <v>65.62933333333348</v>
+      </c>
+      <c r="H303" t="n">
+        <v>66.34033333333328</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>66</v>
+      </c>
+      <c r="C304" t="n">
+        <v>66.16</v>
+      </c>
+      <c r="D304" t="n">
+        <v>66.16</v>
+      </c>
+      <c r="E304" t="n">
+        <v>66</v>
+      </c>
+      <c r="F304" t="n">
+        <v>18771.892</v>
+      </c>
+      <c r="G304" t="n">
+        <v>65.63000000000015</v>
+      </c>
+      <c r="H304" t="n">
+        <v>66.32633333333327</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="C305" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D305" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="E305" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F305" t="n">
+        <v>8</v>
+      </c>
+      <c r="G305" t="n">
+        <v>65.73000000000015</v>
+      </c>
+      <c r="H305" t="n">
+        <v>66.29733333333327</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>66.18000000000001</v>
+      </c>
+      <c r="C306" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="D306" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E306" t="n">
+        <v>66.18000000000001</v>
+      </c>
+      <c r="F306" t="n">
+        <v>5333</v>
+      </c>
+      <c r="G306" t="n">
+        <v>65.79066666666681</v>
+      </c>
+      <c r="H306" t="n">
+        <v>66.28083333333328</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C307" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="D307" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E307" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="F307" t="n">
+        <v>9660.808199999999</v>
+      </c>
+      <c r="G307" t="n">
+        <v>65.95133333333348</v>
+      </c>
+      <c r="H307" t="n">
+        <v>66.28133333333327</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="C308" t="n">
+        <v>68.79000000000001</v>
+      </c>
+      <c r="D308" t="n">
+        <v>68.79000000000001</v>
+      </c>
+      <c r="E308" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="F308" t="n">
+        <v>6576.3237</v>
+      </c>
+      <c r="G308" t="n">
+        <v>66.14000000000014</v>
+      </c>
+      <c r="H308" t="n">
+        <v>66.2916666666666</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="C309" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="D309" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="E309" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="F309" t="n">
+        <v>117363.3249571159</v>
+      </c>
+      <c r="G309" t="n">
+        <v>66.34933333333348</v>
+      </c>
+      <c r="H309" t="n">
+        <v>66.30183333333326</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="C310" t="n">
+        <v>69.15000000000001</v>
+      </c>
+      <c r="D310" t="n">
+        <v>69.15000000000001</v>
+      </c>
+      <c r="E310" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="F310" t="n">
+        <v>80690.26459999999</v>
+      </c>
+      <c r="G310" t="n">
+        <v>66.66466666666682</v>
+      </c>
+      <c r="H310" t="n">
+        <v>66.32849999999993</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>69.15000000000001</v>
+      </c>
+      <c r="C311" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="D311" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="E311" t="n">
+        <v>69.15000000000001</v>
+      </c>
+      <c r="F311" t="n">
+        <v>174925.6231</v>
+      </c>
+      <c r="G311" t="n">
+        <v>67.13200000000015</v>
+      </c>
+      <c r="H311" t="n">
+        <v>66.3771666666666</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="C312" t="n">
+        <v>69.51000000000001</v>
+      </c>
+      <c r="D312" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="E312" t="n">
+        <v>69.51000000000001</v>
+      </c>
+      <c r="F312" t="n">
+        <v>88349.56533561531</v>
+      </c>
+      <c r="G312" t="n">
+        <v>67.36933333333349</v>
+      </c>
+      <c r="H312" t="n">
+        <v>66.39416666666661</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0</v>
+      </c>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N312" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-20 BackTest FX.xlsx
+++ b/BackTest/2020-01-20 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N370"/>
+  <dimension ref="A1:M370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>523329.7684266667</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>423639.9879266667</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>450684.5067266667</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>412979.9506635088</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>221826.4851852358</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>102067.4320852358</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>35493.58296915187</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>40609.83036915187</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>67484.07226915187</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7383,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7416,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7449,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7482,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7515,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7548,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +7581,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +7614,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +7647,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +7680,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7713,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7746,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +7779,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +7812,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +7845,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8558,16 +7878,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +7911,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8630,16 +7944,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +7977,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8702,16 +8010,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8043,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8076,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +8109,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8142,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8175,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +8208,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +8241,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8274,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9026,16 +8307,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9062,16 +8340,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9098,16 +8373,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9134,16 +8406,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9170,16 +8439,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9206,16 +8472,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9242,16 +8505,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9278,16 +8538,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9314,16 +8571,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9350,16 +8604,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9386,16 +8637,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9422,16 +8670,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9458,16 +8703,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9494,16 +8736,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9530,16 +8769,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9566,16 +8802,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9602,16 +8835,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9638,16 +8868,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9674,16 +8901,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9710,16 +8934,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9746,16 +8967,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9782,16 +9000,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9818,16 +9033,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9854,16 +9066,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9890,16 +9099,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9926,16 +9132,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9962,16 +9165,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9998,16 +9198,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10034,16 +9231,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10070,16 +9264,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10106,16 +9297,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10142,16 +9330,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10178,16 +9363,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10214,16 +9396,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10250,16 +9429,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10286,16 +9462,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10322,16 +9495,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10358,16 +9528,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10394,16 +9561,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10430,16 +9594,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10466,16 +9627,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10502,16 +9660,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10538,16 +9693,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10574,16 +9726,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10610,16 +9759,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10646,16 +9792,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10682,16 +9825,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10718,16 +9858,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10754,16 +9891,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10790,16 +9924,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10826,16 +9957,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10862,16 +9990,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10898,16 +10023,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10934,16 +10056,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10970,16 +10089,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11006,16 +10122,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11042,16 +10155,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11078,16 +10188,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11114,16 +10221,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11150,16 +10254,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11186,16 +10287,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11222,16 +10320,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11258,16 +10353,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11294,16 +10386,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11330,16 +10419,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11366,16 +10452,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11402,16 +10485,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11438,16 +10518,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11474,16 +10551,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11510,16 +10584,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11546,16 +10617,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11582,16 +10650,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11618,16 +10683,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11654,16 +10716,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11690,16 +10749,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11726,16 +10782,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11762,16 +10815,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11798,16 +10848,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11834,16 +10881,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11870,16 +10914,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11906,16 +10947,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11942,16 +10980,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11978,16 +11013,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12012,22 +11044,19 @@
         <v>-501082.1465065557</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I323" t="n">
-        <v>0</v>
+        <v>65.28</v>
       </c>
       <c r="J323" t="n">
         <v>65.28</v>
       </c>
-      <c r="K323" t="n">
-        <v>65.28</v>
-      </c>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12052,26 +11081,23 @@
         <v>-507229.2440065556</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I324" t="n">
-        <v>0</v>
+        <v>65.28</v>
       </c>
       <c r="J324" t="n">
         <v>65.28</v>
       </c>
-      <c r="K324" t="n">
-        <v>65.28</v>
-      </c>
-      <c r="L324" t="inlineStr">
+      <c r="K324" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12096,26 +11122,23 @@
         <v>-498351.2599065556</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I325" t="n">
-        <v>0</v>
+        <v>65.27</v>
       </c>
       <c r="J325" t="n">
-        <v>65.27</v>
-      </c>
-      <c r="K325" t="n">
         <v>65.28</v>
       </c>
-      <c r="L325" t="inlineStr">
+      <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12140,26 +11163,23 @@
         <v>-497336.7638065557</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I326" t="n">
-        <v>0</v>
+        <v>65.28</v>
       </c>
       <c r="J326" t="n">
         <v>65.28</v>
       </c>
-      <c r="K326" t="n">
-        <v>65.28</v>
-      </c>
-      <c r="L326" t="inlineStr">
+      <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12184,26 +11204,21 @@
         <v>-501097.7951065556</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="K327" t="n">
         <v>65.28</v>
       </c>
-      <c r="L327" t="inlineStr">
+      <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12228,26 +11243,21 @@
         <v>-510733.7617065556</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>67.62</v>
-      </c>
-      <c r="K328" t="n">
         <v>65.28</v>
       </c>
-      <c r="L328" t="inlineStr">
+      <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12272,26 +11282,21 @@
         <v>-510714.5310543225</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K329" t="n">
         <v>65.28</v>
       </c>
-      <c r="L329" t="inlineStr">
+      <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12318,22 +11323,19 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="n">
         <v>65.28</v>
       </c>
-      <c r="L330" t="inlineStr">
+      <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12360,22 +11362,19 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="n">
         <v>65.28</v>
       </c>
-      <c r="L331" t="inlineStr">
+      <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12402,22 +11401,19 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="n">
         <v>65.28</v>
       </c>
-      <c r="L332" t="inlineStr">
+      <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12444,22 +11440,19 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="n">
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="n">
         <v>65.28</v>
       </c>
-      <c r="L333" t="inlineStr">
+      <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12486,22 +11479,19 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="n">
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="n">
         <v>65.28</v>
       </c>
-      <c r="L334" t="inlineStr">
+      <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12528,22 +11518,19 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="n">
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="n">
         <v>65.28</v>
       </c>
-      <c r="L335" t="inlineStr">
+      <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12570,22 +11557,19 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="n">
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="n">
         <v>65.28</v>
       </c>
-      <c r="L336" t="inlineStr">
+      <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -12612,22 +11596,19 @@
       <c r="H337" t="n">
         <v>0</v>
       </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="n">
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="n">
         <v>65.28</v>
       </c>
-      <c r="L337" t="inlineStr">
+      <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -12654,22 +11635,19 @@
       <c r="H338" t="n">
         <v>0</v>
       </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="n">
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="n">
         <v>65.28</v>
       </c>
-      <c r="L338" t="inlineStr">
+      <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -12696,22 +11674,19 @@
       <c r="H339" t="n">
         <v>0</v>
       </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="n">
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="n">
         <v>65.28</v>
       </c>
-      <c r="L339" t="inlineStr">
+      <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -12738,22 +11713,19 @@
       <c r="H340" t="n">
         <v>0</v>
       </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="n">
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="n">
         <v>65.28</v>
       </c>
-      <c r="L340" t="inlineStr">
+      <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -12778,24 +11750,23 @@
         <v>-526306.7866543225</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="n">
-        <v>0</v>
-      </c>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="J341" t="n">
         <v>65.28</v>
       </c>
-      <c r="L341" t="inlineStr">
+      <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -12820,24 +11791,23 @@
         <v>-531534.1972543225</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="n">
-        <v>0</v>
-      </c>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="n">
+        <v>65</v>
+      </c>
+      <c r="J342" t="n">
         <v>65.28</v>
       </c>
-      <c r="L342" t="inlineStr">
+      <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -12862,24 +11832,23 @@
         <v>-545150.7618543225</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="n">
-        <v>0</v>
-      </c>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="n">
+        <v>64.01000000000001</v>
+      </c>
+      <c r="J343" t="n">
         <v>65.28</v>
       </c>
-      <c r="L343" t="inlineStr">
+      <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -12904,26 +11873,23 @@
         <v>-537356.9408543225</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I344" t="n">
-        <v>0</v>
+        <v>63.62</v>
       </c>
       <c r="J344" t="n">
-        <v>63.62</v>
-      </c>
-      <c r="K344" t="n">
         <v>65.28</v>
       </c>
-      <c r="L344" t="inlineStr">
+      <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -12948,26 +11914,23 @@
         <v>-537380.0308543225</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I345" t="n">
-        <v>0</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="J345" t="n">
-        <v>66.98999999999999</v>
-      </c>
-      <c r="K345" t="n">
         <v>65.28</v>
       </c>
-      <c r="L345" t="inlineStr">
+      <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M345" t="n">
-        <v>1</v>
-      </c>
-      <c r="N345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -12992,26 +11955,21 @@
         <v>-537372.0308543225</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>66</v>
-      </c>
-      <c r="K346" t="n">
         <v>65.28</v>
       </c>
-      <c r="L346" t="inlineStr">
+      <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M346" t="n">
-        <v>1</v>
-      </c>
-      <c r="N346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -13036,26 +11994,21 @@
         <v>-540944.4873543225</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K347" t="n">
         <v>65.28</v>
       </c>
-      <c r="L347" t="inlineStr">
+      <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M347" t="n">
-        <v>1</v>
-      </c>
-      <c r="N347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -13080,26 +12033,21 @@
         <v>-545298.5742543224</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>66.15000000000001</v>
-      </c>
-      <c r="K348" t="n">
         <v>65.28</v>
       </c>
-      <c r="L348" t="inlineStr">
+      <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M348" t="n">
-        <v>1</v>
-      </c>
-      <c r="N348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -13124,26 +12072,21 @@
         <v>-545135.1901543224</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="K349" t="n">
         <v>65.28</v>
       </c>
-      <c r="L349" t="inlineStr">
+      <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M349" t="n">
-        <v>1</v>
-      </c>
-      <c r="N349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -13168,26 +12111,23 @@
         <v>-552022.7737543224</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I350" t="n">
-        <v>0</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="J350" t="n">
-        <v>65.98999999999999</v>
-      </c>
-      <c r="K350" t="n">
         <v>65.28</v>
       </c>
-      <c r="L350" t="inlineStr">
+      <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M350" t="n">
-        <v>1</v>
-      </c>
-      <c r="N350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -13212,26 +12152,21 @@
         <v>-552014.7737543224</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>65.79000000000001</v>
-      </c>
-      <c r="K351" t="n">
         <v>65.28</v>
       </c>
-      <c r="L351" t="inlineStr">
+      <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M351" t="n">
-        <v>1</v>
-      </c>
-      <c r="N351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -13256,26 +12191,21 @@
         <v>-552014.7737543224</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>65.95999999999999</v>
-      </c>
-      <c r="K352" t="n">
         <v>65.28</v>
       </c>
-      <c r="L352" t="inlineStr">
+      <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M352" t="n">
-        <v>1</v>
-      </c>
-      <c r="N352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -13300,26 +12230,23 @@
         <v>-557996.8340543224</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I353" t="n">
-        <v>0</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="J353" t="n">
-        <v>65.95999999999999</v>
-      </c>
-      <c r="K353" t="n">
         <v>65.28</v>
       </c>
-      <c r="L353" t="inlineStr">
+      <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M353" t="n">
-        <v>1</v>
-      </c>
-      <c r="N353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -13344,26 +12271,23 @@
         <v>-558496.8340543224</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I354" t="n">
-        <v>0</v>
+        <v>64.42</v>
       </c>
       <c r="J354" t="n">
-        <v>64.42</v>
-      </c>
-      <c r="K354" t="n">
         <v>65.28</v>
       </c>
-      <c r="L354" t="inlineStr">
+      <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M354" t="n">
-        <v>1</v>
-      </c>
-      <c r="N354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -13388,26 +12312,23 @@
         <v>-558488.8340543224</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I355" t="n">
-        <v>0</v>
+        <v>64.39</v>
       </c>
       <c r="J355" t="n">
-        <v>64.39</v>
-      </c>
-      <c r="K355" t="n">
         <v>65.28</v>
       </c>
-      <c r="L355" t="inlineStr">
+      <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M355" t="n">
-        <v>1</v>
-      </c>
-      <c r="N355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -13432,26 +12353,21 @@
         <v>-563832.0590543224</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>65.95</v>
-      </c>
-      <c r="K356" t="n">
         <v>65.28</v>
       </c>
-      <c r="L356" t="inlineStr">
+      <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M356" t="n">
-        <v>1</v>
-      </c>
-      <c r="N356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -13476,26 +12392,23 @@
         <v>-560201.2240543225</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I357" t="n">
-        <v>0</v>
+        <v>65.66</v>
       </c>
       <c r="J357" t="n">
-        <v>65.66</v>
-      </c>
-      <c r="K357" t="n">
         <v>65.28</v>
       </c>
-      <c r="L357" t="inlineStr">
+      <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M357" t="n">
-        <v>1</v>
-      </c>
-      <c r="N357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -13520,26 +12433,21 @@
         <v>-556248.6024543225</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>65.75</v>
-      </c>
-      <c r="K358" t="n">
         <v>65.28</v>
       </c>
-      <c r="L358" t="inlineStr">
+      <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M358" t="n">
-        <v>1</v>
-      </c>
-      <c r="N358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -13564,26 +12472,21 @@
         <v>-533541.9101543225</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="K359" t="n">
         <v>65.28</v>
       </c>
-      <c r="L359" t="inlineStr">
+      <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M359" t="n">
-        <v>1</v>
-      </c>
-      <c r="N359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -13608,26 +12511,21 @@
         <v>-533541.9101543225</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>65.95999999999999</v>
-      </c>
-      <c r="K360" t="n">
         <v>65.28</v>
       </c>
-      <c r="L360" t="inlineStr">
+      <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M360" t="n">
-        <v>1</v>
-      </c>
-      <c r="N360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -13652,26 +12550,21 @@
         <v>-518638.8571952716</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>65.95999999999999</v>
-      </c>
-      <c r="K361" t="n">
         <v>65.28</v>
       </c>
-      <c r="L361" t="inlineStr">
+      <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M361" t="n">
-        <v>1</v>
-      </c>
-      <c r="N361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -13696,26 +12589,21 @@
         <v>-499866.9651952716</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>66</v>
-      </c>
-      <c r="K362" t="n">
         <v>65.28</v>
       </c>
-      <c r="L362" t="inlineStr">
+      <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M362" t="n">
-        <v>1</v>
-      </c>
-      <c r="N362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -13740,26 +12628,21 @@
         <v>-499858.9651952716</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>66.16</v>
-      </c>
-      <c r="K363" t="n">
         <v>65.28</v>
       </c>
-      <c r="L363" t="inlineStr">
+      <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M363" t="n">
-        <v>1</v>
-      </c>
-      <c r="N363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -13784,26 +12667,21 @@
         <v>-494525.9651952716</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="K364" t="n">
         <v>65.28</v>
       </c>
-      <c r="L364" t="inlineStr">
+      <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M364" t="n">
-        <v>1</v>
-      </c>
-      <c r="N364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -13828,26 +12706,21 @@
         <v>-484865.1569952716</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K365" t="n">
         <v>65.28</v>
       </c>
-      <c r="L365" t="inlineStr">
+      <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M365" t="n">
-        <v>1</v>
-      </c>
-      <c r="N365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -13872,26 +12745,21 @@
         <v>-478288.8332952716</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="K366" t="n">
         <v>65.28</v>
       </c>
-      <c r="L366" t="inlineStr">
+      <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M366" t="n">
-        <v>1</v>
-      </c>
-      <c r="N366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -13918,22 +12786,19 @@
       <c r="H367" t="n">
         <v>0</v>
       </c>
-      <c r="I367" t="n">
-        <v>0</v>
-      </c>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="n">
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="n">
         <v>65.28</v>
       </c>
-      <c r="L367" t="inlineStr">
+      <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M367" t="n">
-        <v>1</v>
-      </c>
-      <c r="N367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -13960,22 +12825,19 @@
       <c r="H368" t="n">
         <v>0</v>
       </c>
-      <c r="I368" t="n">
-        <v>0</v>
-      </c>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="n">
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="n">
         <v>65.28</v>
       </c>
-      <c r="L368" t="inlineStr">
+      <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M368" t="n">
-        <v>1</v>
-      </c>
-      <c r="N368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -14002,22 +12864,19 @@
       <c r="H369" t="n">
         <v>0</v>
       </c>
-      <c r="I369" t="n">
-        <v>0</v>
-      </c>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="n">
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="n">
         <v>65.28</v>
       </c>
-      <c r="L369" t="inlineStr">
+      <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M369" t="n">
-        <v>1</v>
-      </c>
-      <c r="N369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -14044,24 +12903,21 @@
       <c r="H370" t="n">
         <v>0</v>
       </c>
-      <c r="I370" t="n">
-        <v>0</v>
-      </c>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="n">
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="n">
         <v>65.28</v>
       </c>
-      <c r="L370" t="inlineStr">
+      <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M370" t="n">
-        <v>1</v>
-      </c>
-      <c r="N370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest FX.xlsx
+++ b/BackTest/2020-01-20 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>523329.7684266667</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>423639.9879266667</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>450684.5067266667</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>412979.9506635088</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>221826.4851852358</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>102067.4320852358</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>35493.58296915187</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>40609.83036915187</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>40592.83036915187</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>34133.24086915187</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>36879.26636915188</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>67484.07226915187</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>79267.43269324151</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>105835.873922518</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>51403.22212251805</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>26922.68652251805</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>22888.62752251805</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>22888.62752251805</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>22888.62752251805</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>24938.99422251805</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>23300.20572251805</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-122772.6739774819</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-122772.6739774819</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-137362.5940774819</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-137355.5940774819</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-117714.338977482</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-119838.592477482</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-139569.170177482</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-143268.314377482</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -10978,11 +10978,17 @@
         <v>-501082.1465065557</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>65.90000000000001</v>
+      </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11011,11 +11017,17 @@
         <v>-501082.1465065557</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>65.28</v>
+      </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11044,15 +11056,17 @@
         <v>-501082.1465065557</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>65.28</v>
       </c>
-      <c r="J323" t="n">
-        <v>65.28</v>
-      </c>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11081,17 +11095,15 @@
         <v>-507229.2440065556</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>65.28</v>
       </c>
-      <c r="J324" t="n">
-        <v>65.28</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L324" t="n">
@@ -11122,14 +11134,12 @@
         <v>-498351.2599065556</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>65.27</v>
       </c>
-      <c r="J325" t="n">
-        <v>65.28</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11163,14 +11173,12 @@
         <v>-497336.7638065557</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>65.28</v>
       </c>
-      <c r="J326" t="n">
-        <v>65.28</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11204,12 +11212,12 @@
         <v>-501097.7951065556</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11243,12 +11251,12 @@
         <v>-510733.7617065556</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>67.62</v>
+      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11282,12 +11290,12 @@
         <v>-510714.5310543225</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11321,12 +11329,12 @@
         <v>-511922.6546543225</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>67.62</v>
+      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11360,12 +11368,12 @@
         <v>-511922.6546543225</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11399,12 +11407,12 @@
         <v>-514222.6546543225</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11441,9 +11449,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>65.28</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11477,12 +11483,12 @@
         <v>-510592.5332543225</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>67.62</v>
+      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11516,12 +11522,12 @@
         <v>-510785.0048543225</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>67.59</v>
+      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11555,12 +11561,12 @@
         <v>-503394.9751543225</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11597,9 +11603,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>65.28</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11633,12 +11637,12 @@
         <v>-513247.6573543225</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11672,12 +11676,12 @@
         <v>-516692.8985543225</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11711,12 +11715,12 @@
         <v>-520306.0446543225</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>65.97</v>
+      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11750,14 +11754,12 @@
         <v>-526306.7866543225</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I341" t="n">
         <v>65.11</v>
       </c>
-      <c r="J341" t="n">
-        <v>65.28</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11791,14 +11793,12 @@
         <v>-531534.1972543225</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I342" t="n">
         <v>65</v>
       </c>
-      <c r="J342" t="n">
-        <v>65.28</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11832,14 +11832,12 @@
         <v>-545150.7618543225</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I343" t="n">
         <v>64.01000000000001</v>
       </c>
-      <c r="J343" t="n">
-        <v>65.28</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11873,14 +11871,12 @@
         <v>-537356.9408543225</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I344" t="n">
         <v>63.62</v>
       </c>
-      <c r="J344" t="n">
-        <v>65.28</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11914,14 +11910,12 @@
         <v>-537380.0308543225</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I345" t="n">
         <v>66.98999999999999</v>
       </c>
-      <c r="J345" t="n">
-        <v>65.28</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11955,12 +11949,12 @@
         <v>-537372.0308543225</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>66</v>
+      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11994,12 +11988,12 @@
         <v>-540944.4873543225</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12033,12 +12027,12 @@
         <v>-545298.5742543224</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>66.15000000000001</v>
+      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12072,12 +12066,12 @@
         <v>-545135.1901543224</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12111,14 +12105,12 @@
         <v>-552022.7737543224</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I350" t="n">
         <v>65.98999999999999</v>
       </c>
-      <c r="J350" t="n">
-        <v>65.28</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12152,12 +12144,12 @@
         <v>-552014.7737543224</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>65.79000000000001</v>
+      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12191,12 +12183,12 @@
         <v>-552014.7737543224</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>65.95999999999999</v>
+      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12230,14 +12222,12 @@
         <v>-557996.8340543224</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I353" t="n">
         <v>65.95999999999999</v>
       </c>
-      <c r="J353" t="n">
-        <v>65.28</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12271,14 +12261,12 @@
         <v>-558496.8340543224</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I354" t="n">
         <v>64.42</v>
       </c>
-      <c r="J354" t="n">
-        <v>65.28</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12312,14 +12300,12 @@
         <v>-558488.8340543224</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I355" t="n">
         <v>64.39</v>
       </c>
-      <c r="J355" t="n">
-        <v>65.28</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12353,12 +12339,12 @@
         <v>-563832.0590543224</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>65.95</v>
+      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12392,14 +12378,12 @@
         <v>-560201.2240543225</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I357" t="n">
         <v>65.66</v>
       </c>
-      <c r="J357" t="n">
-        <v>65.28</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12433,12 +12417,12 @@
         <v>-556248.6024543225</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>65.75</v>
+      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12472,12 +12456,12 @@
         <v>-533541.9101543225</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12511,12 +12495,12 @@
         <v>-533541.9101543225</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>65.95999999999999</v>
+      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12550,12 +12534,12 @@
         <v>-518638.8571952716</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>65.95999999999999</v>
+      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12589,12 +12573,12 @@
         <v>-499866.9651952716</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>66</v>
+      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12628,12 +12612,12 @@
         <v>-499858.9651952716</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>66.16</v>
+      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12667,12 +12651,12 @@
         <v>-494525.9651952716</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12706,12 +12690,12 @@
         <v>-484865.1569952716</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12745,12 +12729,12 @@
         <v>-478288.8332952716</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12784,12 +12768,12 @@
         <v>-360925.5083381557</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>65.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>68.79000000000001</v>
+      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12826,9 +12810,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>65.28</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12865,9 +12847,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>65.28</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12904,9 +12884,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>65.28</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12918,6 +12896,6 @@
       <c r="M370" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest FX.xlsx
+++ b/BackTest/2020-01-20 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>523329.7684266667</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>423639.9879266667</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>450684.5067266667</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>412979.9506635088</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>221826.4851852358</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>102067.4320852358</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>35493.58296915187</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>40609.83036915187</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>40592.83036915187</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>34133.24086915187</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>105835.873922518</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>51403.22212251805</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>26922.68652251805</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>22888.62752251805</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>22888.62752251805</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-122779.6739774819</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-137362.5940774819</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-137355.5940774819</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-92293.08837748197</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-94150.77127748197</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-139569.170177482</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-143268.314377482</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -10978,17 +10978,11 @@
         <v>-501082.1465065557</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>65.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11017,17 +11011,11 @@
         <v>-501082.1465065557</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>65.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11056,17 +11044,11 @@
         <v>-501082.1465065557</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>65.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11095,17 +11077,11 @@
         <v>-507229.2440065556</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>65.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11134,17 +11110,11 @@
         <v>-498351.2599065556</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>65.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11173,17 +11143,11 @@
         <v>-497336.7638065557</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>65.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11212,17 +11176,11 @@
         <v>-501097.7951065556</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>68.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11251,17 +11209,11 @@
         <v>-510733.7617065556</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>67.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11290,17 +11242,11 @@
         <v>-510714.5310543225</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>66.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11329,17 +11275,11 @@
         <v>-511922.6546543225</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>67.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11368,17 +11308,11 @@
         <v>-511922.6546543225</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>67.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11407,17 +11341,11 @@
         <v>-514222.6546543225</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>67.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11450,11 +11378,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11483,17 +11407,11 @@
         <v>-510592.5332543225</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>67.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11522,17 +11440,11 @@
         <v>-510785.0048543225</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>67.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11561,17 +11473,11 @@
         <v>-503394.9751543225</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>67.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11604,11 +11510,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11637,17 +11539,11 @@
         <v>-513247.6573543225</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>67.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11676,17 +11572,11 @@
         <v>-516692.8985543225</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>66.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11715,17 +11605,11 @@
         <v>-520306.0446543225</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>65.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11754,17 +11638,11 @@
         <v>-526306.7866543225</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>65.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11793,17 +11671,11 @@
         <v>-531534.1972543225</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11840,7 +11712,7 @@
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L343" t="n">
@@ -12456,11 +12328,9 @@
         <v>-533541.9101543225</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>65.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
@@ -12495,11 +12365,9 @@
         <v>-533541.9101543225</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>65.95999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
@@ -12534,11 +12402,9 @@
         <v>-518638.8571952716</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>65.95999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
@@ -12573,11 +12439,9 @@
         <v>-499866.9651952716</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
@@ -12612,11 +12476,9 @@
         <v>-499858.9651952716</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>66.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
@@ -12651,11 +12513,9 @@
         <v>-494525.9651952716</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>66.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
@@ -12690,11 +12550,9 @@
         <v>-484865.1569952716</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>66.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
@@ -12729,11 +12587,9 @@
         <v>-478288.8332952716</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>68.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
@@ -12768,11 +12624,9 @@
         <v>-360925.5083381557</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>68.79000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
@@ -12896,6 +12750,6 @@
       <c r="M370" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest FX.xlsx
+++ b/BackTest/2020-01-20 BackTest FX.xlsx
@@ -451,7 +451,7 @@
         <v>523329.7684266667</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>423639.9879266667</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>450684.5067266667</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>221826.4851852358</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>36879.26636915188</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>67484.07226915187</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>79267.43269324151</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>22888.62752251805</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>24938.99422251805</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>23300.20572251805</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-122779.6739774819</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-122772.6739774819</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-122772.6739774819</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-117714.338977482</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-119838.592477482</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-92293.08837748197</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-94150.77127748197</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -11671,11 +11671,17 @@
         <v>-531534.1972543225</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>65</v>
+      </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11712,7 +11718,7 @@
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L343" t="n">
@@ -12328,9 +12334,11 @@
         <v>-533541.9101543225</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>65.8</v>
+      </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
@@ -12365,9 +12373,11 @@
         <v>-533541.9101543225</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>65.95999999999999</v>
+      </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
@@ -12402,9 +12412,11 @@
         <v>-518638.8571952716</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>65.95999999999999</v>
+      </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
@@ -12439,9 +12451,11 @@
         <v>-499866.9651952716</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>66</v>
+      </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
@@ -12476,9 +12490,11 @@
         <v>-499858.9651952716</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>66.16</v>
+      </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
@@ -12513,9 +12529,11 @@
         <v>-494525.9651952716</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>66.2</v>
+      </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
@@ -12550,9 +12568,11 @@
         <v>-484865.1569952716</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
@@ -12587,9 +12607,11 @@
         <v>-478288.8332952716</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>68.2</v>
+      </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
@@ -12624,9 +12646,11 @@
         <v>-360925.5083381557</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>68.79000000000001</v>
+      </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
